--- a/data/hotels_by_city/Dallas/Dallas_shard_648.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_648.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="885">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2549 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r571578606-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>109499</t>
+  </si>
+  <si>
+    <t>571578606</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This is a great place to stay with children when attending the local entertainment places like six flags.  They had a good breakfast, nice swimming pool, basketball court.  Will stay again.  Parking was small was only complaint.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Jillian H, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded April 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2018</t>
+  </si>
+  <si>
+    <t>This is a great place to stay with children when attending the local entertainment places like six flags.  They had a good breakfast, nice swimming pool, basketball court.  Will stay again.  Parking was small was only complaint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r570897109-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>570897109</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviews don’t reflect the property conditions </t>
+  </si>
+  <si>
+    <t>Worn out overall.  The furniture is outdated and worn along with the TV.  I have a certain expectation when I book this brand hotel and this one is not up to par with the others I have stayed in.  The property backs up to a large apartment building.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jillian H, Owner at Residence Inn Arlington, responded to this reviewResponded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Worn out overall.  The furniture is outdated and worn along with the TV.  I have a certain expectation when I book this brand hotel and this one is not up to par with the others I have stayed in.  The property backs up to a large apartment building.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r569765821-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>569765821</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly, clean, good breakfast </t>
+  </si>
+  <si>
+    <t>We spent two nights there. Check-in early no prob, free parking. Very friendly staff, clean and very spacious room. We had a suite with King size bed. Small kitchen, living area with comfi couch, toilet and shower, separate washbasin, separate bedroom with tv. Very nice room. Price average.Coffee and tee available all day. Breakfast complimentary with fresh fruits, waffle machine, bagels, greek yoghurt. Location not in the city but close to plazas and a short drive from the mall.We enjoyed our stay very much. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Jillian H, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2018</t>
+  </si>
+  <si>
+    <t>We spent two nights there. Check-in early no prob, free parking. Very friendly staff, clean and very spacious room. We had a suite with King size bed. Small kitchen, living area with comfi couch, toilet and shower, separate washbasin, separate bedroom with tv. Very nice room. Price average.Coffee and tee available all day. Breakfast complimentary with fresh fruits, waffle machine, bagels, greek yoghurt. Location not in the city but close to plazas and a short drive from the mall.We enjoyed our stay very much. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r522449200-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>522449200</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Very Satisfying Experience</t>
+  </si>
+  <si>
+    <t>Room was very spacious.  The rate was quite reasonable.The customer service outstanding.  Free Shuttle to and from Reagan Airport; plus to the metro station.  Walking to shops and restaurants in Crystal City.  Booked again.  Would recommend to all.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Room was very spacious.  The rate was quite reasonable.The customer service outstanding.  Free Shuttle to and from Reagan Airport; plus to the metro station.  Walking to shops and restaurants in Crystal City.  Booked again.  Would recommend to all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r520340053-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>520340053</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Sentimental Days</t>
+  </si>
+  <si>
+    <t>This hotel was my home for a couple of days while we evacuated from the hurricane.I have great experience with this hotel because I had to change from a well known hotel that had no microwave.  This hotel gave me the sense of normalcy. It felt closer to being like home and it is so touching simply because we had to leave our home due to flooding.  Also,  the service was friendly, helpful, most of eager to be of service. Glad to be greeted with such hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>This hotel was my home for a couple of days while we evacuated from the hurricane.I have great experience with this hotel because I had to change from a well known hotel that had no microwave.  This hotel gave me the sense of normalcy. It felt closer to being like home and it is so touching simply because we had to leave our home due to flooding.  Also,  the service was friendly, helpful, most of eager to be of service. Glad to be greeted with such hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r506496035-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>506496035</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>A place that was reliable and homey</t>
+  </si>
+  <si>
+    <t>I am a Road Warrior spending 300 days a year in different cities and states across the US.  I rely on the Residence Inns to provide the same amenities and rooms from place to place.  I have also come to rely on the excellent staff to take care of all of my needs while I am a guest in their facilities.Arlington, Texas is a city filled with entertainment from a Baseball and Football Stadiums, a Six Flags facility, various Concert venues and Restaurants of all types of cultures.I came in February and am leaving today end of July.  During the past 6 months, I have encountered an excellent front desk staff, helpful housekeepers, and rooms that were reliable in providing me with the comforts of home.The evening food and drinks offerings where always done with a smile from the staff.If my travels bring me back to Dallas (Arlington area), I will be staying here time and time again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I am a Road Warrior spending 300 days a year in different cities and states across the US.  I rely on the Residence Inns to provide the same amenities and rooms from place to place.  I have also come to rely on the excellent staff to take care of all of my needs while I am a guest in their facilities.Arlington, Texas is a city filled with entertainment from a Baseball and Football Stadiums, a Six Flags facility, various Concert venues and Restaurants of all types of cultures.I came in February and am leaving today end of July.  During the past 6 months, I have encountered an excellent front desk staff, helpful housekeepers, and rooms that were reliable in providing me with the comforts of home.The evening food and drinks offerings where always done with a smile from the staff.If my travels bring me back to Dallas (Arlington area), I will be staying here time and time again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r483434108-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>483434108</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Nice rooms, mediocre everything else.</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks in Feb, and 6 weeks between March and April of this year. 
+The rooms are nice, bu the rest of the hotel is in need of a bit of an upgrade. The hallways look completely frumpy, and then you walk into a relatively recently remodeled room that gives a pretty good idea of where they spent their money. My biggest gripe about the rooms is that the one bedroom suites did not have a desk, which made doing any kind of work in the room very difficult. I had to move to a studio room (A decent bit smaller) in order to work comfortably, which is a major turn off considering I was living here for six weeks straight.
+On site laundry facilities were pretty good, as they had 3 washers and 3 dryers which limits the amount of time you are stuck waiting on some inconsiderate person who forgot their clothes for a couple hours. The outside space was pretty nice. Myself and several coworkers were able to sit out by the pool and grill. Breakfast was okay, standard Residence Inn breakfast so if you have ever stayed in one then you know exactly what you are getting. The social hour was less than impressive. The food was very underwhelming, and while most Residence Inn's have a few varieties of beer in bottles, they only have bud light which is poured from a...I stayed here for 2 weeks in Feb, and 6 weeks between March and April of this year. The rooms are nice, bu the rest of the hotel is in need of a bit of an upgrade. The hallways look completely frumpy, and then you walk into a relatively recently remodeled room that gives a pretty good idea of where they spent their money. My biggest gripe about the rooms is that the one bedroom suites did not have a desk, which made doing any kind of work in the room very difficult. I had to move to a studio room (A decent bit smaller) in order to work comfortably, which is a major turn off considering I was living here for six weeks straight.On site laundry facilities were pretty good, as they had 3 washers and 3 dryers which limits the amount of time you are stuck waiting on some inconsiderate person who forgot their clothes for a couple hours. The outside space was pretty nice. Myself and several coworkers were able to sit out by the pool and grill. Breakfast was okay, standard Residence Inn breakfast so if you have ever stayed in one then you know exactly what you are getting. The social hour was less than impressive. The food was very underwhelming, and while most Residence Inn's have a few varieties of beer in bottles, they only have bud light which is poured from a keg in the back room and served to the guests out of a water pitcher (Really guys? Come on...)Overall if you are staying for a few days to go to the Cowboys, Rangers, Six Flags, or Hurricane Harbor, then this hotel is great for you. It did not suit my needs though as I was trapped in the smaller room. It is another victim of Marriott's homogenization of their properties.It also worth noting that their paperwork has said that social hour is Monday through Thursday for several months, and they haven't had it on Thursdays for quite some time which is pretty frustrating when you pass on dinner plans because you are expecting to eat at the hotel. Additionally, the sign on the fridge in the rooms says they have food trucks every other Wed. I'm not sure I saw a single one across a total of 8 weeks, which was a real bummer.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Stasi W, General Manager at Residence Inn Arlington, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks in Feb, and 6 weeks between March and April of this year. 
+The rooms are nice, bu the rest of the hotel is in need of a bit of an upgrade. The hallways look completely frumpy, and then you walk into a relatively recently remodeled room that gives a pretty good idea of where they spent their money. My biggest gripe about the rooms is that the one bedroom suites did not have a desk, which made doing any kind of work in the room very difficult. I had to move to a studio room (A decent bit smaller) in order to work comfortably, which is a major turn off considering I was living here for six weeks straight.
+On site laundry facilities were pretty good, as they had 3 washers and 3 dryers which limits the amount of time you are stuck waiting on some inconsiderate person who forgot their clothes for a couple hours. The outside space was pretty nice. Myself and several coworkers were able to sit out by the pool and grill. Breakfast was okay, standard Residence Inn breakfast so if you have ever stayed in one then you know exactly what you are getting. The social hour was less than impressive. The food was very underwhelming, and while most Residence Inn's have a few varieties of beer in bottles, they only have bud light which is poured from a...I stayed here for 2 weeks in Feb, and 6 weeks between March and April of this year. The rooms are nice, bu the rest of the hotel is in need of a bit of an upgrade. The hallways look completely frumpy, and then you walk into a relatively recently remodeled room that gives a pretty good idea of where they spent their money. My biggest gripe about the rooms is that the one bedroom suites did not have a desk, which made doing any kind of work in the room very difficult. I had to move to a studio room (A decent bit smaller) in order to work comfortably, which is a major turn off considering I was living here for six weeks straight.On site laundry facilities were pretty good, as they had 3 washers and 3 dryers which limits the amount of time you are stuck waiting on some inconsiderate person who forgot their clothes for a couple hours. The outside space was pretty nice. Myself and several coworkers were able to sit out by the pool and grill. Breakfast was okay, standard Residence Inn breakfast so if you have ever stayed in one then you know exactly what you are getting. The social hour was less than impressive. The food was very underwhelming, and while most Residence Inn's have a few varieties of beer in bottles, they only have bud light which is poured from a keg in the back room and served to the guests out of a water pitcher (Really guys? Come on...)Overall if you are staying for a few days to go to the Cowboys, Rangers, Six Flags, or Hurricane Harbor, then this hotel is great for you. It did not suit my needs though as I was trapped in the smaller room. It is another victim of Marriott's homogenization of their properties.It also worth noting that their paperwork has said that social hour is Monday through Thursday for several months, and they haven't had it on Thursdays for quite some time which is pretty frustrating when you pass on dinner plans because you are expecting to eat at the hotel. Additionally, the sign on the fridge in the rooms says they have food trucks every other Wed. I'm not sure I saw a single one across a total of 8 weeks, which was a real bummer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r482341295-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>482341295</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Room is nice-managing problems is horrid</t>
+  </si>
+  <si>
+    <t>Our a/c was making this horrible noise every 7 minutes. We noticed that it was getting warmer in the room. They sent a guy up twice with a language barrier. Then they sent fans which made it even warmer. Ridiculous. Then I got my bill! What!?! I was told by the front desk that they'd give me points. Unacceptable. Now to get ahold of the manager.... You better hope there isn't an issue with your room!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Stasi W, General Manager at Residence Inn Arlington, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Our a/c was making this horrible noise every 7 minutes. We noticed that it was getting warmer in the room. They sent a guy up twice with a language barrier. Then they sent fans which made it even warmer. Ridiculous. Then I got my bill! What!?! I was told by the front desk that they'd give me points. Unacceptable. Now to get ahold of the manager.... You better hope there isn't an issue with your room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r481916477-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>481916477</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Stayed for 2 weeks</t>
+  </si>
+  <si>
+    <t>Was here for business for 2 weeks.   Everyone who worked there was extremely nice.   The kitchen was fully stocked, no oven.  Carpet was brand new (saw where they were finishing replacing) and I could walk bare foot and my feet were still clean.  New upgrades to counters/lighting.  The cabinets themselves were worn,  but didn't bother me.   Water was hot and great water pressure.  Good pillows.   I really liked there are little shelves at the bathroom vanity.  On the upside,  very accessible coin laundry with 3 working washers.   BUT,  my room backed up to the washers and shared the water line with the washers and laundry/utility sink(which was a bonus in the laundry room not for my bedroom).  It was very loud in my bedroom if the sink or big washer got used. I do not think it would effect the dryer side, so only room 214 would have this issue.  I got used to it but if you have light sleepers it would definitely be an issue.  Breakfast is good,  always has fresh fruit and varies every day.   The manager reception is Mon, Tue, Wed. It was very good with way more variety than I was expecting.  A lot of people used the grills,  basketball court and fire pit.   Safe area,  can walk to restaurants. I walked to the post office easily, there is a trolly stop outside. LOTS of closet space,  a dresser and full length mirror.  On the...Was here for business for 2 weeks.   Everyone who worked there was extremely nice.   The kitchen was fully stocked, no oven.  Carpet was brand new (saw where they were finishing replacing) and I could walk bare foot and my feet were still clean.  New upgrades to counters/lighting.  The cabinets themselves were worn,  but didn't bother me.   Water was hot and great water pressure.  Good pillows.   I really liked there are little shelves at the bathroom vanity.  On the upside,  very accessible coin laundry with 3 working washers.   BUT,  my room backed up to the washers and shared the water line with the washers and laundry/utility sink(which was a bonus in the laundry room not for my bedroom).  It was very loud in my bedroom if the sink or big washer got used. I do not think it would effect the dryer side, so only room 214 would have this issue.  I got used to it but if you have light sleepers it would definitely be an issue.  Breakfast is good,  always has fresh fruit and varies every day.   The manager reception is Mon, Tue, Wed. It was very good with way more variety than I was expecting.  A lot of people used the grills,  basketball court and fire pit.   Safe area,  can walk to restaurants. I walked to the post office easily, there is a trolly stop outside. LOTS of closet space,  a dresser and full length mirror.  On the edges of the coffee table and part of the headboard they had used something to try and cover/fix the scratches in the wood. It was gummy/sticky. So besides thatand the water noise all was great. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stasi W, General Manager at Residence Inn Arlington, responded to this reviewResponded May 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2017</t>
+  </si>
+  <si>
+    <t>Was here for business for 2 weeks.   Everyone who worked there was extremely nice.   The kitchen was fully stocked, no oven.  Carpet was brand new (saw where they were finishing replacing) and I could walk bare foot and my feet were still clean.  New upgrades to counters/lighting.  The cabinets themselves were worn,  but didn't bother me.   Water was hot and great water pressure.  Good pillows.   I really liked there are little shelves at the bathroom vanity.  On the upside,  very accessible coin laundry with 3 working washers.   BUT,  my room backed up to the washers and shared the water line with the washers and laundry/utility sink(which was a bonus in the laundry room not for my bedroom).  It was very loud in my bedroom if the sink or big washer got used. I do not think it would effect the dryer side, so only room 214 would have this issue.  I got used to it but if you have light sleepers it would definitely be an issue.  Breakfast is good,  always has fresh fruit and varies every day.   The manager reception is Mon, Tue, Wed. It was very good with way more variety than I was expecting.  A lot of people used the grills,  basketball court and fire pit.   Safe area,  can walk to restaurants. I walked to the post office easily, there is a trolly stop outside. LOTS of closet space,  a dresser and full length mirror.  On the...Was here for business for 2 weeks.   Everyone who worked there was extremely nice.   The kitchen was fully stocked, no oven.  Carpet was brand new (saw where they were finishing replacing) and I could walk bare foot and my feet were still clean.  New upgrades to counters/lighting.  The cabinets themselves were worn,  but didn't bother me.   Water was hot and great water pressure.  Good pillows.   I really liked there are little shelves at the bathroom vanity.  On the upside,  very accessible coin laundry with 3 working washers.   BUT,  my room backed up to the washers and shared the water line with the washers and laundry/utility sink(which was a bonus in the laundry room not for my bedroom).  It was very loud in my bedroom if the sink or big washer got used. I do not think it would effect the dryer side, so only room 214 would have this issue.  I got used to it but if you have light sleepers it would definitely be an issue.  Breakfast is good,  always has fresh fruit and varies every day.   The manager reception is Mon, Tue, Wed. It was very good with way more variety than I was expecting.  A lot of people used the grills,  basketball court and fire pit.   Safe area,  can walk to restaurants. I walked to the post office easily, there is a trolly stop outside. LOTS of closet space,  a dresser and full length mirror.  On the edges of the coffee table and part of the headboard they had used something to try and cover/fix the scratches in the wood. It was gummy/sticky. So besides thatand the water noise all was great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r466242935-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>466242935</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Great rooms</t>
+  </si>
+  <si>
+    <t>A lovely friendly hotel with large and very clean rooms.The food at breakfast is basic but OK. The hotel has a pool and barbeques for your own use, I was in room 320 which was extreemly nice and had more than enough roomMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Stasi W, General Manager at Residence Inn Arlington, responded to this reviewResponded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2017</t>
+  </si>
+  <si>
+    <t>A lovely friendly hotel with large and very clean rooms.The food at breakfast is basic but OK. The hotel has a pool and barbeques for your own use, I was in room 320 which was extreemly nice and had more than enough roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r465687663-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>465687663</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>One night biz trip</t>
+  </si>
+  <si>
+    <t>Lobby clean and desk staff very nice. Some construction on main road prior to Turing onto Hotel's street. Upgraded to a 1 bedroom which was clean and looked like it had new carpet. Bathroom was really small and AC was very noisy.Good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stasi W, General Manager at Residence Inn Arlington, responded to this reviewResponded March 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2017</t>
+  </si>
+  <si>
+    <t>Lobby clean and desk staff very nice. Some construction on main road prior to Turing onto Hotel's street. Upgraded to a 1 bedroom which was clean and looked like it had new carpet. Bathroom was really small and AC was very noisy.Good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r460515150-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>460515150</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Nice kitchen and a full-size refrigerator. Heaven if you are here for work.</t>
+  </si>
+  <si>
+    <t>Even though this hotel is showing its age, it is clean and has a lot to offer. For families and those on business, it is far superior to a hotel room. The main reason is the full-size refrigerator and dishwasher, glassware, silverware, and stove.  It even has gas grills available to guests. Breakfast is the standard hotel offerings, except for tiny containers of french brie, and nutella packets. Perfect for picky eaters. I will stay here again on my next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Stasi W, General Manager at Residence Inn Arlington, responded to this reviewResponded February 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2017</t>
+  </si>
+  <si>
+    <t>Even though this hotel is showing its age, it is clean and has a lot to offer. For families and those on business, it is far superior to a hotel room. The main reason is the full-size refrigerator and dishwasher, glassware, silverware, and stove.  It even has gas grills available to guests. Breakfast is the standard hotel offerings, except for tiny containers of french brie, and nutella packets. Perfect for picky eaters. I will stay here again on my next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r451354737-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>451354737</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Where else can you find....</t>
+  </si>
+  <si>
+    <t>I've "lived" here for almost eight months now.  In that time I've come to know the front desk and kitchen staff, housekeepers and maintenance men.  Without fail, they have been the nicest, kindest, warmest and best staff I've ever seen in a hotel - ANYWHERE.  It's so nice to hear "Good morning", "Have a good day", or "How was your day?"  They are overwhelmingly responsive to any request.                              This week was a particularly hard week for me, faced with the death of two friends.  I've had hugs and prayers and tonight I came home to a card from the staff.  The hotel is very clean and the amenities so convenient - but the staff is unsurpassed!!  Nowhere else will you receive this kind of care....yes I said CARE and not service because that's what they do best.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Stasi W, General Manager at Residence Inn Arlington, responded to this reviewResponded January 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2017</t>
+  </si>
+  <si>
+    <t>I've "lived" here for almost eight months now.  In that time I've come to know the front desk and kitchen staff, housekeepers and maintenance men.  Without fail, they have been the nicest, kindest, warmest and best staff I've ever seen in a hotel - ANYWHERE.  It's so nice to hear "Good morning", "Have a good day", or "How was your day?"  They are overwhelmingly responsive to any request.                              This week was a particularly hard week for me, faced with the death of two friends.  I've had hugs and prayers and tonight I came home to a card from the staff.  The hotel is very clean and the amenities so convenient - but the staff is unsurpassed!!  Nowhere else will you receive this kind of care....yes I said CARE and not service because that's what they do best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r444886755-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>444886755</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>Excellent choice!!</t>
+  </si>
+  <si>
+    <t>Very nice hotel!  Great location if you are going to AT&amp;T Stadium.  We had a 2bedroom suite, which was a great choice for our family of 5.  Breakfast was wonderful-sausage, eggs, waffles, and continental items.  The staff was friendly and welcoming!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel!  Great location if you are going to AT&amp;T Stadium.  We had a 2bedroom suite, which was a great choice for our family of 5.  Breakfast was wonderful-sausage, eggs, waffles, and continental items.  The staff was friendly and welcoming!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r442279977-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>442279977</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Good place to Stay after a stop at AT&amp;T Stadium!</t>
+  </si>
+  <si>
+    <t>Stayed here after a high school playoff game.  Clean, friendly staff and free breakfast!!!  Had a suite we could share with family.  Complete kitchen.  Nice!  Too bad we didn't get stay longer.  Heard there was an indoor pool!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stasi W, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here after a high school playoff game.  Clean, friendly staff and free breakfast!!!  Had a suite we could share with family.  Complete kitchen.  Nice!  Too bad we didn't get stay longer.  Heard there was an indoor pool!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r428546858-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>428546858</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay </t>
+  </si>
+  <si>
+    <t>I stayed this past weekend. The room was very clean as was the rest of the property. Breakfast was fresh with plenty of hot and cold choices. Staff was courteous and pleasant. The outdoor sitting area was relaxing. The firepit is a nice touch. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stasi W, Manager at Residence Inn Arlington, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>I stayed this past weekend. The room was very clean as was the rest of the property. Breakfast was fresh with plenty of hot and cold choices. Staff was courteous and pleasant. The outdoor sitting area was relaxing. The firepit is a nice touch. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r428401500-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>428401500</t>
+  </si>
+  <si>
+    <t>Poor customer service</t>
+  </si>
+  <si>
+    <t>I was scheduled to come to Arlington on Oct 8th. Had two rooms.  On October 6th and 7th we in Daytona Beach, FL were hit by a major hurricane - the worst to ever hit our area in history. Potentially a cat 5 - luckily it hit us as a high 3. Without phones, power, cable, etc until Oct 12th and had two trees fall on my house.  Worked with Expedia to try to receive a refund as I was physically UNABLE to cancel this reservation. Hotel declined.  Tried to reach GM.  Did not even receive a return phone call.  It is a sad state of affairs when your GM can't even call someone back who experienced a personal loss and continues to deal with hurricane damage.  Cannot recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stasi W, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>I was scheduled to come to Arlington on Oct 8th. Had two rooms.  On October 6th and 7th we in Daytona Beach, FL were hit by a major hurricane - the worst to ever hit our area in history. Potentially a cat 5 - luckily it hit us as a high 3. Without phones, power, cable, etc until Oct 12th and had two trees fall on my house.  Worked with Expedia to try to receive a refund as I was physically UNABLE to cancel this reservation. Hotel declined.  Tried to reach GM.  Did not even receive a return phone call.  It is a sad state of affairs when your GM can't even call someone back who experienced a personal loss and continues to deal with hurricane damage.  Cannot recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r427318951-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>427318951</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Good choice for a two room suite</t>
+  </si>
+  <si>
+    <t>There are few choices for two room suites with kitchenette in the area.  This room was pretty spacious and well laid out.  TVs in the living area and both bedrooms.  Spacious bathrooms.  One in each bedroom.  It had a fireplace which was nice.  The beds were comfortable but not outstanding.  The free breakfast was pretty good in terms of choice and quality but no real "wow" items.  The table and chairs in the room were big and functional.The pool was nice and had its own towel caddy with pool towels which was nice and unexpected.  This hotel had plenty of room for breakfast seating which I find is a problem regularly at hotels offering free breakfast.  The location is close to a lot of desirable places and amenities.The main negative we had was a very noisy fridge.  The furniture in the living room area was fairly worn and not real comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>There are few choices for two room suites with kitchenette in the area.  This room was pretty spacious and well laid out.  TVs in the living area and both bedrooms.  Spacious bathrooms.  One in each bedroom.  It had a fireplace which was nice.  The beds were comfortable but not outstanding.  The free breakfast was pretty good in terms of choice and quality but no real "wow" items.  The table and chairs in the room were big and functional.The pool was nice and had its own towel caddy with pool towels which was nice and unexpected.  This hotel had plenty of room for breakfast seating which I find is a problem regularly at hotels offering free breakfast.  The location is close to a lot of desirable places and amenities.The main negative we had was a very noisy fridge.  The furniture in the living room area was fairly worn and not real comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r393342751-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>393342751</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Hot in the Two-Bedroom!!!</t>
+  </si>
+  <si>
+    <t>I booked a three-night stay at this Residence Inn for June 2016.  I’ve stayed there before and I enjoy the two-bedroom setup.  However, this particular time was not a pleasant stay.  Upon arrival to my room, #307, the temperature was 73 degrees.  This was not a problem due to the temperature being 90+ outside.  At approximately 6pm, I reduced the temperature to 70 to allow all the rooms to cool down; it was feeling fairly warm in the rooms.  About an hour late, the thermostat was at 77.  Obviously, it was going the wrong way.  I called maintenance and he came quickly.  All-in-all, it was 11pm and we were near 80 degrees.  By the time, the hotel decided to move us to another room.  The new room was definitely cooler, but one of the bedrooms was fairly warm.  A portable AC was brought in and attached to the window.  It was quite loud, bright and still pretty warm as the window that the exhaust had to go into was letting in warm air since there was still a gap in the window.  To add insult to misery, none of my keys worked on the last night.  
+I complained the next day and the best management could offer was a less than 15% discount on the room.  I cannot understand paying nearly $1000 with all of the problems I experienced as my party contained my elderly mother as well.  I did...I booked a three-night stay at this Residence Inn for June 2016.  I’ve stayed there before and I enjoy the two-bedroom setup.  However, this particular time was not a pleasant stay.  Upon arrival to my room, #307, the temperature was 73 degrees.  This was not a problem due to the temperature being 90+ outside.  At approximately 6pm, I reduced the temperature to 70 to allow all the rooms to cool down; it was feeling fairly warm in the rooms.  About an hour late, the thermostat was at 77.  Obviously, it was going the wrong way.  I called maintenance and he came quickly.  All-in-all, it was 11pm and we were near 80 degrees.  By the time, the hotel decided to move us to another room.  The new room was definitely cooler, but one of the bedrooms was fairly warm.  A portable AC was brought in and attached to the window.  It was quite loud, bright and still pretty warm as the window that the exhaust had to go into was letting in warm air since there was still a gap in the window.  To add insult to misery, none of my keys worked on the last night.  I complained the next day and the best management could offer was a less than 15% discount on the room.  I cannot understand paying nearly $1000 with all of the problems I experienced as my party contained my elderly mother as well.  I did call other hotels in the area, but they were all booked.  The only plus is that I was able to use my Roku to watch movies.  All of the tvs have all of the necessary connections.  Before writing this review, I completed a survey and voiced my complaints.  I received a timely response with a resolution of 3k points.  I am not sure how 3k points adds up to an uncomfortable room in 90+ degree weather.  I can remember a time when Marriott offered excellent customer service.  Obviously those times are gone.  Next time I am in the area, I will definitely venture out and stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Aurora B, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>I booked a three-night stay at this Residence Inn for June 2016.  I’ve stayed there before and I enjoy the two-bedroom setup.  However, this particular time was not a pleasant stay.  Upon arrival to my room, #307, the temperature was 73 degrees.  This was not a problem due to the temperature being 90+ outside.  At approximately 6pm, I reduced the temperature to 70 to allow all the rooms to cool down; it was feeling fairly warm in the rooms.  About an hour late, the thermostat was at 77.  Obviously, it was going the wrong way.  I called maintenance and he came quickly.  All-in-all, it was 11pm and we were near 80 degrees.  By the time, the hotel decided to move us to another room.  The new room was definitely cooler, but one of the bedrooms was fairly warm.  A portable AC was brought in and attached to the window.  It was quite loud, bright and still pretty warm as the window that the exhaust had to go into was letting in warm air since there was still a gap in the window.  To add insult to misery, none of my keys worked on the last night.  
+I complained the next day and the best management could offer was a less than 15% discount on the room.  I cannot understand paying nearly $1000 with all of the problems I experienced as my party contained my elderly mother as well.  I did...I booked a three-night stay at this Residence Inn for June 2016.  I’ve stayed there before and I enjoy the two-bedroom setup.  However, this particular time was not a pleasant stay.  Upon arrival to my room, #307, the temperature was 73 degrees.  This was not a problem due to the temperature being 90+ outside.  At approximately 6pm, I reduced the temperature to 70 to allow all the rooms to cool down; it was feeling fairly warm in the rooms.  About an hour late, the thermostat was at 77.  Obviously, it was going the wrong way.  I called maintenance and he came quickly.  All-in-all, it was 11pm and we were near 80 degrees.  By the time, the hotel decided to move us to another room.  The new room was definitely cooler, but one of the bedrooms was fairly warm.  A portable AC was brought in and attached to the window.  It was quite loud, bright and still pretty warm as the window that the exhaust had to go into was letting in warm air since there was still a gap in the window.  To add insult to misery, none of my keys worked on the last night.  I complained the next day and the best management could offer was a less than 15% discount on the room.  I cannot understand paying nearly $1000 with all of the problems I experienced as my party contained my elderly mother as well.  I did call other hotels in the area, but they were all booked.  The only plus is that I was able to use my Roku to watch movies.  All of the tvs have all of the necessary connections.  Before writing this review, I completed a survey and voiced my complaints.  I received a timely response with a resolution of 3k points.  I am not sure how 3k points adds up to an uncomfortable room in 90+ degree weather.  I can remember a time when Marriott offered excellent customer service.  Obviously those times are gone.  Next time I am in the area, I will definitely venture out and stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r392577984-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>392577984</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 26 days</t>
+  </si>
+  <si>
+    <t>My husband was in town for a school for his work.  He was here for 26 days, I stayed with him at the beginning and end of his trip.  This is located very close to six flags, not on Six Flags road, but the next road over.  It is very convenient for Six Flags, Hurricane Water park, to the Baseball Stadium and to the AT&amp;T Arena, just off the interstate and we were able to travel to all locations we needed to without getting on toll roads.  The staff was very friendly.  The room was large enough with a small kitchenette which included a full size frig, a small dishwasher, a sink, a microwave and a two burner stove top.  There were dishes, cookware, utensils, the basics really.  We either ate out or just used the microwave.  There was a sleeper sofa, a coffee table, end table, a desk and office chair, the TV would turn either toward the sofa or pivot and turn to the bed.  The bathtub and toilet were separate from the lavatory area.  The closet was large and had about 10 hangars, there was a dresser with drawers and several drawers in the bathroom area.  The bed was very comfortable.  They had room darkening curtains.  On Monday, Tues and Wed. evenings the hotel usually offered a free treat, whether it was chips or waffles, grilled sausages or burgers, it was nice to be able to eat...My husband was in town for a school for his work.  He was here for 26 days, I stayed with him at the beginning and end of his trip.  This is located very close to six flags, not on Six Flags road, but the next road over.  It is very convenient for Six Flags, Hurricane Water park, to the Baseball Stadium and to the AT&amp;T Arena, just off the interstate and we were able to travel to all locations we needed to without getting on toll roads.  The staff was very friendly.  The room was large enough with a small kitchenette which included a full size frig, a small dishwasher, a sink, a microwave and a two burner stove top.  There were dishes, cookware, utensils, the basics really.  We either ate out or just used the microwave.  There was a sleeper sofa, a coffee table, end table, a desk and office chair, the TV would turn either toward the sofa or pivot and turn to the bed.  The bathtub and toilet were separate from the lavatory area.  The closet was large and had about 10 hangars, there was a dresser with drawers and several drawers in the bathroom area.  The bed was very comfortable.  They had room darkening curtains.  On Monday, Tues and Wed. evenings the hotel usually offered a free treat, whether it was chips or waffles, grilled sausages or burgers, it was nice to be able to eat in since there's not a lot of restaurants within the immediate area if you didn't want to fight the traffic.  One day we came back and found homemade cookies and a nice thank you note for being an extended stay customer.  Our room received attention from housekeeping every day.  On the weekend it was more crowded with families in town for Six Flags and ballgames, but during the week you mainly see professional's who are traveling for work and a few families mixed in the crowd.  Breakfast was very good every day, the same every day, but plenty of options to change your routine as often as you like.  The breakfast area was large and you usually didn't have a problem finding a place to sit while you ate.  There's usually coffee in the lobby every day, all day long.  There is a pool with poolside towels and lounge chairs.  There's a court available for basketball, and a few other sports, the hotel had equipment available, we were surprised at how much it got used.  the hotel and sport court is in the center courtyard and multiple buildings wrap around the courtyard, so it's private and all hotel facilities.  Parking can sometimes be more difficult, especially on the weekends.  Seems to be a safe area, however someone's tailgate was stolen during the night one night from a brand new truck, of course this could happen ANYWHERE.  There are multiple hotels in this immediate area.  There are trolley stops at most of them, one right in front of this hotel which will take you to Six Flags, so you don't have to worry about driving and parking if this is where you're going.  There's usually a taxi driving by, we saw them often.  It's $40 one way to go to the DFW airport  maybe $50 to DALLAS LOVE, no free airport shuttle service :(MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband was in town for a school for his work.  He was here for 26 days, I stayed with him at the beginning and end of his trip.  This is located very close to six flags, not on Six Flags road, but the next road over.  It is very convenient for Six Flags, Hurricane Water park, to the Baseball Stadium and to the AT&amp;T Arena, just off the interstate and we were able to travel to all locations we needed to without getting on toll roads.  The staff was very friendly.  The room was large enough with a small kitchenette which included a full size frig, a small dishwasher, a sink, a microwave and a two burner stove top.  There were dishes, cookware, utensils, the basics really.  We either ate out or just used the microwave.  There was a sleeper sofa, a coffee table, end table, a desk and office chair, the TV would turn either toward the sofa or pivot and turn to the bed.  The bathtub and toilet were separate from the lavatory area.  The closet was large and had about 10 hangars, there was a dresser with drawers and several drawers in the bathroom area.  The bed was very comfortable.  They had room darkening curtains.  On Monday, Tues and Wed. evenings the hotel usually offered a free treat, whether it was chips or waffles, grilled sausages or burgers, it was nice to be able to eat...My husband was in town for a school for his work.  He was here for 26 days, I stayed with him at the beginning and end of his trip.  This is located very close to six flags, not on Six Flags road, but the next road over.  It is very convenient for Six Flags, Hurricane Water park, to the Baseball Stadium and to the AT&amp;T Arena, just off the interstate and we were able to travel to all locations we needed to without getting on toll roads.  The staff was very friendly.  The room was large enough with a small kitchenette which included a full size frig, a small dishwasher, a sink, a microwave and a two burner stove top.  There were dishes, cookware, utensils, the basics really.  We either ate out or just used the microwave.  There was a sleeper sofa, a coffee table, end table, a desk and office chair, the TV would turn either toward the sofa or pivot and turn to the bed.  The bathtub and toilet were separate from the lavatory area.  The closet was large and had about 10 hangars, there was a dresser with drawers and several drawers in the bathroom area.  The bed was very comfortable.  They had room darkening curtains.  On Monday, Tues and Wed. evenings the hotel usually offered a free treat, whether it was chips or waffles, grilled sausages or burgers, it was nice to be able to eat in since there's not a lot of restaurants within the immediate area if you didn't want to fight the traffic.  One day we came back and found homemade cookies and a nice thank you note for being an extended stay customer.  Our room received attention from housekeeping every day.  On the weekend it was more crowded with families in town for Six Flags and ballgames, but during the week you mainly see professional's who are traveling for work and a few families mixed in the crowd.  Breakfast was very good every day, the same every day, but plenty of options to change your routine as often as you like.  The breakfast area was large and you usually didn't have a problem finding a place to sit while you ate.  There's usually coffee in the lobby every day, all day long.  There is a pool with poolside towels and lounge chairs.  There's a court available for basketball, and a few other sports, the hotel had equipment available, we were surprised at how much it got used.  the hotel and sport court is in the center courtyard and multiple buildings wrap around the courtyard, so it's private and all hotel facilities.  Parking can sometimes be more difficult, especially on the weekends.  Seems to be a safe area, however someone's tailgate was stolen during the night one night from a brand new truck, of course this could happen ANYWHERE.  There are multiple hotels in this immediate area.  There are trolley stops at most of them, one right in front of this hotel which will take you to Six Flags, so you don't have to worry about driving and parking if this is where you're going.  There's usually a taxi driving by, we saw them often.  It's $40 one way to go to the DFW airport  maybe $50 to DALLAS LOVE, no free airport shuttle service :(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r388507313-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>388507313</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Service </t>
+  </si>
+  <si>
+    <t>It was pleasant and a great home for being away from home. The grounds were clean and its in the heart of everything. So much to do and easy access from hotel. There are lots of restaurants, parks and shopping. The grounds still look new. I would definitely use again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Aurora B, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>It was pleasant and a great home for being away from home. The grounds were clean and its in the heart of everything. So much to do and easy access from hotel. There are lots of restaurants, parks and shopping. The grounds still look new. I would definitely use again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r373437663-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>373437663</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Awesome for staying here and visiting ball parks</t>
+  </si>
+  <si>
+    <t>We stayed the weekend in Arlington to watch the Texas Rangers play the Toronto Blue Jays (the one where Bautista was punched) and had a great time staying at this hotel. There is a trolley that will depart the hotel 1.5 hrs and 45 minutes prior to the games starting and the rides are complimentary with your stay. The hotel had was a typical Residence Inn with fridge, burner, etc. The breakfast was good and hot, and there is a nice sized pool on the property. Additionally, there are a couple of restaurants within walking distance from the hotel. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Aurora B, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>We stayed the weekend in Arlington to watch the Texas Rangers play the Toronto Blue Jays (the one where Bautista was punched) and had a great time staying at this hotel. There is a trolley that will depart the hotel 1.5 hrs and 45 minutes prior to the games starting and the rides are complimentary with your stay. The hotel had was a typical Residence Inn with fridge, burner, etc. The breakfast was good and hot, and there is a nice sized pool on the property. Additionally, there are a couple of restaurants within walking distance from the hotel. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r373412470-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>373412470</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location for many different venues. Close to the MLB stadium, Dallas Football stadium and six flags. There is a trolley system set up that will get you to your venue in plenty of time before the games start. There is a convenient spot to meet after the games so you can take it back to your hotel.The hotel itself is very clean. The staff are very friendly. The free breakfast is pretty good. All the amenities they offer makes for a stress free stay. They even have a Barbeque you can use to cook your dinner (if you are inclined to do that).The only negative is the outside noise. We had a quiet room but we could hear people slamming doors and talking loudly while walking down the hallway. Did not hear road noise so that was good.I would stay at this Marriot location again. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location for many different venues. Close to the MLB stadium, Dallas Football stadium and six flags. There is a trolley system set up that will get you to your venue in plenty of time before the games start. There is a convenient spot to meet after the games so you can take it back to your hotel.The hotel itself is very clean. The staff are very friendly. The free breakfast is pretty good. All the amenities they offer makes for a stress free stay. They even have a Barbeque you can use to cook your dinner (if you are inclined to do that).The only negative is the outside noise. We had a quiet room but we could hear people slamming doors and talking loudly while walking down the hallway. Did not hear road noise so that was good.I would stay at this Marriot location again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r368100721-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>368100721</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Work visit</t>
+  </si>
+  <si>
+    <t>Pleasant stay. Nice clean rooms very plain but nice.  I was a very busy hotel so that was nice.  I would have given the hotel 4 stars but got locked out of my room for 30 minutes.  Technology can be bought he good and bad the bad is when you waste time trying to get in your own room before your flight.  Joshua the staff person upon arriving was very nice and pleasant to Check in with.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Aurora B, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay. Nice clean rooms very plain but nice.  I was a very busy hotel so that was nice.  I would have given the hotel 4 stars but got locked out of my room for 30 minutes.  Technology can be bought he good and bad the bad is when you waste time trying to get in your own room before your flight.  Joshua the staff person upon arriving was very nice and pleasant to Check in with.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r362194457-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>362194457</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Good suppose and helpful staff</t>
+  </si>
+  <si>
+    <t>I managed to visit this hotel for 5 nights recently during a visit to Wrestlemania 32 at the At&amp;T stadium.   Upon check in which was was late during the evening staff were very helpful and gave us advice on visiting areas around Dallas. Room was a 2 bedroom and great sized room with plenty of amenities to use, good quality beds and worth upgrading for a 2 bedroom for us.Breakfast good choice of varieties and options available. Throughout our staff on front reception and throughout the hotel were very good.Great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aurora B, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2016</t>
+  </si>
+  <si>
+    <t>I managed to visit this hotel for 5 nights recently during a visit to Wrestlemania 32 at the At&amp;T stadium.   Upon check in which was was late during the evening staff were very helpful and gave us advice on visiting areas around Dallas. Room was a 2 bedroom and great sized room with plenty of amenities to use, good quality beds and worth upgrading for a 2 bedroom for us.Breakfast good choice of varieties and options available. Throughout our staff on front reception and throughout the hotel were very good.Great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r358733913-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>358733913</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Nice hotel, clean.  Front desk staff friendly with speedy check-in process .  Marquette was wonderful to work with and very friendly and full of great information about places to eat and things to do in Arlington. Woman responsible to nightly mix snack add drinks was great too.  Very attentive and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Aurora B, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded March 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, clean.  Front desk staff friendly with speedy check-in process .  Marquette was wonderful to work with and very friendly and full of great information about places to eat and things to do in Arlington. Woman responsible to nightly mix snack add drinks was great too.  Very attentive and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r358298047-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>358298047</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>staff make this place</t>
+  </si>
+  <si>
+    <t>Had to attend business meeting and chosen on proximity, but also good for those who want to visit six flags since it's right across the highway and within 15 min to DFW.  Hallways were a bit stuffy with a smell hard to define- not really bad, but not really good.  BUT, the individual rooms were very clean, and odorless.  Staff were overall very friendly and made the visit even more pleasant- from front desk to those serving food to one who brought me a missing hairdryer with sincere apologies.  The facility had some issues where first night couldn't be spent in the building. They provided lodging in adjacent facility without charge.  Service- priceless. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had to attend business meeting and chosen on proximity, but also good for those who want to visit six flags since it's right across the highway and within 15 min to DFW.  Hallways were a bit stuffy with a smell hard to define- not really bad, but not really good.  BUT, the individual rooms were very clean, and odorless.  Staff were overall very friendly and made the visit even more pleasant- from front desk to those serving food to one who brought me a missing hairdryer with sincere apologies.  The facility had some issues where first night couldn't be spent in the building. They provided lodging in adjacent facility without charge.  Service- priceless. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r340059503-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>340059503</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>An average visit</t>
+  </si>
+  <si>
+    <t>My children and I came down for a quick business trip with my husband. We usually stay at Marriott for these trips. And this one was fine. We had a queen room. It was large, and would have been great if we were having to stay longer. It just didn't seem like they took the time to make sure things were clean...when you find smashed food on the floor, and your coffee cups aren't the cleanest. However, I'm sure things would have been taken care of if we would have said something. Since it was just a night, oh well.Other than that, breakfast was great. We utilized the courtyard for the boys to run. And the basketball court seemed to be in great shape. It was in a great area (close to the amusement parks and sports). MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Aurora B, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>My children and I came down for a quick business trip with my husband. We usually stay at Marriott for these trips. And this one was fine. We had a queen room. It was large, and would have been great if we were having to stay longer. It just didn't seem like they took the time to make sure things were clean...when you find smashed food on the floor, and your coffee cups aren't the cleanest. However, I'm sure things would have been taken care of if we would have said something. Since it was just a night, oh well.Other than that, breakfast was great. We utilized the courtyard for the boys to run. And the basketball court seemed to be in great shape. It was in a great area (close to the amusement parks and sports). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r332166861-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>332166861</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Denied request for crib for my one year old daughter, extremely rude customer service working at front desk</t>
+  </si>
+  <si>
+    <t>I checked in at the Residence Inn today (December 11th) at 6 PM and requested a crib for my one year old daughter. I was told that although there were cribs available on-site at the hotel, I would not be provided one because the employee at the front desk did not have a key to access the room where the cribs were stored.I intentionally checked in early to ensure I could secure a crib for my daughter, and I even offered to carry the crib to my room myself if she would simply just open the door for me. She was very rude in the exchange and made no effort whatsoever to rectify the situation. I will not be staying at a Residence Inn again and I will be sharing this negative experience with my professional and personal network.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Aurora B, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>I checked in at the Residence Inn today (December 11th) at 6 PM and requested a crib for my one year old daughter. I was told that although there were cribs available on-site at the hotel, I would not be provided one because the employee at the front desk did not have a key to access the room where the cribs were stored.I intentionally checked in early to ensure I could secure a crib for my daughter, and I even offered to carry the crib to my room myself if she would simply just open the door for me. She was very rude in the exchange and made no effort whatsoever to rectify the situation. I will not be staying at a Residence Inn again and I will be sharing this negative experience with my professional and personal network.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r332109401-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>332109401</t>
+  </si>
+  <si>
+    <t>Nice hotel typical of the chain</t>
+  </si>
+  <si>
+    <t>This hotel represents the brand well, clean rooms and decent service.The breakfast was pretty good, too. Comfortable bed, not a bad place to stay. Too bad there isn't a "good" choice, as they fall between average and very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This hotel represents the brand well, clean rooms and decent service.The breakfast was pretty good, too. Comfortable bed, not a bad place to stay. Too bad there isn't a "good" choice, as they fall between average and very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r318428574-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>318428574</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, great location </t>
+  </si>
+  <si>
+    <t>Great hotel, great rates, and clean. Great location to see the Cowboys, Rangers or six flags. Stayed from October 9th to October 12th. Rooms come with a kitchen, stove and fridge. My only complaint about this property was on our final morning there was a maintenance guy in the laundry room banging away on a laundry machine at 6.30am until 7.30. Really???? Do you have to do this at 6.30 am. The banging was so loud. I went out and seen him and gave him a look like what the hell are you doing. He stopped about 5 minutes after. This lasted four an hour. Seriously this is the type of thing that makes bad reviews. I could have strangled the guy. To the management, please make sure that your staff isn't doing anything that will disrupt people's sleeping at inappropriate hours. Other than that this was a great property. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Aurora B, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Great hotel, great rates, and clean. Great location to see the Cowboys, Rangers or six flags. Stayed from October 9th to October 12th. Rooms come with a kitchen, stove and fridge. My only complaint about this property was on our final morning there was a maintenance guy in the laundry room banging away on a laundry machine at 6.30am until 7.30. Really???? Do you have to do this at 6.30 am. The banging was so loud. I went out and seen him and gave him a look like what the hell are you doing. He stopped about 5 minutes after. This lasted four an hour. Seriously this is the type of thing that makes bad reviews. I could have strangled the guy. To the management, please make sure that your staff isn't doing anything that will disrupt people's sleeping at inappropriate hours. Other than that this was a great property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r306145754-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>306145754</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Overall good</t>
+  </si>
+  <si>
+    <t>Overall good experience.  Friendly staff, clean and nice.   There is a basketball court there.  I commend the hotel to making guests adhere to the policy of no playing before 9AM.  One morning it was about 8:15 when some players began shooting.  Great location for the ballparks ( Rangers and Cowboys). Skip the free shuttle.  This is the last stop, but as such, the shuttle is FULL.  We waited 15 minutes for the next one.  Better to call UBER and get a ride.  Under $5 and worth itMoreShow less</t>
+  </si>
+  <si>
+    <t>Aurora B, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Overall good experience.  Friendly staff, clean and nice.   There is a basketball court there.  I commend the hotel to making guests adhere to the policy of no playing before 9AM.  One morning it was about 8:15 when some players began shooting.  Great location for the ballparks ( Rangers and Cowboys). Skip the free shuttle.  This is the last stop, but as such, the shuttle is FULL.  We waited 15 minutes for the next one.  Better to call UBER and get a ride.  Under $5 and worth itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r304160919-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>304160919</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>State Fair &amp; Cowboys Game Trip</t>
+  </si>
+  <si>
+    <t>Great Location, Friendly staff, great hot breakfast, very relaxed atmosphere. 2-Bedroom suite was perfect for the weekend. Very quiet neighborhood, rooms were very clean. I recommend this Hotel to anyone going to the game.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Aurora B, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded August 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2015</t>
+  </si>
+  <si>
+    <t>Great Location, Friendly staff, great hot breakfast, very relaxed atmosphere. 2-Bedroom suite was perfect for the weekend. Very quiet neighborhood, rooms were very clean. I recommend this Hotel to anyone going to the game.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r290036611-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>290036611</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Six flags trip</t>
+  </si>
+  <si>
+    <t>Stayed here during our six flags trip.  Hotel is very nice and clean.  Customer service is wonderful as well as breakfast.  It wasClose to many restaurants and stores to go shopping. The pool was open and clean. Will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Aurora B, Front Office Manager at Residence Inn Arlington, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here during our six flags trip.  Hotel is very nice and clean.  Customer service is wonderful as well as breakfast.  It wasClose to many restaurants and stores to go shopping. The pool was open and clean. Will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r288459211-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>288459211</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Good job Marriott</t>
+  </si>
+  <si>
+    <t>Compared to our last Marriott experience, this was a dream.  The staff was actually genuinely interested in my well being.  The only drawback was that the HVAC was out for the indoor pool - that sort of thing happens...MoreShow less</t>
+  </si>
+  <si>
+    <t>Compared to our last Marriott experience, this was a dream.  The staff was actually genuinely interested in my well being.  The only drawback was that the HVAC was out for the indoor pool - that sort of thing happens...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r285577923-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>285577923</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Nice Place for Families</t>
+  </si>
+  <si>
+    <t>I arrived earlier than check-in time and was graciously given a room since one was ready.  I reserved a two bedroom/two bathroom suite.  There was a queen-sized bed in each suite.  The room was clean, but I had to turn the ac down to 67 in order to keep both bedrooms cool at night.  As a few other reviews have mentioned, you can hear when someone is walking in the hall and the adjacent neighbors.  However, even though I am a light sleeper, I slept just fine.  
+The free breakfast was decent – bacon, eggs, toast, potatoes, waffles, cereal, milk, fruit and pastries.  There is also a Saltgrass just a few blocks away.  The free wi-fi was decent as well; just make sure not to click on the $4.95/day option when choosing the option.  
+My only recommendation would be to make sure someone answers the phone for housekeeping and/or keep them around for a few hours after check-in time.  At approximately 5pm, I needed extra towels.  I called Housekeeping a couple of times and the line just rang.  Finally I called the front desk and the staff informed me that Housekeeping was closed, that he could deliver the towels but could not do so until someone else was available to work the desk.  I had no idea how long that would take, so I went down myself and retrieved the towels.  I could understand if it was 9pm, but surely...I arrived earlier than check-in time and was graciously given a room since one was ready.  I reserved a two bedroom/two bathroom suite.  There was a queen-sized bed in each suite.  The room was clean, but I had to turn the ac down to 67 in order to keep both bedrooms cool at night.  As a few other reviews have mentioned, you can hear when someone is walking in the hall and the adjacent neighbors.  However, even though I am a light sleeper, I slept just fine.  The free breakfast was decent – bacon, eggs, toast, potatoes, waffles, cereal, milk, fruit and pastries.  There is also a Saltgrass just a few blocks away.  The free wi-fi was decent as well; just make sure not to click on the $4.95/day option when choosing the option.  My only recommendation would be to make sure someone answers the phone for housekeeping and/or keep them around for a few hours after check-in time.  At approximately 5pm, I needed extra towels.  I called Housekeeping a couple of times and the line just rang.  Finally I called the front desk and the staff informed me that Housekeeping was closed, that he could deliver the towels but could not do so until someone else was available to work the desk.  I had no idea how long that would take, so I went down myself and retrieved the towels.  I could understand if it was 9pm, but surely someone should be able to deliver at 5pm.  All-in-all, it was an enjoyable stay.  I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I arrived earlier than check-in time and was graciously given a room since one was ready.  I reserved a two bedroom/two bathroom suite.  There was a queen-sized bed in each suite.  The room was clean, but I had to turn the ac down to 67 in order to keep both bedrooms cool at night.  As a few other reviews have mentioned, you can hear when someone is walking in the hall and the adjacent neighbors.  However, even though I am a light sleeper, I slept just fine.  
+The free breakfast was decent – bacon, eggs, toast, potatoes, waffles, cereal, milk, fruit and pastries.  There is also a Saltgrass just a few blocks away.  The free wi-fi was decent as well; just make sure not to click on the $4.95/day option when choosing the option.  
+My only recommendation would be to make sure someone answers the phone for housekeeping and/or keep them around for a few hours after check-in time.  At approximately 5pm, I needed extra towels.  I called Housekeeping a couple of times and the line just rang.  Finally I called the front desk and the staff informed me that Housekeeping was closed, that he could deliver the towels but could not do so until someone else was available to work the desk.  I had no idea how long that would take, so I went down myself and retrieved the towels.  I could understand if it was 9pm, but surely...I arrived earlier than check-in time and was graciously given a room since one was ready.  I reserved a two bedroom/two bathroom suite.  There was a queen-sized bed in each suite.  The room was clean, but I had to turn the ac down to 67 in order to keep both bedrooms cool at night.  As a few other reviews have mentioned, you can hear when someone is walking in the hall and the adjacent neighbors.  However, even though I am a light sleeper, I slept just fine.  The free breakfast was decent – bacon, eggs, toast, potatoes, waffles, cereal, milk, fruit and pastries.  There is also a Saltgrass just a few blocks away.  The free wi-fi was decent as well; just make sure not to click on the $4.95/day option when choosing the option.  My only recommendation would be to make sure someone answers the phone for housekeeping and/or keep them around for a few hours after check-in time.  At approximately 5pm, I needed extra towels.  I called Housekeeping a couple of times and the line just rang.  Finally I called the front desk and the staff informed me that Housekeeping was closed, that he could deliver the towels but could not do so until someone else was available to work the desk.  I had no idea how long that would take, so I went down myself and retrieved the towels.  I could understand if it was 9pm, but surely someone should be able to deliver at 5pm.  All-in-all, it was an enjoyable stay.  I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r270836471-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>270836471</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Great stay for the ACM Awards!</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about this property. I have to admit I had some concerns after reading earlier reviews, but our stay was perfect in every way. The staff was friendly and accommodating, the room was clean and adequately appointed and the location was great. My children loved the pool. Don't expect a luxury hotel and you won't be disappointed. We would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Aurora B, Manager at Residence Inn Arlington, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about this property. I have to admit I had some concerns after reading earlier reviews, but our stay was perfect in every way. The staff was friendly and accommodating, the room was clean and adequately appointed and the location was great. My children loved the pool. Don't expect a luxury hotel and you won't be disappointed. We would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r262108856-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>262108856</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>It could have been closer</t>
+  </si>
+  <si>
+    <t>This hotel was close to amusement parks and the stadium but because I didn't know the city I chose this hotel which was not close to the area I wanted. The staff at the front desk was friendly &amp; helpful.     We booked a one bedroom unit which included a small living area, a couch, chair, and well appointed kitchenette.  The bed was a little hard but ok, there was a large full length mirror in the bedroom and a flat screen tv in the bedroom and one in the living area.  The cleaning service was good, fast, efficient. The furniture was worn and could have been updated.     Breakfast was served in a large room close to the office and included regular breakfast items, not much fruit, but a variety of items.  A light dinner (like tacos) was served on some week nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Aurora B, Manager at Residence Inn Arlington, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was close to amusement parks and the stadium but because I didn't know the city I chose this hotel which was not close to the area I wanted. The staff at the front desk was friendly &amp; helpful.     We booked a one bedroom unit which included a small living area, a couch, chair, and well appointed kitchenette.  The bed was a little hard but ok, there was a large full length mirror in the bedroom and a flat screen tv in the bedroom and one in the living area.  The cleaning service was good, fast, efficient. The furniture was worn and could have been updated.     Breakfast was served in a large room close to the office and included regular breakfast items, not much fruit, but a variety of items.  A light dinner (like tacos) was served on some week nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r259381374-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>259381374</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Great stay and excellent service</t>
+  </si>
+  <si>
+    <t>I was a bit concerned after reading some posts. But we have stayed here before and love the location. My son and I decided at last minute to catch a college baseball game in the area and tour ATT stadium and Globe Life park. This hotel is minutes away from these sites and Six Flags. Staff at desk were sharp and helpful. The room we received was at the back of the property. I requested a high floor and received it along with an early check in. I have come to expect this as a rewards member but with a full parking lot it was still appreciated. The third floor where we stayed has some renovations going. There were a few noises when we first arrived but again this was during work hours. The room was clean and appeared recently updated. Our AC unit ran a bit loud but that was only knock on room. We used work out room and shot some hoops on sport court. All good. Staff always seemed to be stocking something, taking calls or picking something up. I manage a team and it was clear this group has bought into customer service and is delivering it at a high level. I will stay here again any time my family comes to enjoy Arlington attractions. As someone who travels,in my opinion this hotel is a good place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Aurora B, General Manager at Residence Inn Arlington, responded to this reviewResponded March 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2015</t>
+  </si>
+  <si>
+    <t>I was a bit concerned after reading some posts. But we have stayed here before and love the location. My son and I decided at last minute to catch a college baseball game in the area and tour ATT stadium and Globe Life park. This hotel is minutes away from these sites and Six Flags. Staff at desk were sharp and helpful. The room we received was at the back of the property. I requested a high floor and received it along with an early check in. I have come to expect this as a rewards member but with a full parking lot it was still appreciated. The third floor where we stayed has some renovations going. There were a few noises when we first arrived but again this was during work hours. The room was clean and appeared recently updated. Our AC unit ran a bit loud but that was only knock on room. We used work out room and shot some hoops on sport court. All good. Staff always seemed to be stocking something, taking calls or picking something up. I manage a team and it was clear this group has bought into customer service and is delivering it at a high level. I will stay here again any time my family comes to enjoy Arlington attractions. As someone who travels,in my opinion this hotel is a good place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r244628346-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>244628346</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>It's not as bad as some reviews make it seem</t>
+  </si>
+  <si>
+    <t>We stayed here for 4 days for the Thanksgiving Holiday. We were in town for a Cowboy game. Location was convenient to stadium. Hotel was clean. Front desk was efficient. I had concerns based on other reviews, but our stay was fine. Don't set your expectations higher than a standard Residence Inn &amp; and you won't be disappointed. We had issues at breakfast, as they did not have sufficient food on the bar 2 days. The kitchen staff told people the truck didn't come in. A truck not coming in should not be an excuse given to guest. Otherwise, our stay was acceptable. It's not as bad as some of the reviews make it seem.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Aurora B, General Manager at Residence Inn Arlington, responded to this reviewResponded December 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for 4 days for the Thanksgiving Holiday. We were in town for a Cowboy game. Location was convenient to stadium. Hotel was clean. Front desk was efficient. I had concerns based on other reviews, but our stay was fine. Don't set your expectations higher than a standard Residence Inn &amp; and you won't be disappointed. We had issues at breakfast, as they did not have sufficient food on the bar 2 days. The kitchen staff told people the truck didn't come in. A truck not coming in should not be an excuse given to guest. Otherwise, our stay was acceptable. It's not as bad as some of the reviews make it seem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r235518939-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>235518939</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Try a different location, this one is not up to par.</t>
+  </si>
+  <si>
+    <t>I recently stayed there for a week on a business trip, and one of my co-workers has been there for months. Virtually everything about this place is just a little below expectations for a Residence Inn. Many, many mechanical and equipment problems, not enough table for breakfast, running out of food early at the evening socials, room keys not working (3 trips to the desk), tacky varnish on the table, no desk in the rooms, TV not working multiple days, computers don't work, the fire pit runs out of gas, and the list goes on. On the positive side- the breakfast food is the same as all of them, but it was better tasting here, and the washer-drier (while more expensive than 90% of the other hotels) do actually work well. Summary - There are other Residence Inns in the area; I recommend you use one of those until the management here gets their act together.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, Manager at Residence Inn Arlington, responded to this reviewResponded October 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed there for a week on a business trip, and one of my co-workers has been there for months. Virtually everything about this place is just a little below expectations for a Residence Inn. Many, many mechanical and equipment problems, not enough table for breakfast, running out of food early at the evening socials, room keys not working (3 trips to the desk), tacky varnish on the table, no desk in the rooms, TV not working multiple days, computers don't work, the fire pit runs out of gas, and the list goes on. On the positive side- the breakfast food is the same as all of them, but it was better tasting here, and the washer-drier (while more expensive than 90% of the other hotels) do actually work well. Summary - There are other Residence Inns in the area; I recommend you use one of those until the management here gets their act together.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r229093255-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>229093255</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>A REAL home away from home!</t>
+  </si>
+  <si>
+    <t>Amenities and comfortable, relaxing rooms, lots of things to do and see nearby with a  trolley that gets you to the ballgames!  Cindy the manager, DJ the maintenance man, and the entire hotel staff were not only trustworthy and but I felt very safe and secure here!  Relocation is hard when you are by yourself, and all of the guests here were just as friendly as the staff!  It is family friendly place that includes breakfast and dinner as well as a laundry, workout room, pool, tennis court and basketball court.  The prices are very reasonable and if I need to stay again, this is the hotel I will be looking for all over the map!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Amenities and comfortable, relaxing rooms, lots of things to do and see nearby with a  trolley that gets you to the ballgames!  Cindy the manager, DJ the maintenance man, and the entire hotel staff were not only trustworthy and but I felt very safe and secure here!  Relocation is hard when you are by yourself, and all of the guests here were just as friendly as the staff!  It is family friendly place that includes breakfast and dinner as well as a laundry, workout room, pool, tennis court and basketball court.  The prices are very reasonable and if I need to stay again, this is the hotel I will be looking for all over the map!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r220855328-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>220855328</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>I had an awful experience with Residence Inn a few years ago and vowed never to stay in one again. In fact, when it was one of only options in area we wanted to be in we went by the night before to check out the rooms and they were updated, tastefully decorated and clean. The queen bed in studio wasn't the most comfortable but sufficient for a stay of a couple nights. The breakfast was typical sausage, bagged and boiled eggs, pancakes,pastries, fruit and yogurt. It was pretty good for what it was. No one is expecting Eggs Benedict when staying here anyway so I was fine with everything. We did not use any of the other facilities so I won't comment on those. The staff that helped us, Makisha, I think was really nice and a welcoming face after a very long day. I would stay here again. Does this stay instill trust in this particular brand of Marriott properties...not quite but it was a good start. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>I had an awful experience with Residence Inn a few years ago and vowed never to stay in one again. In fact, when it was one of only options in area we wanted to be in we went by the night before to check out the rooms and they were updated, tastefully decorated and clean. The queen bed in studio wasn't the most comfortable but sufficient for a stay of a couple nights. The breakfast was typical sausage, bagged and boiled eggs, pancakes,pastries, fruit and yogurt. It was pretty good for what it was. No one is expecting Eggs Benedict when staying here anyway so I was fine with everything. We did not use any of the other facilities so I won't comment on those. The staff that helped us, Makisha, I think was really nice and a welcoming face after a very long day. I would stay here again. Does this stay instill trust in this particular brand of Marriott properties...not quite but it was a good start. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r214196037-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>214196037</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Dont stay here!</t>
+  </si>
+  <si>
+    <t>Maybe they only post the  good reviews. It is the second night of a 23 day stay here. I have listened to a dog bark for well over 4 hours now in the room across the hall. I asked the front desk 3 times if they could please look into it. I might as well of been talking to myself. I also asked why the internet was so slow and was given the number to the internet provider. They do offer Breakfast and a evening social time that on this night served fried chicken and mashed potatoes. To get a break from the dog barking I decided to try some of the chicken. To my surprise , and this is funny - i see several people with huge plates of chicken. It looked good but I wasn't fast enough. There was only one poor lady cooking and a couple people eating. I left and came back down to ask about the dog again and I overhear the staff telling there family or friends what they were serving the following night, and they would bring them home the left overs. Apparently these people arent staying here they just show up for the food and pool.So I wonder if the owners know there staffs family and friends are eating all the food before the guests? Ah they probably don't care. I will never stay here again and will most definitely tell them...Maybe they only post the  good reviews. It is the second night of a 23 day stay here. I have listened to a dog bark for well over 4 hours now in the room across the hall. I asked the front desk 3 times if they could please look into it. I might as well of been talking to myself. I also asked why the internet was so slow and was given the number to the internet provider. They do offer Breakfast and a evening social time that on this night served fried chicken and mashed potatoes. To get a break from the dog barking I decided to try some of the chicken. To my surprise , and this is funny - i see several people with huge plates of chicken. It looked good but I wasn't fast enough. There was only one poor lady cooking and a couple people eating. I left and came back down to ask about the dog again and I overhear the staff telling there family or friends what they were serving the following night, and they would bring them home the left overs. Apparently these people arent staying here they just show up for the food and pool.So I wonder if the owners know there staffs family and friends are eating all the food before the guests? Ah they probably don't care. I will never stay here again and will most definitely tell them back home not to include this Hotel on the list of available places to stay while we attend training In Arlington. I should of listened to a couple of the guys in my unit when they said not to stay here. Even the barracks would be better than this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Maybe they only post the  good reviews. It is the second night of a 23 day stay here. I have listened to a dog bark for well over 4 hours now in the room across the hall. I asked the front desk 3 times if they could please look into it. I might as well of been talking to myself. I also asked why the internet was so slow and was given the number to the internet provider. They do offer Breakfast and a evening social time that on this night served fried chicken and mashed potatoes. To get a break from the dog barking I decided to try some of the chicken. To my surprise , and this is funny - i see several people with huge plates of chicken. It looked good but I wasn't fast enough. There was only one poor lady cooking and a couple people eating. I left and came back down to ask about the dog again and I overhear the staff telling there family or friends what they were serving the following night, and they would bring them home the left overs. Apparently these people arent staying here they just show up for the food and pool.So I wonder if the owners know there staffs family and friends are eating all the food before the guests? Ah they probably don't care. I will never stay here again and will most definitely tell them...Maybe they only post the  good reviews. It is the second night of a 23 day stay here. I have listened to a dog bark for well over 4 hours now in the room across the hall. I asked the front desk 3 times if they could please look into it. I might as well of been talking to myself. I also asked why the internet was so slow and was given the number to the internet provider. They do offer Breakfast and a evening social time that on this night served fried chicken and mashed potatoes. To get a break from the dog barking I decided to try some of the chicken. To my surprise , and this is funny - i see several people with huge plates of chicken. It looked good but I wasn't fast enough. There was only one poor lady cooking and a couple people eating. I left and came back down to ask about the dog again and I overhear the staff telling there family or friends what they were serving the following night, and they would bring them home the left overs. Apparently these people arent staying here they just show up for the food and pool.So I wonder if the owners know there staffs family and friends are eating all the food before the guests? Ah they probably don't care. I will never stay here again and will most definitely tell them back home not to include this Hotel on the list of available places to stay while we attend training In Arlington. I should of listened to a couple of the guys in my unit when they said not to stay here. Even the barracks would be better than this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r206841691-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>206841691</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>So So Experince</t>
+  </si>
+  <si>
+    <t>This hotel was convienently located, it was very quick acess to the main highways.  The room itself could have used some updating/cleaning.  The bed was also uncomfortable and needs to be replaced with a new mattress.  The free breakfast was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was convienently located, it was very quick acess to the main highways.  The room itself could have used some updating/cleaning.  The bed was also uncomfortable and needs to be replaced with a new mattress.  The free breakfast was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r199637970-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>199637970</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Great location for Six Flags visit</t>
+  </si>
+  <si>
+    <t>We went to Arlington for Spring Break with our 3rd and 5th graders.  We are partial to Marriott properties and chose the Residence Inn Arlington.We had a great stay, our room was clean and comfortable.  We love the complimentary breakfast - making the morning before our big Six Flags day very easy.  The breakfast choices were plenty and tasty! :)Our kids enjoyed the heated pool and loved the sport court.  My only constructive criticisms would be:  larger towels for the pool and buy a few new balls for the sport court.  Kids didn't mind, they had fun anyway!Glad we choose to stay there - and will stay there again next time we want to go to Six Flags!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>We went to Arlington for Spring Break with our 3rd and 5th graders.  We are partial to Marriott properties and chose the Residence Inn Arlington.We had a great stay, our room was clean and comfortable.  We love the complimentary breakfast - making the morning before our big Six Flags day very easy.  The breakfast choices were plenty and tasty! :)Our kids enjoyed the heated pool and loved the sport court.  My only constructive criticisms would be:  larger towels for the pool and buy a few new balls for the sport court.  Kids didn't mind, they had fun anyway!Glad we choose to stay there - and will stay there again next time we want to go to Six Flags!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r199028399-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>199028399</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Stayed Feb 7-9 2014  Staff, accomodations were all excellent. Highly reccomendThe rooms, pool, location were all perfect. Breakfast in the morning had good variety, was hot and fresh. Would definately stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Stayed Feb 7-9 2014  Staff, accomodations were all excellent. Highly reccomendThe rooms, pool, location were all perfect. Breakfast in the morning had good variety, was hot and fresh. Would definately stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r197866029-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>197866029</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>Weekend in Dallas</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of nights last weekend.  Very clean hotel and a very attentive staff.  The rooms were nice and the location for us was perfect. The breakfast was great but got very crowded which gave us no place to sit.  When we sat in the lobby the lady at the front desk had someone come and open the banquet room to make more seating.  The one issue we did have was the noise level in the rooms around us.  The people were not being noisy but if they took a shower or flushed the toilet it sounded almost as loud as if it was in our own room.  Unfortunately we had people around us showering at 2:30 am both nights.  Earplugs would have made this a great place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded March 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of nights last weekend.  Very clean hotel and a very attentive staff.  The rooms were nice and the location for us was perfect. The breakfast was great but got very crowded which gave us no place to sit.  When we sat in the lobby the lady at the front desk had someone come and open the banquet room to make more seating.  The one issue we did have was the noise level in the rooms around us.  The people were not being noisy but if they took a shower or flushed the toilet it sounded almost as loud as if it was in our own room.  Unfortunately we had people around us showering at 2:30 am both nights.  Earplugs would have made this a great place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r195951020-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>195951020</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>John S</t>
+  </si>
+  <si>
+    <t>Received by staff expert Ms. Kris who is friendly, courteous and professional in every way. Very accommodating for my specific requirements. The room was very clean, well stocked and professionally prepared. Looking forward to staying there whenever my journeys take me to DFW. I recommend this to all who travels to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded March 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2014</t>
+  </si>
+  <si>
+    <t>Received by staff expert Ms. Kris who is friendly, courteous and professional in every way. Very accommodating for my specific requirements. The room was very clean, well stocked and professionally prepared. Looking forward to staying there whenever my journeys take me to DFW. I recommend this to all who travels to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r193063597-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>193063597</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Residence Inn-Arlington, TX</t>
+  </si>
+  <si>
+    <t>Very clean.  The staff was friendly and helpful. They even printed out directions to help us get to a few of our destinations.  Fabulous breakfast (for FREE!) and an evening social hour make it great on a budget!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded February 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2014</t>
+  </si>
+  <si>
+    <t>Very clean.  The staff was friendly and helpful. They even printed out directions to help us get to a few of our destinations.  Fabulous breakfast (for FREE!) and an evening social hour make it great on a budget!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r192461860-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>192461860</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>JB Fash</t>
+  </si>
+  <si>
+    <t>On entry I was met with a smiling face of Ms.Kris who attended to me and all the while engaging me in conversation; making me feel at home since it was my first time in Dallas. After assigning my room she called to make sure I like what she gave me. Overall, the unit was immaculate and the service of all the staff memebers was wonderful. Staff memeber were ready to help going the extra mile to make sure your stay was fulfilling. I will always recommed this Marriot to anyone I know going to Dallas area. Thank you all for job well done.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded February 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2014</t>
+  </si>
+  <si>
+    <t>On entry I was met with a smiling face of Ms.Kris who attended to me and all the while engaging me in conversation; making me feel at home since it was my first time in Dallas. After assigning my room she called to make sure I like what she gave me. Overall, the unit was immaculate and the service of all the staff memebers was wonderful. Staff memeber were ready to help going the extra mile to make sure your stay was fulfilling. I will always recommed this Marriot to anyone I know going to Dallas area. Thank you all for job well done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r185376750-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>185376750</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>fulfilling</t>
+  </si>
+  <si>
+    <t>Everything was very fulfilling of my needs for this business trip.  The room was very clean and infact smelled like clean soap when I came in.  the room was very nicely made up each day.  The breakfast was very good and had a large variety to satisfy everyone.  I would definitely stay here everytime ai come back to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded November 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2013</t>
+  </si>
+  <si>
+    <t>Everything was very fulfilling of my needs for this business trip.  The room was very clean and infact smelled like clean soap when I came in.  the room was very nicely made up each day.  The breakfast was very good and had a large variety to satisfy everyone.  I would definitely stay here everytime ai come back to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r185025109-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>185025109</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>Decent Hotel, Great Location</t>
+  </si>
+  <si>
+    <t>I stayed two nights in this hotel on business and I would stay here again.  Check in and check out were quick and easy, and my room on the second floor was clean and quiet.  I was happy to find that unlike a lot of hotels, there was no mold or mildew in the bathroom or shower.  Being from a warmer climate, I was a little cold in my room, but I was able to turn up the thermostat a bit and the heater worked great.  I would have liked to have had a small refrigerator, as the bottled water available in the room was a bit pricy, but I suppose that's the cost of convenience.  I really liked the lobby and restaurant area, which had obviously been updated recently.  There was a gas fireplace that was awesome!  The small restaurant area offered breakfast and coffee in the morning, and food and drinks in the evening which was nice and convenient, but again rather expensive.  One bottle of Blue Moon beer cost me over $7!  The front desk clerk suggested two restaurants during my stay one of which was fantastic - Pappacitos Mexican food, and the other was absolutely the worst barbecue food (cafeteria/buffet style) I've ever had - Bodacious Barbecue.  That was disappointing.  Other than that I enjoyed my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2013</t>
+  </si>
+  <si>
+    <t>I stayed two nights in this hotel on business and I would stay here again.  Check in and check out were quick and easy, and my room on the second floor was clean and quiet.  I was happy to find that unlike a lot of hotels, there was no mold or mildew in the bathroom or shower.  Being from a warmer climate, I was a little cold in my room, but I was able to turn up the thermostat a bit and the heater worked great.  I would have liked to have had a small refrigerator, as the bottled water available in the room was a bit pricy, but I suppose that's the cost of convenience.  I really liked the lobby and restaurant area, which had obviously been updated recently.  There was a gas fireplace that was awesome!  The small restaurant area offered breakfast and coffee in the morning, and food and drinks in the evening which was nice and convenient, but again rather expensive.  One bottle of Blue Moon beer cost me over $7!  The front desk clerk suggested two restaurants during my stay one of which was fantastic - Pappacitos Mexican food, and the other was absolutely the worst barbecue food (cafeteria/buffet style) I've ever had - Bodacious Barbecue.  That was disappointing.  Other than that I enjoyed my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r184863856-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>184863856</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Choice of Hotels</t>
+  </si>
+  <si>
+    <t>This is the end of my second stay each time I have enjoyed 2 weeks at the Residence Inn Arlington, TX.I was greeted warmy by Sasha at the desk and Michael, the General Manager is engaged and always concerned about the guests and the hotel.  I enjoy the friendliness of everyone, the dining staff, housekeeping, desk and maintenance.  One can quickly tell that there is pride in this hotel.My room was quiet, immaculate and well kept.  I truly felt at home having the room kitchen well appointed with utensils, plateware and cookware.If your are in the Dallas area either on business like me or pleasure (AT&amp;T Stadium, Ranger Stadium and Six Flags all less than a mile away) stay here.  You will not be disappointed.I look forward to returning on my next trip to DFW.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded November 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2013</t>
+  </si>
+  <si>
+    <t>This is the end of my second stay each time I have enjoyed 2 weeks at the Residence Inn Arlington, TX.I was greeted warmy by Sasha at the desk and Michael, the General Manager is engaged and always concerned about the guests and the hotel.  I enjoy the friendliness of everyone, the dining staff, housekeeping, desk and maintenance.  One can quickly tell that there is pride in this hotel.My room was quiet, immaculate and well kept.  I truly felt at home having the room kitchen well appointed with utensils, plateware and cookware.If your are in the Dallas area either on business like me or pleasure (AT&amp;T Stadium, Ranger Stadium and Six Flags all less than a mile away) stay here.  You will not be disappointed.I look forward to returning on my next trip to DFW.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r180330014-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>180330014</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Great location for the ballparks and six flags .</t>
+  </si>
+  <si>
+    <t>Great value , the breakfast area and food was outstanding , lots of variety. The room was awesome , a suite with a full kitchen with pots , pans , fridge, micro, also a desk and chair , small sofa , flat screen , set up very nice . The grounds were kept nice with a pool , BBQ , sport court . If your going to the football , baseball or six flags , this is a great place to stay . About 25 minutes to downtown Dallas . MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Great value , the breakfast area and food was outstanding , lots of variety. The room was awesome , a suite with a full kitchen with pots , pans , fridge, micro, also a desk and chair , small sofa , flat screen , set up very nice . The grounds were kept nice with a pool , BBQ , sport court . If your going to the football , baseball or six flags , this is a great place to stay . About 25 minutes to downtown Dallas . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r179266775-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>179266775</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Very nice stay .. Thanks Residence Inn</t>
+  </si>
+  <si>
+    <t>A very nice hotel. We bought a 2 bedroom suite. Very nice spacious beds .Suites were huge, breakfast was great. Felt very safe. In a nice area of Arlington ,very close to Six Flags. Shuttle is available if you need it. Will stay again !MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded October 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2013</t>
+  </si>
+  <si>
+    <t>A very nice hotel. We bought a 2 bedroom suite. Very nice spacious beds .Suites were huge, breakfast was great. Felt very safe. In a nice area of Arlington ,very close to Six Flags. Shuttle is available if you need it. Will stay again !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r176301156-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>176301156</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>An Awesome Vacation Spot for the Whole Family</t>
+  </si>
+  <si>
+    <t>I stayed her in a two bedroom suite.  I love the Residence Inn's and I am glad I stayed here.  It was quite and close to the airport.  I did not go but it is close to Six Flags and other Dallas Attractions like the Arlington baseball stadium.  The pool was nice and clean and my room was completely renovated.  It had a fireplace and the air condition worked perfectly.  I would stay again!  I came early and the room was not ready but Sasha asked me for a number and she called when my room was ready.  I checked in early!  I had my little dog and there was  a place to walk her in the back of the hotel.  I will let you know if anything changes I am going to stay again next month!  I was there in the off season.  No baseball games going on and football has not kicked in yet. I will update next month if there are any changes.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2013</t>
+  </si>
+  <si>
+    <t>I stayed her in a two bedroom suite.  I love the Residence Inn's and I am glad I stayed here.  It was quite and close to the airport.  I did not go but it is close to Six Flags and other Dallas Attractions like the Arlington baseball stadium.  The pool was nice and clean and my room was completely renovated.  It had a fireplace and the air condition worked perfectly.  I would stay again!  I came early and the room was not ready but Sasha asked me for a number and she called when my room was ready.  I checked in early!  I had my little dog and there was  a place to walk her in the back of the hotel.  I will let you know if anything changes I am going to stay again next month!  I was there in the off season.  No baseball games going on and football has not kicked in yet. I will update next month if there are any changes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r166831067-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>166831067</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>We will never ever make reservations here again!</t>
+  </si>
+  <si>
+    <t>We were in town for a baseball game. We arrive a little before 3 p.m. and found our room wasn't ready. They asked us to check back in 45 minutes. We waited a little longer than that, and the room still wasn't ready. Again they asked us to wait and check back. When we checked back again, the room still wasn't ready and there was no promise on when it would be ready. At that point, it was time to leave for the ballpark, so we had to cancel our reservation and then drive all the way home after the game. Horrible, horrible service. There was only one person manning the front desk on a busy holiday weekend (very nice people) and not enough room service. Poor planning. Bad experience. If this was my first time at a Residence Inn, I would avoid them in the future. Fortunately there are other properties that are well-managed. This one, however, is NOT!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded July 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2013</t>
+  </si>
+  <si>
+    <t>We were in town for a baseball game. We arrive a little before 3 p.m. and found our room wasn't ready. They asked us to check back in 45 minutes. We waited a little longer than that, and the room still wasn't ready. Again they asked us to wait and check back. When we checked back again, the room still wasn't ready and there was no promise on when it would be ready. At that point, it was time to leave for the ballpark, so we had to cancel our reservation and then drive all the way home after the game. Horrible, horrible service. There was only one person manning the front desk on a busy holiday weekend (very nice people) and not enough room service. Poor planning. Bad experience. If this was my first time at a Residence Inn, I would avoid them in the future. Fortunately there are other properties that are well-managed. This one, however, is NOT!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r166064930-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>166064930</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>Difficult check in otherwise great!</t>
+  </si>
+  <si>
+    <t>I arrived at this hotel very late after a 7 hour drive. I was exhausted. The first room they gave me hadn't been cleaned. I had a lot of luggage with me and had to haul it back down to the welcome desk. They happily gave me another room. When I arrived at the second room the key did not unlock it, so I had to haul my stuff back down to the welcome desk again. I was very frustrated at this point. It turns out that they had just written down the wrong room number. So after three tries I finally made it to my room. After this horrible check in, I was looking for any thing else to be ticked about! The rest of my experience was great. The hotel grounds are really nice, the rooms are spacious. I also enjoyed the work out area and the breakfast was great--they had eggs, bacon, oatmeal with toppings, fresh fruit, waffles, and other pastries. It was great! I had a very nice stay without any other problems. If it weren't for the check in problems I would have given it a 5!MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived at this hotel very late after a 7 hour drive. I was exhausted. The first room they gave me hadn't been cleaned. I had a lot of luggage with me and had to haul it back down to the welcome desk. They happily gave me another room. When I arrived at the second room the key did not unlock it, so I had to haul my stuff back down to the welcome desk again. I was very frustrated at this point. It turns out that they had just written down the wrong room number. So after three tries I finally made it to my room. After this horrible check in, I was looking for any thing else to be ticked about! The rest of my experience was great. The hotel grounds are really nice, the rooms are spacious. I also enjoyed the work out area and the breakfast was great--they had eggs, bacon, oatmeal with toppings, fresh fruit, waffles, and other pastries. It was great! I had a very nice stay without any other problems. If it weren't for the check in problems I would have given it a 5!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r163445267-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>163445267</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>Great Improvement!</t>
+  </si>
+  <si>
+    <t>I have stayed at the Residence Inn in various cities over the last 8 years. This hotel has recently undone an upgrade of soft goods and has made the stay very pleasant. The hotel is a little older by age but the updates have made the stay very comfortable. I like the fact that it is within minutes from DFW but you don't have airplane noisy. Small outdoor pool but comfortable. Restaurants within walking distance and I felt safe jogging. Outdoor grilling area available. Staff their was very friendly at check-in and always had a smile on their faces. Great job Residence!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at the Residence Inn in various cities over the last 8 years. This hotel has recently undone an upgrade of soft goods and has made the stay very pleasant. The hotel is a little older by age but the updates have made the stay very comfortable. I like the fact that it is within minutes from DFW but you don't have airplane noisy. Small outdoor pool but comfortable. Restaurants within walking distance and I felt safe jogging. Outdoor grilling area available. Staff their was very friendly at check-in and always had a smile on their faces. Great job Residence!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r160580944-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>160580944</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>We only stayed 1 night to go to a concert.  It was a pleasant stay.  Room was clean and spacious.  It was located very near local attractions... Cowboy stadium, Ranger Ballpark, Six Flags and Hurrican Harbour.  Also near several food establishments.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded May 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2013</t>
+  </si>
+  <si>
+    <t>We only stayed 1 night to go to a concert.  It was a pleasant stay.  Room was clean and spacious.  It was located very near local attractions... Cowboy stadium, Ranger Ballpark, Six Flags and Hurrican Harbour.  Also near several food establishments.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r160082728-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>160082728</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Having never stayed at a Residence Inn I wasn't sure what to expect. We were pleasantly surprised though. Went down for the Red Sox games and the location was great. It's enough off the main streets to not get all the traffic noise.Room clean and bed wasn't bad. Not the best but not the worst.If there was one drawback was a cleaner odor. It smelled almost like Lysol or Pine Sol and was so strong when we first entered our room we almost gagged. After a few minutes though we must have gotten used to it as we couldn't smell it anymore. Yet whenever we would leave and upon return we were hit with the same strong odor again. Otherwise not a great place but decent enough to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Having never stayed at a Residence Inn I wasn't sure what to expect. We were pleasantly surprised though. Went down for the Red Sox games and the location was great. It's enough off the main streets to not get all the traffic noise.Room clean and bed wasn't bad. Not the best but not the worst.If there was one drawback was a cleaner odor. It smelled almost like Lysol or Pine Sol and was so strong when we first entered our room we almost gagged. After a few minutes though we must have gotten used to it as we couldn't smell it anymore. Yet whenever we would leave and upon return we were hit with the same strong odor again. Otherwise not a great place but decent enough to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r159850609-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>159850609</t>
+  </si>
+  <si>
+    <t>05/06/2013</t>
+  </si>
+  <si>
+    <t>Quick one night visit</t>
+  </si>
+  <si>
+    <t>We stayed here just one night in order to go to the Rangers game. It's a Residence Inn, so I always like the rooms. It's not the best RI I've been too. I don't know how old this hotel is, but it just looked and smelled rather old. But the room was clean and neat, and the grounds were well kept. I also didn't realize they have no king beds here, or at least that is what we were told. So if you are accustomed to a king size bed, you'll need to sleep in a queen here. There was also roof construction going on, so the parking was limited. But that is not the hotel's fault, they have to fix things at some point. They do have a great staff though. Our limited interaction with them was that they were incredibly helpful and were never bothered by the many questions we were asking about the local area. The two young ladies at the front desk were just great. Also, if you are going to the Rangers, they have a 'red' trolley that takes you there, which is great to get to the game, but its very difficult to get coming back after the game. All in all it's just an ok Marriott property, but the great staff makes up for most things.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here just one night in order to go to the Rangers game. It's a Residence Inn, so I always like the rooms. It's not the best RI I've been too. I don't know how old this hotel is, but it just looked and smelled rather old. But the room was clean and neat, and the grounds were well kept. I also didn't realize they have no king beds here, or at least that is what we were told. So if you are accustomed to a king size bed, you'll need to sleep in a queen here. There was also roof construction going on, so the parking was limited. But that is not the hotel's fault, they have to fix things at some point. They do have a great staff though. Our limited interaction with them was that they were incredibly helpful and were never bothered by the many questions we were asking about the local area. The two young ladies at the front desk were just great. Also, if you are going to the Rangers, they have a 'red' trolley that takes you there, which is great to get to the game, but its very difficult to get coming back after the game. All in all it's just an ok Marriott property, but the great staff makes up for most things.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r157468458-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>157468458</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Horrible experience!</t>
+  </si>
+  <si>
+    <t>I have taken a group of students there for the past 3 years and have always had a very pleasant experience.  We came back this past weekend and through my own fault I forgot the school check but I had it fed ex'ed from Houston.  Although I had a tracking number, a fax of the check stub and the school administration called, they forced me to use my debit card to "hold" the rooms.  I authorized them to charge 640 dollars.  Since then I have had a total of 4000 dollars charged on my card even though they have the check and have cashed it.  Originally the manager was apologetic but the charges continue and he no longer answers nor returns my calls.  I will never stay here again and am taking legal action against them.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>I have taken a group of students there for the past 3 years and have always had a very pleasant experience.  We came back this past weekend and through my own fault I forgot the school check but I had it fed ex'ed from Houston.  Although I had a tracking number, a fax of the check stub and the school administration called, they forced me to use my debit card to "hold" the rooms.  I authorized them to charge 640 dollars.  Since then I have had a total of 4000 dollars charged on my card even though they have the check and have cashed it.  Originally the manager was apologetic but the charges continue and he no longer answers nor returns my calls.  I will never stay here again and am taking legal action against them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r157247912-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>157247912</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Nice property in South Arlington</t>
+  </si>
+  <si>
+    <t>New style for Residence Inn properties....no separate "cottages".....more like an apartment building.  Helpful staff...nice managers reception and breakfast.  There are several nice restaurants within a walking distance.  Will stay here again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded April 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2013</t>
+  </si>
+  <si>
+    <t>New style for Residence Inn properties....no separate "cottages".....more like an apartment building.  Helpful staff...nice managers reception and breakfast.  There are several nice restaurants within a walking distance.  Will stay here again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r157076819-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>157076819</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Nice clean hotel with beautiful pool area.</t>
+  </si>
+  <si>
+    <t>My son and I stayed here while attending the Sweet 16 games at Cowboy's Stadium.  So, we did not spend much time at the hotel/room or at the pool but what we saw was very nice.  The room was clean and quiet.  We slept in and did not eat breakfast in the morning.  But could smell the delicious cinnamon rolls when we checked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>My son and I stayed here while attending the Sweet 16 games at Cowboy's Stadium.  So, we did not spend much time at the hotel/room or at the pool but what we saw was very nice.  The room was clean and quiet.  We slept in and did not eat breakfast in the morning.  But could smell the delicious cinnamon rolls when we checked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r154656525-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>154656525</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>barely makes the cut</t>
+  </si>
+  <si>
+    <t>this place gives you the basics: clean, large rooms with kitchenette. The pool also looked nice but it was too early in the season to enjoy it. The rooms are not well insulated, if your neighbor showers at 5am you know it. The breakfasts were poor, scrambled eggs, turkey bacon (!), sometimes something that looked like an eggMcMuffin, allways lukewarm at best. The coffee is good, so is the OJ.I worked the evening shift on this business trip so I would leave around 3pm, my room was not cleaned on the last two days of my stay. I will not return there on my next assignment to American Airlines, there are other choices.Staff was friendly and always a nice smile.this place is at the crossroads of two highways, little to see or do nearby; drive to Dallas or FW.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded March 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2013</t>
+  </si>
+  <si>
+    <t>this place gives you the basics: clean, large rooms with kitchenette. The pool also looked nice but it was too early in the season to enjoy it. The rooms are not well insulated, if your neighbor showers at 5am you know it. The breakfasts were poor, scrambled eggs, turkey bacon (!), sometimes something that looked like an eggMcMuffin, allways lukewarm at best. The coffee is good, so is the OJ.I worked the evening shift on this business trip so I would leave around 3pm, my room was not cleaned on the last two days of my stay. I will not return there on my next assignment to American Airlines, there are other choices.Staff was friendly and always a nice smile.this place is at the crossroads of two highways, little to see or do nearby; drive to Dallas or FW.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r154528619-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>154528619</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>The place to stay in Arlington TX</t>
+  </si>
+  <si>
+    <t>I will not be going down the same old path with the pleasant people working or the clean rooms because that is why I stay at Residence Inns all over the country. What is the BOMB with this establishment is that they have a outstanding managers reception that has has a host of salads-breads-meats and the best BEER and WINE that is free. It is the best by far of all residence Inns that I have had the chance to stay in. The breakfast was equally as good as the reception, as there was a real variety of breakfast items for any type of personal preference. I can go into the facility but it was the same outstanding place you would get where ever you would go. The add on's make this place be be at if your travels take you and the family to Arlington TX and you are just a very short distance from the 6 Flags . Enough said , take it from a seasoned traveler "STAY HERE".MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I will not be going down the same old path with the pleasant people working or the clean rooms because that is why I stay at Residence Inns all over the country. What is the BOMB with this establishment is that they have a outstanding managers reception that has has a host of salads-breads-meats and the best BEER and WINE that is free. It is the best by far of all residence Inns that I have had the chance to stay in. The breakfast was equally as good as the reception, as there was a real variety of breakfast items for any type of personal preference. I can go into the facility but it was the same outstanding place you would get where ever you would go. The add on's make this place be be at if your travels take you and the family to Arlington TX and you are just a very short distance from the 6 Flags . Enough said , take it from a seasoned traveler "STAY HERE".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r154519661-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>154519661</t>
+  </si>
+  <si>
+    <t>Sher B</t>
+  </si>
+  <si>
+    <t>Great place to stay. The rooms are very very clean ,breakfast is very good.the location is perfect too! I would recommend this hotel to family and friends and may I also add this hotel is very quiet we always get a good nights rest here. We will be be returning. The price is fantastic also.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place to stay. The rooms are very very clean ,breakfast is very good.the location is perfect too! I would recommend this hotel to family and friends and may I also add this hotel is very quiet we always get a good nights rest here. We will be be returning. The price is fantastic also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r151174466-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>151174466</t>
+  </si>
+  <si>
+    <t>02/01/2013</t>
+  </si>
+  <si>
+    <t>Nice, quiet, comfortable and easy access</t>
+  </si>
+  <si>
+    <t>Personally, I prefer the style of the Residence Inn. It has more of the qualities of a time share condo then a hotel. My room is not on the 19th floor and I don't have to walk a half-mile to get to my car. Like many of the business hotels nowadays Residence has comfortable rooms, free breakfast and a "Manager's reception" in the evening. What I don't like about many of the other "suite hotels" is that they have a college dorm feel to them. No thanks. Once was enough. The Residence Inn in Arlington has the  friendly and courteous staff which one expects at a property stamped with the Marriott name. Access to and from the property and the nearby freeways was very easy. I had some extra time to look into some of the other area hotels and found that none of them matched what I had at the Residence Inn.  A great value. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded February 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2013</t>
+  </si>
+  <si>
+    <t>Personally, I prefer the style of the Residence Inn. It has more of the qualities of a time share condo then a hotel. My room is not on the 19th floor and I don't have to walk a half-mile to get to my car. Like many of the business hotels nowadays Residence has comfortable rooms, free breakfast and a "Manager's reception" in the evening. What I don't like about many of the other "suite hotels" is that they have a college dorm feel to them. No thanks. Once was enough. The Residence Inn in Arlington has the  friendly and courteous staff which one expects at a property stamped with the Marriott name. Access to and from the property and the nearby freeways was very easy. I had some extra time to look into some of the other area hotels and found that none of them matched what I had at the Residence Inn.  A great value. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r150895298-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>150895298</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Great stay for cowboys classic!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a long weekend and a football weekend. The rooms have a full kitchen and plenty of room for a longer stay. I loved the two Tvs... One in the living room and one in the bedroom. The breakfast was great and the service was fantastic! It was the perfect place to stay to be near everything as it is located between two malls with lots of shopping and eating opportunities. The outside seating area by the fire in the evening is so relaxing. The location was also great for Cowboys Stadium to avoid the traffic. We would definitely stay at this hotel again on another stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded January 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a long weekend and a football weekend. The rooms have a full kitchen and plenty of room for a longer stay. I loved the two Tvs... One in the living room and one in the bedroom. The breakfast was great and the service was fantastic! It was the perfect place to stay to be near everything as it is located between two malls with lots of shopping and eating opportunities. The outside seating area by the fire in the evening is so relaxing. The location was also great for Cowboys Stadium to avoid the traffic. We would definitely stay at this hotel again on another stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r150548672-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>150548672</t>
+  </si>
+  <si>
+    <t>01/24/2013</t>
+  </si>
+  <si>
+    <t>Great Consistancy</t>
+  </si>
+  <si>
+    <t>I stay here every January when I come out to Arlington on buisness. I always know what I will get. Rooms are clean and quiet. Bed is comfortable. I have never had any issues.Price is very competative. I'd reccommend this hotel  to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded January 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2013</t>
+  </si>
+  <si>
+    <t>I stay here every January when I come out to Arlington on buisness. I always know what I will get. Rooms are clean and quiet. Bed is comfortable. I have never had any issues.Price is very competative. I'd reccommend this hotel  to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r141356979-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>141356979</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>After staying up too late the night before I was slow to get moving in the morning and got downstairs 30 minutes late for breakfast.  Mary at the front desk was quick to head back to the kitchen to see what was left and prepare me a plate!  Eggs, hashbrowns, a muffin...much better than the granola bar I was about to have to buy.  Thank you Mary, you made my day!MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded October 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2012</t>
+  </si>
+  <si>
+    <t>After staying up too late the night before I was slow to get moving in the morning and got downstairs 30 minutes late for breakfast.  Mary at the front desk was quick to head back to the kitchen to see what was left and prepare me a plate!  Eggs, hashbrowns, a muffin...much better than the granola bar I was about to have to buy.  Thank you Mary, you made my day!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r140778665-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>140778665</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>Just great!</t>
+  </si>
+  <si>
+    <t>Great hotel! The staff was pleasant, the housekeeping staff does a wonderful job, and the meals are good. I really enjoyed the drinks at social hour...nice touch. I would definitely recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded September 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2012</t>
+  </si>
+  <si>
+    <t>Great hotel! The staff was pleasant, the housekeeping staff does a wonderful job, and the meals are good. I really enjoyed the drinks at social hour...nice touch. I would definitely recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r140768050-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>140768050</t>
+  </si>
+  <si>
+    <t>Good Hotel - A Bit Hard to Find</t>
+  </si>
+  <si>
+    <t>Stayed at the Residence Inn in Arlington this past weekend for a trip to watch a college game in Cowboy's Stadium.  This hotel is a bit hard to find but other than that the staff was very friendly, helpful and accommodating. The hotel is located across I20 from Six Flags in an area with many hotels and restaurants.  I requested a late checkout for my sick son and his friend and the staff quickly agreed to give them till 2 p.m.  The breakfast was standard Marriott fare and quite tasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at the Residence Inn in Arlington this past weekend for a trip to watch a college game in Cowboy's Stadium.  This hotel is a bit hard to find but other than that the staff was very friendly, helpful and accommodating. The hotel is located across I20 from Six Flags in an area with many hotels and restaurants.  I requested a late checkout for my sick son and his friend and the staff quickly agreed to give them till 2 p.m.  The breakfast was standard Marriott fare and quite tasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r139501046-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>139501046</t>
+  </si>
+  <si>
+    <t>09/05/2012</t>
+  </si>
+  <si>
+    <t>Wonderful Experience!</t>
+  </si>
+  <si>
+    <t>We were celebrating our daughter's 16th birthday and the choice couldn't be better!!!  The staff was always very friendly, professional, and polite.  The suite was so pleasant, clean, and homelike that we enjoyed it as much as the outdoors fun.  The variety and quality of the breakfast impressed us!  They had something for everybody, including the complimentary coffee flavors they offered during the whole day, every day.  Our family had a wonderful vacation and our daughter couldn't be happier... a birthday celebration to be remembered!!! We will definitely recommend this hotel if you want a really special experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>We were celebrating our daughter's 16th birthday and the choice couldn't be better!!!  The staff was always very friendly, professional, and polite.  The suite was so pleasant, clean, and homelike that we enjoyed it as much as the outdoors fun.  The variety and quality of the breakfast impressed us!  They had something for everybody, including the complimentary coffee flavors they offered during the whole day, every day.  Our family had a wonderful vacation and our daughter couldn't be happier... a birthday celebration to be remembered!!! We will definitely recommend this hotel if you want a really special experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r138151332-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>138151332</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>Great Service, Nice Suites, Comfortable</t>
+  </si>
+  <si>
+    <t>On the way to check in I  had bought a frozen pizza thinking if we wanted to stay in we put it in the oven. The room did not have ovens just microwaves. We were wanting to go out by then anyway but it was storming so hard we could not make it to the car. The lady at the front desk offered to cook the Pizza for us in their oven, which saved the day. Not only that but she was very friendly and welcoming. The rooms are wonderful, very clean and comfortable with plenty of room! Good location!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded August 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2012</t>
+  </si>
+  <si>
+    <t>On the way to check in I  had bought a frozen pizza thinking if we wanted to stay in we put it in the oven. The room did not have ovens just microwaves. We were wanting to go out by then anyway but it was storming so hard we could not make it to the car. The lady at the front desk offered to cook the Pizza for us in their oven, which saved the day. Not only that but she was very friendly and welcoming. The rooms are wonderful, very clean and comfortable with plenty of room! Good location!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r137023487-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>137023487</t>
+  </si>
+  <si>
+    <t>08/12/2012</t>
+  </si>
+  <si>
+    <t>Another great place to stay for Rangers Baseball</t>
+  </si>
+  <si>
+    <t>Very helpful staff. From the desk clerk at check in, to the security guard on the night shift. You just cannot beat these folks for their courtesy. We were celebrating my wife’s birthday with the grandkids and back to back Ranger games. I had left the game a little early so the smaller children could swim just a bit longer. The guard came by and told us the pool was closing and she would be back by in 30 minutes. I told the kids anywhere else and they would have told us to go to the room. The night shift clerk made the little ones feel good when they spoke, so friendly to them. We had stayed prior, at another hotel in front of the inn and my granddaughter remembered that a car had been broken into that night, so she liked the guard watching over us. All the staff was friendly, the maids, and the ladies at the breakfast. As well as it tasted fresh not the usual powered eggs and old pastries.  My whole crew voted it the place to stay at on the next outing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Very helpful staff. From the desk clerk at check in, to the security guard on the night shift. You just cannot beat these folks for their courtesy. We were celebrating my wife’s birthday with the grandkids and back to back Ranger games. I had left the game a little early so the smaller children could swim just a bit longer. The guard came by and told us the pool was closing and she would be back by in 30 minutes. I told the kids anywhere else and they would have told us to go to the room. The night shift clerk made the little ones feel good when they spoke, so friendly to them. We had stayed prior, at another hotel in front of the inn and my granddaughter remembered that a car had been broken into that night, so she liked the guard watching over us. All the staff was friendly, the maids, and the ladies at the breakfast. As well as it tasted fresh not the usual powered eggs and old pastries.  My whole crew voted it the place to stay at on the next outing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r135386473-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>135386473</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay the night</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay for the weekend, great service, free breakfast. Staff was very helpful, location not far from Six Flags. Hotel is close to the Boston restaurant &amp; other eating places. Also, a lot of shopping around the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded August 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2012</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay for the weekend, great service, free breakfast. Staff was very helpful, location not far from Six Flags. Hotel is close to the Boston restaurant &amp; other eating places. Also, a lot of shopping around the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r135281926-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>135281926</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>Outstanding  service</t>
+  </si>
+  <si>
+    <t>I am a lifetime Platinum Marriott Rewards member and I am very pleased with my stay.  Of particular note was this past Sunday when I was 1 hour away to do a presentation and left it in my room.  The clerk found it and faxed it immediately, saving me much embarrassment.  An excellent place for business or family pleasureMoreShow less</t>
+  </si>
+  <si>
+    <t>I am a lifetime Platinum Marriott Rewards member and I am very pleased with my stay.  Of particular note was this past Sunday when I was 1 hour away to do a presentation and left it in my room.  The clerk found it and faxed it immediately, saving me much embarrassment.  An excellent place for business or family pleasureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r134929148-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>134929148</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>A nice place to call your home...away from home</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel frequently in the past few months.  I find the staff to be friendly and helpful - the facilities are clean (seems they are in the process of updating) - the surrounding area is safe.  The location is great for shoppers - it is located in the middle of Arlington Highlands the outdoor shopping area and the Arlington Mall (sorry the exact name of the shopping areas escape me.)  They offer breakfast in the am and drinks and light meal in the evening.  If you are staying in Arlington I think this hotel is a great choiceMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded July 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2012</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel frequently in the past few months.  I find the staff to be friendly and helpful - the facilities are clean (seems they are in the process of updating) - the surrounding area is safe.  The location is great for shoppers - it is located in the middle of Arlington Highlands the outdoor shopping area and the Arlington Mall (sorry the exact name of the shopping areas escape me.)  They offer breakfast in the am and drinks and light meal in the evening.  If you are staying in Arlington I think this hotel is a great choiceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r133449837-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>133449837</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>Convenient location to Six Flags, Ballpark, Cowboys Stadium</t>
+  </si>
+  <si>
+    <t>We stayed overnight at this Residence Inn when our A/C unit was being repaired.  We had a two bedroom "suite".  The kitchen and bedrooms appeared very clean.  Bathrooms were simple and clean.  The beds appeared very small, smaller than Queen size.  One bed per bedroom. We had to move our daughter's slumber party to the hotel, so three teens tried to share one bed.  Not so successful, but no fault of Residence Inn.  The girls  were kept awake by boys playing basketball and yelling into the wee hours.  We checked in around 9:15 pm, so the basketball continued long past a reasonable time.  The only other gripe I have is that the towels were very dingy--gray in color.Breakfast was in a bright, cheery room and was very good.  Staff was great.  I couldn't get the wireless internet (ibahn) to work, but I did not call down to the front desk to ask for help.  Too tired.  The pool looked good.  I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2012</t>
+  </si>
+  <si>
+    <t>We stayed overnight at this Residence Inn when our A/C unit was being repaired.  We had a two bedroom "suite".  The kitchen and bedrooms appeared very clean.  Bathrooms were simple and clean.  The beds appeared very small, smaller than Queen size.  One bed per bedroom. We had to move our daughter's slumber party to the hotel, so three teens tried to share one bed.  Not so successful, but no fault of Residence Inn.  The girls  were kept awake by boys playing basketball and yelling into the wee hours.  We checked in around 9:15 pm, so the basketball continued long past a reasonable time.  The only other gripe I have is that the towels were very dingy--gray in color.Breakfast was in a bright, cheery room and was very good.  Staff was great.  I couldn't get the wireless internet (ibahn) to work, but I did not call down to the front desk to ask for help.  Too tired.  The pool looked good.  I would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r133296493-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>133296493</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>Excellent service and accommodations</t>
+  </si>
+  <si>
+    <t>Excellent Service from the staff, especially front counter. Very Friendly, Best I've had.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2012</t>
+  </si>
+  <si>
+    <t>Excellent Service from the staff, especially front counter. Very Friendly, Best I've had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r133202803-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>133202803</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>We were in a end room, never heard any noise from parking lot, it was very nice. Hotel location is great too! Breakfast was delicious!! Lots of selections, clean and organized. Pool was sparkling clean and I saw the staff checking the hot tub for proper pH. When I was checking in, the man in front of me had some problems with his reservation and the desk clerk handled it with the utmost professionalism and promptness. I will stay there again for sure! Worth every dollar! They could however have softer towels.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in a end room, never heard any noise from parking lot, it was very nice. Hotel location is great too! Breakfast was delicious!! Lots of selections, clean and organized. Pool was sparkling clean and I saw the staff checking the hot tub for proper pH. When I was checking in, the man in front of me had some problems with his reservation and the desk clerk handled it with the utmost professionalism and promptness. I will stay there again for sure! Worth every dollar! They could however have softer towels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r132055905-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>132055905</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Review of Residence Inn Arlington, Texas</t>
+  </si>
+  <si>
+    <t>Great location for the purpose of our trip - a Texas Rangers baseball game.  A trolley will take us from the hotel to within 100 yards of the third base gate and then take us back to the hotel after the game.  Great room too - plenty large - super clean - quiet room - HD TV willh a great picture of the U. S. Open golf tournament.  Front desk staff some of the more personable I've ever met.  Would highly recommend this to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded June 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2012</t>
+  </si>
+  <si>
+    <t>Great location for the purpose of our trip - a Texas Rangers baseball game.  A trolley will take us from the hotel to within 100 yards of the third base gate and then take us back to the hotel after the game.  Great room too - plenty large - super clean - quiet room - HD TV willh a great picture of the U. S. Open golf tournament.  Front desk staff some of the more personable I've ever met.  Would highly recommend this to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r131444470-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>131444470</t>
+  </si>
+  <si>
+    <t>06/06/2012</t>
+  </si>
+  <si>
+    <t>Mike M</t>
+  </si>
+  <si>
+    <t>Great hotel!  The staff was friendly and the rooms were outstanding.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Great hotel!  The staff was friendly and the rooms were outstanding.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r129517801-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>129517801</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay - Outstanding staff - Extremely Clean</t>
+  </si>
+  <si>
+    <t>Stayed just for one night, on business, but surely wish it could have been more. Happy hour drinks and snacks were awesome (including the free margaritas for Cinco de Mayo!). Breakfast also very well organized, and fresh! Room was super clean, and far larger than I expected. Two full bedrooms plus living room plus kitchen -- three flat-screen TVs -- free WiFi -- all for $139. Bed extremely comfortable too! Just a few miles from Six Flags too! Used the fitness center -- nice and clean, and even printed boarding passes from the free computers in business center. GREAT place to stay in Arlington!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded May 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2012</t>
+  </si>
+  <si>
+    <t>Stayed just for one night, on business, but surely wish it could have been more. Happy hour drinks and snacks were awesome (including the free margaritas for Cinco de Mayo!). Breakfast also very well organized, and fresh! Room was super clean, and far larger than I expected. Two full bedrooms plus living room plus kitchen -- three flat-screen TVs -- free WiFi -- all for $139. Bed extremely comfortable too! Just a few miles from Six Flags too! Used the fitness center -- nice and clean, and even printed boarding passes from the free computers in business center. GREAT place to stay in Arlington!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r127808663-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>127808663</t>
+  </si>
+  <si>
+    <t>04/13/2012</t>
+  </si>
+  <si>
+    <t>Nice place - but watch out</t>
+  </si>
+  <si>
+    <t>The facilities were nice and staff were friendly, but the hotel did not respond properly to the tornado emergency a few weeks ago. I was working night shift and slept during the day, during which I received NO notice from the hotel staff that a tornado warning was in effect. A tornado touched down two blocks away.Don't expect a warning call or the staff to knock on your door.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded April 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2012</t>
+  </si>
+  <si>
+    <t>The facilities were nice and staff were friendly, but the hotel did not respond properly to the tornado emergency a few weeks ago. I was working night shift and slept during the day, during which I received NO notice from the hotel staff that a tornado warning was in effect. A tornado touched down two blocks away.Don't expect a warning call or the staff to knock on your door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r127315485-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>127315485</t>
+  </si>
+  <si>
+    <t>04/05/2012</t>
+  </si>
+  <si>
+    <t>Great for extended stay</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel recently.  I do not have any complaints.  The staff was friendly.  The breakfast was good.  The pool area is nice.  It is reasonably priced especially when you have a full kitchen and bedroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael M, General Manager at Residence Inn Arlington, responded to this reviewResponded April 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2012</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel recently.  I do not have any complaints.  The staff was friendly.  The breakfast was good.  The pool area is nice.  It is reasonably priced especially when you have a full kitchen and bedroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r126912685-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>126912685</t>
+  </si>
+  <si>
+    <t>03/29/2012</t>
+  </si>
+  <si>
+    <t>Great for families</t>
+  </si>
+  <si>
+    <t>My family and I stayed here during my husband's company trip.  I thought that we got lots of bang for our buck!  We paid under $140 and got a one bedroom.  The appliances in here were great.  Stainless steel, refrigerator, dishwasher (just the fact that there was a dishwasher was impressive), and microwave.  There was also a two burner stove and free dishes, utensil, and pots and pans for the guests.  There was a pull sofa/couch and my two girls were able to sleep on that.  Two big windows that let lots of natual light in and good blackout curtains so that my girls didn't wake up at the break of dawn.  Lots of great amenites too!  Pool and jacuzzi, workout room, bbq in case guest would like to cook out, fire pit, multi-purpose sports court, and Coin operated Laundry facility.  There is also a computer and printer... not a full business center, but it works great.  What really sets this apart from other similar hotels, motels, Inns is that they don't only serve a free hot breakfast...they also do a free dinner, which is different every night.  Staff is very nice and we really had a great time here.  It is not the Hilton or Sheraton but for the awesome price, it was great!  I forgot to add that it was very clean and well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Michael M, Manager at Residence Inn Arlington, responded to this reviewResponded April 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2012</t>
+  </si>
+  <si>
+    <t>My family and I stayed here during my husband's company trip.  I thought that we got lots of bang for our buck!  We paid under $140 and got a one bedroom.  The appliances in here were great.  Stainless steel, refrigerator, dishwasher (just the fact that there was a dishwasher was impressive), and microwave.  There was also a two burner stove and free dishes, utensil, and pots and pans for the guests.  There was a pull sofa/couch and my two girls were able to sleep on that.  Two big windows that let lots of natual light in and good blackout curtains so that my girls didn't wake up at the break of dawn.  Lots of great amenites too!  Pool and jacuzzi, workout room, bbq in case guest would like to cook out, fire pit, multi-purpose sports court, and Coin operated Laundry facility.  There is also a computer and printer... not a full business center, but it works great.  What really sets this apart from other similar hotels, motels, Inns is that they don't only serve a free hot breakfast...they also do a free dinner, which is different every night.  Staff is very nice and we really had a great time here.  It is not the Hilton or Sheraton but for the awesome price, it was great!  I forgot to add that it was very clean and well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r121602515-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>121602515</t>
+  </si>
+  <si>
+    <t>12/10/2011</t>
+  </si>
+  <si>
+    <t>Good Residence Inn</t>
+  </si>
+  <si>
+    <t>Fairly good Residence Inn. My second stay here. Several large buildings with center courtyard/pool area. Buildings have elevators. Check-in quick. Why they ask for your driver's license when they have full credentials on file I have no clue. Breakfast good but staff a little slow keep up with demand. Very convenient near highway and multiple restaurants nearby.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r120838106-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>120838106</t>
+  </si>
+  <si>
+    <t>11/20/2011</t>
+  </si>
+  <si>
+    <t>One great breakfast, but a below average bed didn't excite us</t>
+  </si>
+  <si>
+    <t>Arrived very early on a Fri AM (12:30am) and was immediately greeted by a clerk to check us in. The check in was prompt and we were off to our room.
+Our room was spacious, with a mini-kitchen and a separate sitting area. King size bed with a bit small of a bathroom. Single tub/shower unit. Upon arrival room temp was about 75 degrees and within minutes the AC system had the room temp down to a more comfortable level. That system worked well and was not noisy.
+Good sized flat screen TV pivoted to the bed or sitting area section. Free wireless in the hotel, but the signal in our room was pretty low, so internet speed was slow as well. 
+The bed is one area where we had a major complaint. I'll bet there was a 2" drop from the end of the bed to the center. This made sleeping a bit interesting, as you were always rolling to the center. We thought about changing rooms, but since the trip was just three nights, we left it alone. Needless to say we didn't get that good a quality sleep. No other complaints on the room. Kitchen has coffee maker and coffee, along with a bag of popcorn.
+Housekeeping did a good job and have no complaints. One day they cleaned by the time we returned from breakfast. Can't complaint about that. Good desk to work from as well...Arrived very early on a Fri AM (12:30am) and was immediately greeted by a clerk to check us in. The check in was prompt and we were off to our room.Our room was spacious, with a mini-kitchen and a separate sitting area. King size bed with a bit small of a bathroom. Single tub/shower unit. Upon arrival room temp was about 75 degrees and within minutes the AC system had the room temp down to a more comfortable level. That system worked well and was not noisy.Good sized flat screen TV pivoted to the bed or sitting area section. Free wireless in the hotel, but the signal in our room was pretty low, so internet speed was slow as well. The bed is one area where we had a major complaint. I'll bet there was a 2" drop from the end of the bed to the center. This made sleeping a bit interesting, as you were always rolling to the center. We thought about changing rooms, but since the trip was just three nights, we left it alone. Needless to say we didn't get that good a quality sleep. No other complaints on the room. Kitchen has coffee maker and coffee, along with a bag of popcorn.Housekeeping did a good job and have no complaints. One day they cleaned by the time we returned from breakfast. Can't complaint about that. Good desk to work from as well if you need to pop open the laptop.Breakfast...simply outstanding. It's free and it's awesome. Fruit, cereal, hot items and lots of juice and coffee. We left every morning having enjoyed a great meal. TV is on and there are newspapers for your enjoyment. Food was always stocked and taste was excellent.I paid $119 a night for this room and I was very pleased, with the exception of the bed. There is a pool, hot tub, tennis courts, fire pit, and other amenities for your enjoyment. Overall, with the exception of a sorry bed, the rest of the stay was outstanding. I probably should have asked for a different room, but when you stroll in at 12:15 in the AM, this is the last thing you want to deal with.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Arrived very early on a Fri AM (12:30am) and was immediately greeted by a clerk to check us in. The check in was prompt and we were off to our room.
+Our room was spacious, with a mini-kitchen and a separate sitting area. King size bed with a bit small of a bathroom. Single tub/shower unit. Upon arrival room temp was about 75 degrees and within minutes the AC system had the room temp down to a more comfortable level. That system worked well and was not noisy.
+Good sized flat screen TV pivoted to the bed or sitting area section. Free wireless in the hotel, but the signal in our room was pretty low, so internet speed was slow as well. 
+The bed is one area where we had a major complaint. I'll bet there was a 2" drop from the end of the bed to the center. This made sleeping a bit interesting, as you were always rolling to the center. We thought about changing rooms, but since the trip was just three nights, we left it alone. Needless to say we didn't get that good a quality sleep. No other complaints on the room. Kitchen has coffee maker and coffee, along with a bag of popcorn.
+Housekeeping did a good job and have no complaints. One day they cleaned by the time we returned from breakfast. Can't complaint about that. Good desk to work from as well...Arrived very early on a Fri AM (12:30am) and was immediately greeted by a clerk to check us in. The check in was prompt and we were off to our room.Our room was spacious, with a mini-kitchen and a separate sitting area. King size bed with a bit small of a bathroom. Single tub/shower unit. Upon arrival room temp was about 75 degrees and within minutes the AC system had the room temp down to a more comfortable level. That system worked well and was not noisy.Good sized flat screen TV pivoted to the bed or sitting area section. Free wireless in the hotel, but the signal in our room was pretty low, so internet speed was slow as well. The bed is one area where we had a major complaint. I'll bet there was a 2" drop from the end of the bed to the center. This made sleeping a bit interesting, as you were always rolling to the center. We thought about changing rooms, but since the trip was just three nights, we left it alone. Needless to say we didn't get that good a quality sleep. No other complaints on the room. Kitchen has coffee maker and coffee, along with a bag of popcorn.Housekeeping did a good job and have no complaints. One day they cleaned by the time we returned from breakfast. Can't complaint about that. Good desk to work from as well if you need to pop open the laptop.Breakfast...simply outstanding. It's free and it's awesome. Fruit, cereal, hot items and lots of juice and coffee. We left every morning having enjoyed a great meal. TV is on and there are newspapers for your enjoyment. Food was always stocked and taste was excellent.I paid $119 a night for this room and I was very pleased, with the exception of the bed. There is a pool, hot tub, tennis courts, fire pit, and other amenities for your enjoyment. Overall, with the exception of a sorry bed, the rest of the stay was outstanding. I probably should have asked for a different room, but when you stroll in at 12:15 in the AM, this is the last thing you want to deal with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r116727391-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>116727391</t>
+  </si>
+  <si>
+    <t>08/14/2011</t>
+  </si>
+  <si>
+    <t>Good experience on the whole.</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of days of college visits.  It was conveniently located between TCU (20 min drive or so) and UT Arlington (10 min drive).  It was an easy drive to both schools.  The room was clean with great AC when it was 105 outside.  Because of the location of the room, it noisier than what I'm used to (near two entrances/exits and the pool).  In the future I'd request a different location for my room.  As far as sofa beds go, this one was pretty awful to sleep on.  We had to put the chair cushions under the sheet, which works out great if you're a teenager.The front office people were very nice and welcoming. The breakfast was very good.  The workout room was small, but they had good quality equipment that was well-maintained.I will stay here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of days of college visits.  It was conveniently located between TCU (20 min drive or so) and UT Arlington (10 min drive).  It was an easy drive to both schools.  The room was clean with great AC when it was 105 outside.  Because of the location of the room, it noisier than what I'm used to (near two entrances/exits and the pool).  In the future I'd request a different location for my room.  As far as sofa beds go, this one was pretty awful to sleep on.  We had to put the chair cushions under the sheet, which works out great if you're a teenager.The front office people were very nice and welcoming. The breakfast was very good.  The workout room was small, but they had good quality equipment that was well-maintained.I will stay here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r96855434-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>96855434</t>
+  </si>
+  <si>
+    <t>02/16/2011</t>
+  </si>
+  <si>
+    <t>A disgusting filthy hotel....should not be a Marriott property.</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for business yesterday. I travel almost every week and stay at Marriotts 90% of the time and am usually very pleased. The hotel corridor was filthy with worn carpet, broken ceiling tiles exposing wiring and extensive water damage. When I walked down the corridor it was obvious someone had thrown up in it but never cleaned it up. The smell was awful. Same for my room, if you want to call it that. Disgusting smell that reeked. I asked to change to another room and the front office worker (jesse) was very nice and did so. New room was better but still was dirty with worn carpeting and beat up frat house style furniture. Also the air conditioner DID NOT WORK. When I checked out this AM I spoke with the GM of the hotel (Angela). She cooly informed me that she was shocked by my experience and that they had a 92.3% customer satisfaction rating. No effort to make it right or address the issue whatsoever. Made sense as it was obvious the management could not care less about this property or its customers. STAY AWAY from this DUMP.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for business yesterday. I travel almost every week and stay at Marriotts 90% of the time and am usually very pleased. The hotel corridor was filthy with worn carpet, broken ceiling tiles exposing wiring and extensive water damage. When I walked down the corridor it was obvious someone had thrown up in it but never cleaned it up. The smell was awful. Same for my room, if you want to call it that. Disgusting smell that reeked. I asked to change to another room and the front office worker (jesse) was very nice and did so. New room was better but still was dirty with worn carpeting and beat up frat house style furniture. Also the air conditioner DID NOT WORK. When I checked out this AM I spoke with the GM of the hotel (Angela). She cooly informed me that she was shocked by my experience and that they had a 92.3% customer satisfaction rating. No effort to make it right or address the issue whatsoever. Made sense as it was obvious the management could not care less about this property or its customers. STAY AWAY from this DUMP.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r85639415-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>85639415</t>
+  </si>
+  <si>
+    <t>11/01/2010</t>
+  </si>
+  <si>
+    <t>Always Excellent</t>
+  </si>
+  <si>
+    <t>We regularly stop at this hotel on overnight visits to the area. Service is always outstanding and better than at several other nearby properties. It's not the newest property, but it's clean, comfortable, and a pleasant place to stay. Snacks in the evenings are always great and the breakfast is plentiful.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r79806295-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>79806295</t>
+  </si>
+  <si>
+    <t>09/16/2010</t>
+  </si>
+  <si>
+    <t>Lice!!!!!!  Run away!</t>
+  </si>
+  <si>
+    <t>During the actual visit, the stay was pleasant enough, but our trouble started on the way home.  My six year old daughter was complaining that she kept finding bugs on her head rest.  Not having ever had the miserable experience that lice are, I didn't think anything of it.  Two days later when my daughter went for a hair trim the stylist pulled my wife over and showed her the lice.  Now after spending over $150, huge amounts of laundry and the trauma to my daughter, I think we have it in control(keeping our fingers crossed).  I was willing to give the hotel the benefit of the doubt and assume she got the lice somewhere else unitl I did a google search.  see here for more complaints:  http://www.consumeraffairs.com/travel/marriott_residence_inns_p2.htmlMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>During the actual visit, the stay was pleasant enough, but our trouble started on the way home.  My six year old daughter was complaining that she kept finding bugs on her head rest.  Not having ever had the miserable experience that lice are, I didn't think anything of it.  Two days later when my daughter went for a hair trim the stylist pulled my wife over and showed her the lice.  Now after spending over $150, huge amounts of laundry and the trauma to my daughter, I think we have it in control(keeping our fingers crossed).  I was willing to give the hotel the benefit of the doubt and assume she got the lice somewhere else unitl I did a google search.  see here for more complaints:  http://www.consumeraffairs.com/travel/marriott_residence_inns_p2.htmlMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r70087731-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>70087731</t>
+  </si>
+  <si>
+    <t>07/07/2010</t>
+  </si>
+  <si>
+    <t>FAMILY VISIT</t>
+  </si>
+  <si>
+    <t>great hotel, great room, great breakfast, fantastic exercise room.pull out sofa uncomfortable.  would like thicker comforter.looking forward vto staying there again</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r68342659-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>68342659</t>
+  </si>
+  <si>
+    <t>06/22/2010</t>
+  </si>
+  <si>
+    <t>Nice and new</t>
+  </si>
+  <si>
+    <t>Stayed a couple of days to have work done to home. Very clean property, free parking and nice breakfast in the morning.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r65165754-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>65165754</t>
+  </si>
+  <si>
+    <t>05/24/2010</t>
+  </si>
+  <si>
+    <t>Perfect Spot</t>
+  </si>
+  <si>
+    <t>My Perfect Spot because if you didn't want to drive you had resturants in waking distance and thats perfect for me. Also QT right down the street,, Quiet,except one night.. thats okay we just closed the window.My husband even liked. We took our youngest (3) and she thought the breakfast was good and the hotel was fun. I checked out the 2 bedroom huge roomate style. We had the one bedroom this trip .. We will get the 2 bedroom when we return with the kids. Anyhow.Nice Breakfast was nice as well. The staff oh yes the lady name I think was Victoria.. and I needed directions to the Golden Corral over by Cedar Hill...She gave directions perfectly..She knows her stuff I hope I remebered her name right.. We stayed there mothers day weekend...well we loved will be back there..MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>My Perfect Spot because if you didn't want to drive you had resturants in waking distance and thats perfect for me. Also QT right down the street,, Quiet,except one night.. thats okay we just closed the window.My husband even liked. We took our youngest (3) and she thought the breakfast was good and the hotel was fun. I checked out the 2 bedroom huge roomate style. We had the one bedroom this trip .. We will get the 2 bedroom when we return with the kids. Anyhow.Nice Breakfast was nice as well. The staff oh yes the lady name I think was Victoria.. and I needed directions to the Golden Corral over by Cedar Hill...She gave directions perfectly..She knows her stuff I hope I remebered her name right.. We stayed there mothers day weekend...well we loved will be back there..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r54664078-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>54664078</t>
+  </si>
+  <si>
+    <t>01/29/2010</t>
+  </si>
+  <si>
+    <t>A hotel for a long stay but lacks staff service</t>
+  </si>
+  <si>
+    <t>Residence Inn has been one of my good choices for a long stay during my business trips to US as it provides Kitchen and other in room basic facilities. I had stayed in some of them in other states and thus choose this one while on a business visit as it was at a walking distance from my office. Overall this hotel property is okay however didn't give me the similar experience that I had in Florida or Chicago. The breakfast option and other manager's evening snacks was good however lacked personal staff attention that I would have seen in other such hotels. This property didn't even have an airport pick up or drop arrangements. The rooms while decorated in a similar manner like any other Residence Inns however the room sizes were smaller. The best part was that I managed to get a pool facing room otherwise the other rooms really do not have any visuals from the room's window. 
+The problem with this property was its constant changing of front desk staff and their lack of basic things. I stayed there for over 7-10 days however every alternate day, something or the other would happen with their key lock system and I had to go down for a new key late in the night. The area earlier never used to look safe for a new traveler since its isolated however with a new resturant near by now you...Residence Inn has been one of my good choices for a long stay during my business trips to US as it provides Kitchen and other in room basic facilities. I had stayed in some of them in other states and thus choose this one while on a business visit as it was at a walking distance from my office. Overall this hotel property is okay however didn't give me the similar experience that I had in Florida or Chicago. The breakfast option and other manager's evening snacks was good however lacked personal staff attention that I would have seen in other such hotels. This property didn't even have an airport pick up or drop arrangements. The rooms while decorated in a similar manner like any other Residence Inns however the room sizes were smaller. The best part was that I managed to get a pool facing room otherwise the other rooms really do not have any visuals from the room's window. The problem with this property was its constant changing of front desk staff and their lack of basic things. I stayed there for over 7-10 days however every alternate day, something or the other would happen with their key lock system and I had to go down for a new key late in the night. The area earlier never used to look safe for a new traveler since its isolated however with a new resturant near by now you atleast have some crowd. The good part is that at a walking distance you have lot of good resturants and eating places however lacks connectivity. Other facility that I liked was their stacking up of the vending machine at the front desk with all the food which you could grab even late in the night incase you feel hungry and do not want to drive down. The resturant's staff was really impressive, she used to ensure to take personal care of the guests during break fast hours and that's something a lot of travellers liked. It had all the basic business facilities, like printing, a confernece room which we used for our multiple meetings, internet connectivity, a computer for guests to share and use. However if I compare my next trip and my stay at the Hilton's near by, that's a hotel which I would probably recommend more unless you need a cooking facility in the room. Overall a decent stay but probably I would like to try some other one next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>Residence Inn has been one of my good choices for a long stay during my business trips to US as it provides Kitchen and other in room basic facilities. I had stayed in some of them in other states and thus choose this one while on a business visit as it was at a walking distance from my office. Overall this hotel property is okay however didn't give me the similar experience that I had in Florida or Chicago. The breakfast option and other manager's evening snacks was good however lacked personal staff attention that I would have seen in other such hotels. This property didn't even have an airport pick up or drop arrangements. The rooms while decorated in a similar manner like any other Residence Inns however the room sizes were smaller. The best part was that I managed to get a pool facing room otherwise the other rooms really do not have any visuals from the room's window. 
+The problem with this property was its constant changing of front desk staff and their lack of basic things. I stayed there for over 7-10 days however every alternate day, something or the other would happen with their key lock system and I had to go down for a new key late in the night. The area earlier never used to look safe for a new traveler since its isolated however with a new resturant near by now you...Residence Inn has been one of my good choices for a long stay during my business trips to US as it provides Kitchen and other in room basic facilities. I had stayed in some of them in other states and thus choose this one while on a business visit as it was at a walking distance from my office. Overall this hotel property is okay however didn't give me the similar experience that I had in Florida or Chicago. The breakfast option and other manager's evening snacks was good however lacked personal staff attention that I would have seen in other such hotels. This property didn't even have an airport pick up or drop arrangements. The rooms while decorated in a similar manner like any other Residence Inns however the room sizes were smaller. The best part was that I managed to get a pool facing room otherwise the other rooms really do not have any visuals from the room's window. The problem with this property was its constant changing of front desk staff and their lack of basic things. I stayed there for over 7-10 days however every alternate day, something or the other would happen with their key lock system and I had to go down for a new key late in the night. The area earlier never used to look safe for a new traveler since its isolated however with a new resturant near by now you atleast have some crowd. The good part is that at a walking distance you have lot of good resturants and eating places however lacks connectivity. Other facility that I liked was their stacking up of the vending machine at the front desk with all the food which you could grab even late in the night incase you feel hungry and do not want to drive down. The resturant's staff was really impressive, she used to ensure to take personal care of the guests during break fast hours and that's something a lot of travellers liked. It had all the basic business facilities, like printing, a confernece room which we used for our multiple meetings, internet connectivity, a computer for guests to share and use. However if I compare my next trip and my stay at the Hilton's near by, that's a hotel which I would probably recommend more unless you need a cooking facility in the room. Overall a decent stay but probably I would like to try some other one next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r53015581-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>53015581</t>
+  </si>
+  <si>
+    <t>01/09/2010</t>
+  </si>
+  <si>
+    <t>Comfortable home-like place to stay</t>
+  </si>
+  <si>
+    <t>Residence Inns are my favorite place to stay, and this one is no exception.....always comfortable and feel more like home than other hotels.  I arrived early around 2 PM before the official check-in time of 3 PM, but the hotel staff member on duty, Brad, was most helpful in checking me into a quiet upper floor room, even though the hotel had been sold out the night before with the fans attending the Cotton Bowl and many of the rooms were still being cleaned.I love having a full kitchen and take advantage of that for most of my evening meals.I've stayed at this hotel many times over the past several years, and this property was remodeled a few years ago, but they failed to upgrade the TV's to new LCD flat screens....still have the old CRT tube-types.  Okay, but not up to par with some of the newer Residence Inns.Always a great breakfast in the morning with varied items, but this hotel did not offer hot oatmeal like every other Residence Inn where I've stayed.This hotel is in a great location (convenient to DFW airport) and is getting a lot more traffic with the opening of the new Dallas Cowboys stadium a couple of miles away.Will definitely stay here again, but hope they will upgrade their TV's soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Residence Inns are my favorite place to stay, and this one is no exception.....always comfortable and feel more like home than other hotels.  I arrived early around 2 PM before the official check-in time of 3 PM, but the hotel staff member on duty, Brad, was most helpful in checking me into a quiet upper floor room, even though the hotel had been sold out the night before with the fans attending the Cotton Bowl and many of the rooms were still being cleaned.I love having a full kitchen and take advantage of that for most of my evening meals.I've stayed at this hotel many times over the past several years, and this property was remodeled a few years ago, but they failed to upgrade the TV's to new LCD flat screens....still have the old CRT tube-types.  Okay, but not up to par with some of the newer Residence Inns.Always a great breakfast in the morning with varied items, but this hotel did not offer hot oatmeal like every other Residence Inn where I've stayed.This hotel is in a great location (convenient to DFW airport) and is getting a lot more traffic with the opening of the new Dallas Cowboys stadium a couple of miles away.Will definitely stay here again, but hope they will upgrade their TV's soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r39876029-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>39876029</t>
+  </si>
+  <si>
+    <t>09/05/2009</t>
+  </si>
+  <si>
+    <t>VERY COMFORTABLE AND FRIENDLY!</t>
+  </si>
+  <si>
+    <t>Quick check-in with manager asking about our reason for stay. She seemed genuinely interested in our family. Big, clean rooms. RI's don't seem to have luggage stands.Nice breakfast in good sized "living room" area. Beautiful outdoor pool area. They even had a few pool toys out there for the kids. Tight parking around perimeter of spread -out complex made for a good hike to car especially with luggage. And Texas weather is HOT. Close to attractions and restaurants. Nice homey feel!</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r22189247-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>22189247</t>
+  </si>
+  <si>
+    <t>11/25/2008</t>
+  </si>
+  <si>
+    <t>It's like a minerature apartment! so cute!</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn while visiting the area.   I stayed in a two bedroom for 3 days! It was so great... there are 2 big beds and separate bathrooms with a kitchen and fire place! It was like a minerature two bedroom apartment.  Breakfast in the morning was great.. good variety and that night they had some finger foods and drinks for free.  And they allow pets! I should have brought my puppy. next time I will.  service was good.. they knew of great places in the area and gave me directions on the spot.  they had a pool and hot tub and little courtyard w/a fire pit.. all very cute... you wouldn't expect it from the outside but go inside and in the courtyard it's actually a suprise. I'm not sure when i'll be in the area again but i'm sold on the residence inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn while visiting the area.   I stayed in a two bedroom for 3 days! It was so great... there are 2 big beds and separate bathrooms with a kitchen and fire place! It was like a minerature two bedroom apartment.  Breakfast in the morning was great.. good variety and that night they had some finger foods and drinks for free.  And they allow pets! I should have brought my puppy. next time I will.  service was good.. they knew of great places in the area and gave me directions on the spot.  they had a pool and hot tub and little courtyard w/a fire pit.. all very cute... you wouldn't expect it from the outside but go inside and in the courtyard it's actually a suprise. I'm not sure when i'll be in the area again but i'm sold on the residence inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r17816511-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>17816511</t>
+  </si>
+  <si>
+    <t>07/12/2008</t>
+  </si>
+  <si>
+    <t>Good and not so good</t>
+  </si>
+  <si>
+    <t>We stayed at the Arlington Residence Inn for two nights in June in a one bedroom.The positives:The bed was very comfortable.The parking was great.The area is very convenient.The workout room was clean and machines all worked well.The negatives:Odd odor.The A/C was loud in the bedroom.The TV in the bedroom had very poor reception and no remote.The breakfast was not as described on the website.   Our first morning, there was no hot breakfast, which we really needed, so we ended up going to IHOP.  I have stayed in many Residence Inns and have never encountered that.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r13787372-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>13787372</t>
+  </si>
+  <si>
+    <t>02/23/2008</t>
+  </si>
+  <si>
+    <t>Great  studio</t>
+  </si>
+  <si>
+    <t>Beautiful studio room, comfortable bed. When You arrived a welcome package is in the  kitchen with coffeee, popcorn, etc. you get the newspaper every morning. clean, quiet.Perfect for the whole family..I was there in a 3 day bus trip, next time I have to go to Forth worth Texas..I'll stay there also.</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r7988139-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>7988139</t>
+  </si>
+  <si>
+    <t>06/24/2007</t>
+  </si>
+  <si>
+    <t>Perfect Weekend</t>
+  </si>
+  <si>
+    <t>This hotel was worth every penny to me. The staff was very good at their jobs and was prompt for catering to all of the needs for my stay. You get a free buffet breakfast every morning and I think that this is a good idea for a visiting spot. Room, bathroom, kitchen and sheets were very clean. Bed was comfortable too...Over all, I would stay here from now on with no hesitation</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r7958655-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>7958655</t>
+  </si>
+  <si>
+    <t>06/20/2007</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for two days.  This property is ok.  I think the Springhills suites up the road is almost as nice.  When we first arrived at our room we noticed an odor in the room.  The bathroom had a funny odor to it.  The only thing I could figure out is maybe someone had brought their dog and left it in the bathroom or something.  They do allow pets in their rooms. If anyone is allergic to the pets, this information might help.  The odor never left for the two days we were there.      They had a good breakfast every morning.  Every night they had a light meal they serve to everyone.  The first night we had lasagna, salad, and French bread, the next night we had salad and potato skins.  With the meal you get all you can drink sodas, beer, and wine.  This was nice because we didn't have to dine out.    They do have a trolley that goes to sixflags, hurrican harbor, and the ballpark, which is nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for two days.  This property is ok.  I think the Springhills suites up the road is almost as nice.  When we first arrived at our room we noticed an odor in the room.  The bathroom had a funny odor to it.  The only thing I could figure out is maybe someone had brought their dog and left it in the bathroom or something.  They do allow pets in their rooms. If anyone is allergic to the pets, this information might help.  The odor never left for the two days we were there.      They had a good breakfast every morning.  Every night they had a light meal they serve to everyone.  The first night we had lasagna, salad, and French bread, the next night we had salad and potato skins.  With the meal you get all you can drink sodas, beer, and wine.  This was nice because we didn't have to dine out.    They do have a trolley that goes to sixflags, hurrican harbor, and the ballpark, which is nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r7291190-Residence_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>7291190</t>
+  </si>
+  <si>
+    <t>04/06/2007</t>
+  </si>
+  <si>
+    <t>nice and spacious</t>
+  </si>
+  <si>
+    <t>Apr 4-8, 2007.This property is pretty nice.  Not like 5 star nice, but it is clean, spacious and the staff is friendly.  We booked a 2bdrm suite and it had lots and lots of room!  Each room had it's own bathroom.  Kitchen was fully equipped.  It is my understanding these rooms were renovated in 2006......it looks like they were.....atleast ours did.  We came to see the RedSox play the rangers and very convenient to the Ball Park.Hop, skip and a jump from restraunts, grocery store, shops and the DFW airport.Recommend this hotel for families.Laundry room does not have a change machine....that was our only negative.  (no big deal)</t>
+  </si>
+  <si>
+    <t>April 2007</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3191,7238 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="X16" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>199</v>
+      </c>
+      <c r="X21" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" t="s">
+        <v>219</v>
+      </c>
+      <c r="L23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>221</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>222</v>
+      </c>
+      <c r="X23" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>227</v>
+      </c>
+      <c r="L24" t="s">
+        <v>228</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>221</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X24" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>244</v>
+      </c>
+      <c r="X26" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>252</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>253</v>
+      </c>
+      <c r="X27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>252</v>
+      </c>
+      <c r="O28" t="s">
+        <v>94</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>253</v>
+      </c>
+      <c r="X28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>268</v>
+      </c>
+      <c r="X29" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>277</v>
+      </c>
+      <c r="X30" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s">
+        <v>282</v>
+      </c>
+      <c r="L31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>284</v>
+      </c>
+      <c r="O31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>277</v>
+      </c>
+      <c r="X31" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" t="s">
+        <v>289</v>
+      </c>
+      <c r="L32" t="s">
+        <v>290</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>291</v>
+      </c>
+      <c r="O32" t="s">
+        <v>292</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>293</v>
+      </c>
+      <c r="X32" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" t="s">
+        <v>299</v>
+      </c>
+      <c r="L33" t="s">
+        <v>300</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>301</v>
+      </c>
+      <c r="X33" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>305</v>
+      </c>
+      <c r="J34" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" t="s">
+        <v>308</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>309</v>
+      </c>
+      <c r="O34" t="s">
+        <v>292</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>310</v>
+      </c>
+      <c r="X34" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>314</v>
+      </c>
+      <c r="J35" t="s">
+        <v>315</v>
+      </c>
+      <c r="K35" t="s">
+        <v>316</v>
+      </c>
+      <c r="L35" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>318</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>319</v>
+      </c>
+      <c r="X35" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K36" t="s">
+        <v>325</v>
+      </c>
+      <c r="L36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>319</v>
+      </c>
+      <c r="X36" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>328</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>329</v>
+      </c>
+      <c r="J37" t="s">
+        <v>330</v>
+      </c>
+      <c r="K37" t="s">
+        <v>331</v>
+      </c>
+      <c r="L37" t="s">
+        <v>332</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>333</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>319</v>
+      </c>
+      <c r="X37" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>335</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>336</v>
+      </c>
+      <c r="J38" t="s">
+        <v>337</v>
+      </c>
+      <c r="K38" t="s">
+        <v>338</v>
+      </c>
+      <c r="L38" t="s">
+        <v>339</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>340</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>341</v>
+      </c>
+      <c r="X38" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>344</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>345</v>
+      </c>
+      <c r="J39" t="s">
+        <v>346</v>
+      </c>
+      <c r="K39" t="s">
+        <v>347</v>
+      </c>
+      <c r="L39" t="s">
+        <v>348</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>349</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>350</v>
+      </c>
+      <c r="X39" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>353</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>354</v>
+      </c>
+      <c r="J40" t="s">
+        <v>355</v>
+      </c>
+      <c r="K40" t="s">
+        <v>356</v>
+      </c>
+      <c r="L40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>349</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>358</v>
+      </c>
+      <c r="X40" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>361</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>362</v>
+      </c>
+      <c r="J41" t="s">
+        <v>363</v>
+      </c>
+      <c r="K41" t="s">
+        <v>364</v>
+      </c>
+      <c r="L41" t="s">
+        <v>365</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>366</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>367</v>
+      </c>
+      <c r="X41" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>370</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>371</v>
+      </c>
+      <c r="J42" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" t="s">
+        <v>373</v>
+      </c>
+      <c r="L42" t="s">
+        <v>374</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>309</v>
+      </c>
+      <c r="O42" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>375</v>
+      </c>
+      <c r="X42" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>379</v>
+      </c>
+      <c r="J43" t="s">
+        <v>380</v>
+      </c>
+      <c r="K43" t="s">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s">
+        <v>382</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>383</v>
+      </c>
+      <c r="O43" t="s">
+        <v>384</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>375</v>
+      </c>
+      <c r="X43" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>386</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>387</v>
+      </c>
+      <c r="J44" t="s">
+        <v>388</v>
+      </c>
+      <c r="K44" t="s">
+        <v>389</v>
+      </c>
+      <c r="L44" t="s">
+        <v>390</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>391</v>
+      </c>
+      <c r="O44" t="s">
+        <v>94</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>392</v>
+      </c>
+      <c r="X44" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>395</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>396</v>
+      </c>
+      <c r="J45" t="s">
+        <v>397</v>
+      </c>
+      <c r="K45" t="s">
+        <v>398</v>
+      </c>
+      <c r="L45" t="s">
+        <v>399</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>400</v>
+      </c>
+      <c r="O45" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>401</v>
+      </c>
+      <c r="X45" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>404</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>405</v>
+      </c>
+      <c r="J46" t="s">
+        <v>406</v>
+      </c>
+      <c r="K46" t="s">
+        <v>407</v>
+      </c>
+      <c r="L46" t="s">
+        <v>408</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>409</v>
+      </c>
+      <c r="O46" t="s">
+        <v>94</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>410</v>
+      </c>
+      <c r="X46" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>413</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>414</v>
+      </c>
+      <c r="J47" t="s">
+        <v>415</v>
+      </c>
+      <c r="K47" t="s">
+        <v>416</v>
+      </c>
+      <c r="L47" t="s">
+        <v>417</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>418</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>419</v>
+      </c>
+      <c r="X47" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>422</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>423</v>
+      </c>
+      <c r="J48" t="s">
+        <v>424</v>
+      </c>
+      <c r="K48" t="s">
+        <v>425</v>
+      </c>
+      <c r="L48" t="s">
+        <v>426</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>427</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>428</v>
+      </c>
+      <c r="X48" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>431</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>432</v>
+      </c>
+      <c r="J49" t="s">
+        <v>433</v>
+      </c>
+      <c r="K49" t="s">
+        <v>434</v>
+      </c>
+      <c r="L49" t="s">
+        <v>435</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>418</v>
+      </c>
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>436</v>
+      </c>
+      <c r="X49" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>439</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>440</v>
+      </c>
+      <c r="J50" t="s">
+        <v>441</v>
+      </c>
+      <c r="K50" t="s">
+        <v>442</v>
+      </c>
+      <c r="L50" t="s">
+        <v>443</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>427</v>
+      </c>
+      <c r="O50" t="s">
+        <v>94</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>444</v>
+      </c>
+      <c r="X50" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>447</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>448</v>
+      </c>
+      <c r="J51" t="s">
+        <v>449</v>
+      </c>
+      <c r="K51" t="s">
+        <v>450</v>
+      </c>
+      <c r="L51" t="s">
+        <v>451</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>452</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>453</v>
+      </c>
+      <c r="X51" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>456</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>457</v>
+      </c>
+      <c r="J52" t="s">
+        <v>458</v>
+      </c>
+      <c r="K52" t="s">
+        <v>459</v>
+      </c>
+      <c r="L52" t="s">
+        <v>460</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>452</v>
+      </c>
+      <c r="O52" t="s">
+        <v>94</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>461</v>
+      </c>
+      <c r="X52" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>464</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>465</v>
+      </c>
+      <c r="J53" t="s">
+        <v>466</v>
+      </c>
+      <c r="K53" t="s">
+        <v>467</v>
+      </c>
+      <c r="L53" t="s">
+        <v>468</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>469</v>
+      </c>
+      <c r="O53" t="s">
+        <v>94</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>470</v>
+      </c>
+      <c r="X53" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>473</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>474</v>
+      </c>
+      <c r="J54" t="s">
+        <v>475</v>
+      </c>
+      <c r="K54" t="s">
+        <v>476</v>
+      </c>
+      <c r="L54" t="s">
+        <v>477</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>469</v>
+      </c>
+      <c r="O54" t="s">
+        <v>94</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>478</v>
+      </c>
+      <c r="X54" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>481</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>482</v>
+      </c>
+      <c r="J55" t="s">
+        <v>483</v>
+      </c>
+      <c r="K55" t="s">
+        <v>484</v>
+      </c>
+      <c r="L55" t="s">
+        <v>485</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>469</v>
+      </c>
+      <c r="O55" t="s">
+        <v>94</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>486</v>
+      </c>
+      <c r="X55" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>489</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>490</v>
+      </c>
+      <c r="J56" t="s">
+        <v>491</v>
+      </c>
+      <c r="K56" t="s">
+        <v>492</v>
+      </c>
+      <c r="L56" t="s">
+        <v>493</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>494</v>
+      </c>
+      <c r="X56" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>497</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>498</v>
+      </c>
+      <c r="J57" t="s">
+        <v>499</v>
+      </c>
+      <c r="K57" t="s">
+        <v>500</v>
+      </c>
+      <c r="L57" t="s">
+        <v>501</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>502</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>503</v>
+      </c>
+      <c r="X57" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>506</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>507</v>
+      </c>
+      <c r="J58" t="s">
+        <v>508</v>
+      </c>
+      <c r="K58" t="s">
+        <v>509</v>
+      </c>
+      <c r="L58" t="s">
+        <v>510</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>502</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>511</v>
+      </c>
+      <c r="X58" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>514</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>515</v>
+      </c>
+      <c r="J59" t="s">
+        <v>516</v>
+      </c>
+      <c r="K59" t="s">
+        <v>517</v>
+      </c>
+      <c r="L59" t="s">
+        <v>518</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>519</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>520</v>
+      </c>
+      <c r="X59" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>523</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>524</v>
+      </c>
+      <c r="J60" t="s">
+        <v>525</v>
+      </c>
+      <c r="K60" t="s">
+        <v>526</v>
+      </c>
+      <c r="L60" t="s">
+        <v>527</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>519</v>
+      </c>
+      <c r="O60" t="s">
+        <v>94</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>520</v>
+      </c>
+      <c r="X60" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>529</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>530</v>
+      </c>
+      <c r="J61" t="s">
+        <v>531</v>
+      </c>
+      <c r="K61" t="s">
+        <v>532</v>
+      </c>
+      <c r="L61" t="s">
+        <v>533</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>534</v>
+      </c>
+      <c r="O61" t="s">
+        <v>94</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>520</v>
+      </c>
+      <c r="X61" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>536</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>537</v>
+      </c>
+      <c r="J62" t="s">
+        <v>538</v>
+      </c>
+      <c r="K62" t="s">
+        <v>539</v>
+      </c>
+      <c r="L62" t="s">
+        <v>540</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>541</v>
+      </c>
+      <c r="O62" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>542</v>
+      </c>
+      <c r="X62" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>545</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>546</v>
+      </c>
+      <c r="J63" t="s">
+        <v>547</v>
+      </c>
+      <c r="K63" t="s">
+        <v>548</v>
+      </c>
+      <c r="L63" t="s">
+        <v>549</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>541</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>542</v>
+      </c>
+      <c r="X63" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>551</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>552</v>
+      </c>
+      <c r="J64" t="s">
+        <v>553</v>
+      </c>
+      <c r="K64" t="s">
+        <v>554</v>
+      </c>
+      <c r="L64" t="s">
+        <v>555</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>541</v>
+      </c>
+      <c r="O64" t="s">
+        <v>70</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>520</v>
+      </c>
+      <c r="X64" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>557</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>558</v>
+      </c>
+      <c r="J65" t="s">
+        <v>559</v>
+      </c>
+      <c r="K65" t="s">
+        <v>560</v>
+      </c>
+      <c r="L65" t="s">
+        <v>561</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>562</v>
+      </c>
+      <c r="O65" t="s">
+        <v>94</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>563</v>
+      </c>
+      <c r="X65" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>566</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>567</v>
+      </c>
+      <c r="J66" t="s">
+        <v>568</v>
+      </c>
+      <c r="K66" t="s">
+        <v>569</v>
+      </c>
+      <c r="L66" t="s">
+        <v>570</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>562</v>
+      </c>
+      <c r="O66" t="s">
+        <v>384</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>571</v>
+      </c>
+      <c r="X66" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>574</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>575</v>
+      </c>
+      <c r="J67" t="s">
+        <v>576</v>
+      </c>
+      <c r="K67" t="s">
+        <v>577</v>
+      </c>
+      <c r="L67" t="s">
+        <v>578</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>579</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>571</v>
+      </c>
+      <c r="X67" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>581</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>582</v>
+      </c>
+      <c r="J68" t="s">
+        <v>583</v>
+      </c>
+      <c r="K68" t="s">
+        <v>584</v>
+      </c>
+      <c r="L68" t="s">
+        <v>585</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>579</v>
+      </c>
+      <c r="O68" t="s">
+        <v>94</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>586</v>
+      </c>
+      <c r="X68" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>589</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>590</v>
+      </c>
+      <c r="J69" t="s">
+        <v>591</v>
+      </c>
+      <c r="K69" t="s">
+        <v>592</v>
+      </c>
+      <c r="L69" t="s">
+        <v>593</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>594</v>
+      </c>
+      <c r="O69" t="s">
+        <v>94</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>586</v>
+      </c>
+      <c r="X69" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>596</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>597</v>
+      </c>
+      <c r="J70" t="s">
+        <v>591</v>
+      </c>
+      <c r="K70" t="s">
+        <v>598</v>
+      </c>
+      <c r="L70" t="s">
+        <v>599</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>594</v>
+      </c>
+      <c r="O70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>586</v>
+      </c>
+      <c r="X70" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>601</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>602</v>
+      </c>
+      <c r="J71" t="s">
+        <v>603</v>
+      </c>
+      <c r="K71" t="s">
+        <v>604</v>
+      </c>
+      <c r="L71" t="s">
+        <v>605</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>606</v>
+      </c>
+      <c r="X71" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>609</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>610</v>
+      </c>
+      <c r="J72" t="s">
+        <v>611</v>
+      </c>
+      <c r="K72" t="s">
+        <v>612</v>
+      </c>
+      <c r="L72" t="s">
+        <v>613</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>614</v>
+      </c>
+      <c r="O72" t="s">
+        <v>70</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>615</v>
+      </c>
+      <c r="X72" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>618</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>619</v>
+      </c>
+      <c r="J73" t="s">
+        <v>620</v>
+      </c>
+      <c r="K73" t="s">
+        <v>621</v>
+      </c>
+      <c r="L73" t="s">
+        <v>622</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>623</v>
+      </c>
+      <c r="O73" t="s">
+        <v>94</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>624</v>
+      </c>
+      <c r="X73" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>627</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>628</v>
+      </c>
+      <c r="J74" t="s">
+        <v>629</v>
+      </c>
+      <c r="K74" t="s">
+        <v>630</v>
+      </c>
+      <c r="L74" t="s">
+        <v>631</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>614</v>
+      </c>
+      <c r="O74" t="s">
+        <v>94</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>632</v>
+      </c>
+      <c r="X74" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>635</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>636</v>
+      </c>
+      <c r="J75" t="s">
+        <v>637</v>
+      </c>
+      <c r="K75" t="s">
+        <v>638</v>
+      </c>
+      <c r="L75" t="s">
+        <v>639</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>640</v>
+      </c>
+      <c r="X75" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>643</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>644</v>
+      </c>
+      <c r="J76" t="s">
+        <v>637</v>
+      </c>
+      <c r="K76" t="s">
+        <v>645</v>
+      </c>
+      <c r="L76" t="s">
+        <v>646</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>614</v>
+      </c>
+      <c r="O76" t="s">
+        <v>292</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>640</v>
+      </c>
+      <c r="X76" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>648</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>649</v>
+      </c>
+      <c r="J77" t="s">
+        <v>650</v>
+      </c>
+      <c r="K77" t="s">
+        <v>651</v>
+      </c>
+      <c r="L77" t="s">
+        <v>652</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>614</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>653</v>
+      </c>
+      <c r="X77" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>656</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>657</v>
+      </c>
+      <c r="J78" t="s">
+        <v>658</v>
+      </c>
+      <c r="K78" t="s">
+        <v>659</v>
+      </c>
+      <c r="L78" t="s">
+        <v>660</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>661</v>
+      </c>
+      <c r="O78" t="s">
+        <v>70</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>662</v>
+      </c>
+      <c r="X78" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>665</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>666</v>
+      </c>
+      <c r="J79" t="s">
+        <v>667</v>
+      </c>
+      <c r="K79" t="s">
+        <v>668</v>
+      </c>
+      <c r="L79" t="s">
+        <v>669</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>661</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>670</v>
+      </c>
+      <c r="X79" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>673</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>674</v>
+      </c>
+      <c r="J80" t="s">
+        <v>675</v>
+      </c>
+      <c r="K80" t="s">
+        <v>676</v>
+      </c>
+      <c r="L80" t="s">
+        <v>677</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>678</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>679</v>
+      </c>
+      <c r="X80" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>682</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>683</v>
+      </c>
+      <c r="J81" t="s">
+        <v>684</v>
+      </c>
+      <c r="K81" t="s">
+        <v>685</v>
+      </c>
+      <c r="L81" t="s">
+        <v>686</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>678</v>
+      </c>
+      <c r="O81" t="s">
+        <v>94</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>679</v>
+      </c>
+      <c r="X81" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>688</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>689</v>
+      </c>
+      <c r="J82" t="s">
+        <v>690</v>
+      </c>
+      <c r="K82" t="s">
+        <v>691</v>
+      </c>
+      <c r="L82" t="s">
+        <v>692</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>693</v>
+      </c>
+      <c r="O82" t="s">
+        <v>384</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>694</v>
+      </c>
+      <c r="X82" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>697</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>698</v>
+      </c>
+      <c r="J83" t="s">
+        <v>699</v>
+      </c>
+      <c r="K83" t="s">
+        <v>700</v>
+      </c>
+      <c r="L83" t="s">
+        <v>701</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>678</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>702</v>
+      </c>
+      <c r="X83" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>705</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>706</v>
+      </c>
+      <c r="J84" t="s">
+        <v>707</v>
+      </c>
+      <c r="K84" t="s">
+        <v>708</v>
+      </c>
+      <c r="L84" t="s">
+        <v>709</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>693</v>
+      </c>
+      <c r="O84" t="s">
+        <v>94</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>710</v>
+      </c>
+      <c r="X84" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>713</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>714</v>
+      </c>
+      <c r="J85" t="s">
+        <v>715</v>
+      </c>
+      <c r="K85" t="s">
+        <v>716</v>
+      </c>
+      <c r="L85" t="s">
+        <v>717</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>693</v>
+      </c>
+      <c r="O85" t="s">
+        <v>70</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>710</v>
+      </c>
+      <c r="X85" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>719</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>720</v>
+      </c>
+      <c r="J86" t="s">
+        <v>721</v>
+      </c>
+      <c r="K86" t="s">
+        <v>722</v>
+      </c>
+      <c r="L86" t="s">
+        <v>723</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>693</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>724</v>
+      </c>
+      <c r="X86" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>727</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>728</v>
+      </c>
+      <c r="J87" t="s">
+        <v>729</v>
+      </c>
+      <c r="K87" t="s">
+        <v>730</v>
+      </c>
+      <c r="L87" t="s">
+        <v>731</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>693</v>
+      </c>
+      <c r="O87" t="s">
+        <v>94</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>732</v>
+      </c>
+      <c r="X87" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>735</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>736</v>
+      </c>
+      <c r="J88" t="s">
+        <v>737</v>
+      </c>
+      <c r="K88" t="s">
+        <v>738</v>
+      </c>
+      <c r="L88" t="s">
+        <v>739</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>740</v>
+      </c>
+      <c r="O88" t="s">
+        <v>94</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>741</v>
+      </c>
+      <c r="X88" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>744</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>745</v>
+      </c>
+      <c r="J89" t="s">
+        <v>746</v>
+      </c>
+      <c r="K89" t="s">
+        <v>747</v>
+      </c>
+      <c r="L89" t="s">
+        <v>748</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>749</v>
+      </c>
+      <c r="O89" t="s">
+        <v>94</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>750</v>
+      </c>
+      <c r="X89" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>753</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>754</v>
+      </c>
+      <c r="J90" t="s">
+        <v>755</v>
+      </c>
+      <c r="K90" t="s">
+        <v>756</v>
+      </c>
+      <c r="L90" t="s">
+        <v>757</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>749</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>758</v>
+      </c>
+      <c r="X90" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>761</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>762</v>
+      </c>
+      <c r="J91" t="s">
+        <v>763</v>
+      </c>
+      <c r="K91" t="s">
+        <v>764</v>
+      </c>
+      <c r="L91" t="s">
+        <v>765</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>766</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>767</v>
+      </c>
+      <c r="X91" t="s">
+        <v>768</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>770</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>771</v>
+      </c>
+      <c r="J92" t="s">
+        <v>772</v>
+      </c>
+      <c r="K92" t="s">
+        <v>773</v>
+      </c>
+      <c r="L92" t="s">
+        <v>774</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>775</v>
+      </c>
+      <c r="O92" t="s">
+        <v>94</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>776</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>777</v>
+      </c>
+      <c r="J93" t="s">
+        <v>778</v>
+      </c>
+      <c r="K93" t="s">
+        <v>779</v>
+      </c>
+      <c r="L93" t="s">
+        <v>780</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>781</v>
+      </c>
+      <c r="O93" t="s">
+        <v>94</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>783</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>784</v>
+      </c>
+      <c r="J94" t="s">
+        <v>785</v>
+      </c>
+      <c r="K94" t="s">
+        <v>786</v>
+      </c>
+      <c r="L94" t="s">
+        <v>787</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>788</v>
+      </c>
+      <c r="O94" t="s">
+        <v>94</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>790</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>791</v>
+      </c>
+      <c r="J95" t="s">
+        <v>792</v>
+      </c>
+      <c r="K95" t="s">
+        <v>793</v>
+      </c>
+      <c r="L95" t="s">
+        <v>794</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>795</v>
+      </c>
+      <c r="O95" t="s">
+        <v>94</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>797</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>798</v>
+      </c>
+      <c r="J96" t="s">
+        <v>799</v>
+      </c>
+      <c r="K96" t="s">
+        <v>800</v>
+      </c>
+      <c r="L96" t="s">
+        <v>801</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>802</v>
+      </c>
+      <c r="O96" t="s">
+        <v>70</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>803</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>804</v>
+      </c>
+      <c r="J97" t="s">
+        <v>805</v>
+      </c>
+      <c r="K97" t="s">
+        <v>806</v>
+      </c>
+      <c r="L97" t="s">
+        <v>807</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>808</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>810</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>811</v>
+      </c>
+      <c r="J98" t="s">
+        <v>812</v>
+      </c>
+      <c r="K98" t="s">
+        <v>813</v>
+      </c>
+      <c r="L98" t="s">
+        <v>814</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>815</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>816</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>817</v>
+      </c>
+      <c r="J99" t="s">
+        <v>818</v>
+      </c>
+      <c r="K99" t="s">
+        <v>819</v>
+      </c>
+      <c r="L99" t="s">
+        <v>820</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>821</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>822</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>823</v>
+      </c>
+      <c r="J100" t="s">
+        <v>824</v>
+      </c>
+      <c r="K100" t="s">
+        <v>825</v>
+      </c>
+      <c r="L100" t="s">
+        <v>826</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>827</v>
+      </c>
+      <c r="O100" t="s">
+        <v>70</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>829</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>830</v>
+      </c>
+      <c r="J101" t="s">
+        <v>831</v>
+      </c>
+      <c r="K101" t="s">
+        <v>832</v>
+      </c>
+      <c r="L101" t="s">
+        <v>833</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s">
+        <v>834</v>
+      </c>
+      <c r="O101" t="s">
+        <v>94</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>836</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>837</v>
+      </c>
+      <c r="J102" t="s">
+        <v>838</v>
+      </c>
+      <c r="K102" t="s">
+        <v>839</v>
+      </c>
+      <c r="L102" t="s">
+        <v>840</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>821</v>
+      </c>
+      <c r="O102" t="s">
+        <v>94</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>842</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>843</v>
+      </c>
+      <c r="J103" t="s">
+        <v>844</v>
+      </c>
+      <c r="K103" t="s">
+        <v>845</v>
+      </c>
+      <c r="L103" t="s">
+        <v>846</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>847</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>848</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>849</v>
+      </c>
+      <c r="J104" t="s">
+        <v>850</v>
+      </c>
+      <c r="K104" t="s">
+        <v>851</v>
+      </c>
+      <c r="L104" t="s">
+        <v>852</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>853</v>
+      </c>
+      <c r="O104" t="s">
+        <v>94</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>855</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>856</v>
+      </c>
+      <c r="J105" t="s">
+        <v>857</v>
+      </c>
+      <c r="K105" t="s">
+        <v>858</v>
+      </c>
+      <c r="L105" t="s">
+        <v>859</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>860</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>861</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>862</v>
+      </c>
+      <c r="J106" t="s">
+        <v>863</v>
+      </c>
+      <c r="K106" t="s">
+        <v>864</v>
+      </c>
+      <c r="L106" t="s">
+        <v>865</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>866</v>
+      </c>
+      <c r="O106" t="s">
+        <v>94</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>867</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>868</v>
+      </c>
+      <c r="J107" t="s">
+        <v>869</v>
+      </c>
+      <c r="K107" t="s">
+        <v>870</v>
+      </c>
+      <c r="L107" t="s">
+        <v>871</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>872</v>
+      </c>
+      <c r="O107" t="s">
+        <v>384</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>873</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>874</v>
+      </c>
+      <c r="J108" t="s">
+        <v>875</v>
+      </c>
+      <c r="K108" t="s">
+        <v>876</v>
+      </c>
+      <c r="L108" t="s">
+        <v>877</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>872</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>2</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>9468</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>879</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>880</v>
+      </c>
+      <c r="J109" t="s">
+        <v>881</v>
+      </c>
+      <c r="K109" t="s">
+        <v>882</v>
+      </c>
+      <c r="L109" t="s">
+        <v>883</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>884</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>883</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_648.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_648.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="991">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>sherril492</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This is a great place to stay with children when attending the local entertainment places like six flags.  They had a good breakfast, nice swimming pool, basketball court.  Will stay again.  Parking was small was only complaint.More</t>
   </si>
   <si>
+    <t>SalesRepTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r570897109-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Worn out overall.  The furniture is outdated and worn along with the TV.  I have a certain expectation when I book this brand hotel and this one is not up to par with the others I have stayed in.  The property backs up to a large apartment building.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r569765821-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>We spent two nights there. Check-in early no prob, free parking. Very friendly staff, clean and very spacious room. We had a suite with King size bed. Small kitchen, living area with comfi couch, toilet and shower, separate washbasin, separate bedroom with tv. Very nice room. Price average.Coffee and tee available all day. Breakfast complimentary with fresh fruits, waffle machine, bagels, greek yoghurt. Location not in the city but close to plazas and a short drive from the mall.We enjoyed our stay very much. More</t>
   </si>
   <si>
+    <t>Robert S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r522449200-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>Room was very spacious.  The rate was quite reasonable.The customer service outstanding.  Free Shuttle to and from Reagan Airport; plus to the metro station.  Walking to shops and restaurants in Crystal City.  Booked again.  Would recommend to all.More</t>
   </si>
   <si>
+    <t>Latepat2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r520340053-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t>This hotel was my home for a couple of days while we evacuated from the hurricane.I have great experience with this hotel because I had to change from a well known hotel that had no microwave.  This hotel gave me the sense of normalcy. It felt closer to being like home and it is so touching simply because we had to leave our home due to flooding.  Also,  the service was friendly, helpful, most of eager to be of service. Glad to be greeted with such hospitality.More</t>
   </si>
   <si>
+    <t>michymct</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r506496035-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -304,6 +322,9 @@
   </si>
   <si>
     <t>I am a Road Warrior spending 300 days a year in different cities and states across the US.  I rely on the Residence Inns to provide the same amenities and rooms from place to place.  I have also come to rely on the excellent staff to take care of all of my needs while I am a guest in their facilities.Arlington, Texas is a city filled with entertainment from a Baseball and Football Stadiums, a Six Flags facility, various Concert venues and Restaurants of all types of cultures.I came in February and am leaving today end of July.  During the past 6 months, I have encountered an excellent front desk staff, helpful housekeepers, and rooms that were reliable in providing me with the comforts of home.The evening food and drinks offerings where always done with a smile from the staff.If my travels bring me back to Dallas (Arlington area), I will be staying here time and time again.More</t>
+  </si>
+  <si>
+    <t>Rob S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r483434108-Residence_Inn_Arlington-Arlington_Texas.html</t>
@@ -337,6 +358,9 @@
 On site laundry facilities were pretty good, as they had 3 washers and 3 dryers which limits the amount of time you are stuck waiting on some inconsiderate person who forgot their clothes for a couple hours. The outside space was pretty nice. Myself and several coworkers were able to sit out by the pool and grill. Breakfast was okay, standard Residence Inn breakfast so if you have ever stayed in one then you know exactly what you are getting. The social hour was less than impressive. The food was very underwhelming, and while most Residence Inn's have a few varieties of beer in bottles, they only have bud light which is poured from a...I stayed here for 2 weeks in Feb, and 6 weeks between March and April of this year. The rooms are nice, bu the rest of the hotel is in need of a bit of an upgrade. The hallways look completely frumpy, and then you walk into a relatively recently remodeled room that gives a pretty good idea of where they spent their money. My biggest gripe about the rooms is that the one bedroom suites did not have a desk, which made doing any kind of work in the room very difficult. I had to move to a studio room (A decent bit smaller) in order to work comfortably, which is a major turn off considering I was living here for six weeks straight.On site laundry facilities were pretty good, as they had 3 washers and 3 dryers which limits the amount of time you are stuck waiting on some inconsiderate person who forgot their clothes for a couple hours. The outside space was pretty nice. Myself and several coworkers were able to sit out by the pool and grill. Breakfast was okay, standard Residence Inn breakfast so if you have ever stayed in one then you know exactly what you are getting. The social hour was less than impressive. The food was very underwhelming, and while most Residence Inn's have a few varieties of beer in bottles, they only have bud light which is poured from a keg in the back room and served to the guests out of a water pitcher (Really guys? Come on...)Overall if you are staying for a few days to go to the Cowboys, Rangers, Six Flags, or Hurricane Harbor, then this hotel is great for you. It did not suit my needs though as I was trapped in the smaller room. It is another victim of Marriott's homogenization of their properties.It also worth noting that their paperwork has said that social hour is Monday through Thursday for several months, and they haven't had it on Thursdays for quite some time which is pretty frustrating when you pass on dinner plans because you are expecting to eat at the hotel. Additionally, the sign on the fridge in the rooms says they have food trucks every other Wed. I'm not sure I saw a single one across a total of 8 weeks, which was a real bummer.More</t>
   </si>
   <si>
+    <t>branbree</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r482341295-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -364,6 +388,9 @@
     <t>Our a/c was making this horrible noise every 7 minutes. We noticed that it was getting warmer in the room. They sent a guy up twice with a language barrier. Then they sent fans which made it even warmer. Ridiculous. Then I got my bill! What!?! I was told by the front desk that they'd give me points. Unacceptable. Now to get ahold of the manager.... You better hope there isn't an issue with your room!More</t>
   </si>
   <si>
+    <t>Elizabeth W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r481916477-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -388,6 +415,9 @@
     <t>Was here for business for 2 weeks.   Everyone who worked there was extremely nice.   The kitchen was fully stocked, no oven.  Carpet was brand new (saw where they were finishing replacing) and I could walk bare foot and my feet were still clean.  New upgrades to counters/lighting.  The cabinets themselves were worn,  but didn't bother me.   Water was hot and great water pressure.  Good pillows.   I really liked there are little shelves at the bathroom vanity.  On the upside,  very accessible coin laundry with 3 working washers.   BUT,  my room backed up to the washers and shared the water line with the washers and laundry/utility sink(which was a bonus in the laundry room not for my bedroom).  It was very loud in my bedroom if the sink or big washer got used. I do not think it would effect the dryer side, so only room 214 would have this issue.  I got used to it but if you have light sleepers it would definitely be an issue.  Breakfast is good,  always has fresh fruit and varies every day.   The manager reception is Mon, Tue, Wed. It was very good with way more variety than I was expecting.  A lot of people used the grills,  basketball court and fire pit.   Safe area,  can walk to restaurants. I walked to the post office easily, there is a trolly stop outside. LOTS of closet space,  a dresser and full length mirror.  On the...Was here for business for 2 weeks.   Everyone who worked there was extremely nice.   The kitchen was fully stocked, no oven.  Carpet was brand new (saw where they were finishing replacing) and I could walk bare foot and my feet were still clean.  New upgrades to counters/lighting.  The cabinets themselves were worn,  but didn't bother me.   Water was hot and great water pressure.  Good pillows.   I really liked there are little shelves at the bathroom vanity.  On the upside,  very accessible coin laundry with 3 working washers.   BUT,  my room backed up to the washers and shared the water line with the washers and laundry/utility sink(which was a bonus in the laundry room not for my bedroom).  It was very loud in my bedroom if the sink or big washer got used. I do not think it would effect the dryer side, so only room 214 would have this issue.  I got used to it but if you have light sleepers it would definitely be an issue.  Breakfast is good,  always has fresh fruit and varies every day.   The manager reception is Mon, Tue, Wed. It was very good with way more variety than I was expecting.  A lot of people used the grills,  basketball court and fire pit.   Safe area,  can walk to restaurants. I walked to the post office easily, there is a trolly stop outside. LOTS of closet space,  a dresser and full length mirror.  On the edges of the coffee table and part of the headboard they had used something to try and cover/fix the scratches in the wood. It was gummy/sticky. So besides thatand the water noise all was great. More</t>
   </si>
   <si>
+    <t>Michael P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r466242935-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -415,6 +445,9 @@
     <t>A lovely friendly hotel with large and very clean rooms.The food at breakfast is basic but OK. The hotel has a pool and barbeques for your own use, I was in room 320 which was extreemly nice and had more than enough roomMore</t>
   </si>
   <si>
+    <t>MBavaro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r465687663-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -439,6 +472,9 @@
     <t>Lobby clean and desk staff very nice. Some construction on main road prior to Turing onto Hotel's street. Upgraded to a 1 bedroom which was clean and looked like it had new carpet. Bathroom was really small and AC was very noisy.Good location.More</t>
   </si>
   <si>
+    <t>appetizergal73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r460515150-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -466,6 +502,9 @@
     <t>Even though this hotel is showing its age, it is clean and has a lot to offer. For families and those on business, it is far superior to a hotel room. The main reason is the full-size refrigerator and dishwasher, glassware, silverware, and stove.  It even has gas grills available to guests. Breakfast is the standard hotel offerings, except for tiny containers of french brie, and nutella packets. Perfect for picky eaters. I will stay here again on my next trip.More</t>
   </si>
   <si>
+    <t>Cynthia H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r451354737-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -493,6 +532,9 @@
     <t>I've "lived" here for almost eight months now.  In that time I've come to know the front desk and kitchen staff, housekeepers and maintenance men.  Without fail, they have been the nicest, kindest, warmest and best staff I've ever seen in a hotel - ANYWHERE.  It's so nice to hear "Good morning", "Have a good day", or "How was your day?"  They are overwhelmingly responsive to any request.                              This week was a particularly hard week for me, faced with the death of two friends.  I've had hugs and prayers and tonight I came home to a card from the staff.  The hotel is very clean and the amenities so convenient - but the staff is unsurpassed!!  Nowhere else will you receive this kind of care....yes I said CARE and not service because that's what they do best.More</t>
   </si>
   <si>
+    <t>Cynthia T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r444886755-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -514,6 +556,9 @@
     <t>Very nice hotel!  Great location if you are going to AT&amp;T Stadium.  We had a 2bedroom suite, which was a great choice for our family of 5.  Breakfast was wonderful-sausage, eggs, waffles, and continental items.  The staff was friendly and welcoming!!More</t>
   </si>
   <si>
+    <t>cdalmolin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r442279977-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -538,6 +583,9 @@
     <t>Stayed here after a high school playoff game.  Clean, friendly staff and free breakfast!!!  Had a suite we could share with family.  Complete kitchen.  Nice!  Too bad we didn't get stay longer.  Heard there was an indoor pool!More</t>
   </si>
   <si>
+    <t>WichitaIsHome</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r428546858-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -565,6 +613,9 @@
     <t>I stayed this past weekend. The room was very clean as was the rest of the property. Breakfast was fresh with plenty of hot and cold choices. Staff was courteous and pleasant. The outdoor sitting area was relaxing. The firepit is a nice touch. More</t>
   </si>
   <si>
+    <t>kferg99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r428401500-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -583,6 +634,9 @@
     <t>I was scheduled to come to Arlington on Oct 8th. Had two rooms.  On October 6th and 7th we in Daytona Beach, FL were hit by a major hurricane - the worst to ever hit our area in history. Potentially a cat 5 - luckily it hit us as a high 3. Without phones, power, cable, etc until Oct 12th and had two trees fall on my house.  Worked with Expedia to try to receive a refund as I was physically UNABLE to cancel this reservation. Hotel declined.  Tried to reach GM.  Did not even receive a return phone call.  It is a sad state of affairs when your GM can't even call someone back who experienced a personal loss and continues to deal with hurricane damage.  Cannot recommend.More</t>
   </si>
   <si>
+    <t>Mark R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r427318951-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -599,6 +653,9 @@
   </si>
   <si>
     <t>There are few choices for two room suites with kitchenette in the area.  This room was pretty spacious and well laid out.  TVs in the living area and both bedrooms.  Spacious bathrooms.  One in each bedroom.  It had a fireplace which was nice.  The beds were comfortable but not outstanding.  The free breakfast was pretty good in terms of choice and quality but no real "wow" items.  The table and chairs in the room were big and functional.The pool was nice and had its own towel caddy with pool towels which was nice and unexpected.  This hotel had plenty of room for breakfast seating which I find is a problem regularly at hotels offering free breakfast.  The location is close to a lot of desirable places and amenities.The main negative we had was a very noisy fridge.  The furniture in the living room area was fairly worn and not real comfortable.More</t>
+  </si>
+  <si>
+    <t>sujag1998</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r393342751-Residence_Inn_Arlington-Arlington_Texas.html</t>
@@ -630,6 +687,9 @@
 I complained the next day and the best management could offer was a less than 15% discount on the room.  I cannot understand paying nearly $1000 with all of the problems I experienced as my party contained my elderly mother as well.  I did...I booked a three-night stay at this Residence Inn for June 2016.  I’ve stayed there before and I enjoy the two-bedroom setup.  However, this particular time was not a pleasant stay.  Upon arrival to my room, #307, the temperature was 73 degrees.  This was not a problem due to the temperature being 90+ outside.  At approximately 6pm, I reduced the temperature to 70 to allow all the rooms to cool down; it was feeling fairly warm in the rooms.  About an hour late, the thermostat was at 77.  Obviously, it was going the wrong way.  I called maintenance and he came quickly.  All-in-all, it was 11pm and we were near 80 degrees.  By the time, the hotel decided to move us to another room.  The new room was definitely cooler, but one of the bedrooms was fairly warm.  A portable AC was brought in and attached to the window.  It was quite loud, bright and still pretty warm as the window that the exhaust had to go into was letting in warm air since there was still a gap in the window.  To add insult to misery, none of my keys worked on the last night.  I complained the next day and the best management could offer was a less than 15% discount on the room.  I cannot understand paying nearly $1000 with all of the problems I experienced as my party contained my elderly mother as well.  I did call other hotels in the area, but they were all booked.  The only plus is that I was able to use my Roku to watch movies.  All of the tvs have all of the necessary connections.  Before writing this review, I completed a survey and voiced my complaints.  I received a timely response with a resolution of 3k points.  I am not sure how 3k points adds up to an uncomfortable room in 90+ degree weather.  I can remember a time when Marriott offered excellent customer service.  Obviously those times are gone.  Next time I am in the area, I will definitely venture out and stay elsewhere.More</t>
   </si>
   <si>
+    <t>Donna F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r392577984-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -648,6 +708,9 @@
     <t>My husband was in town for a school for his work.  He was here for 26 days, I stayed with him at the beginning and end of his trip.  This is located very close to six flags, not on Six Flags road, but the next road over.  It is very convenient for Six Flags, Hurricane Water park, to the Baseball Stadium and to the AT&amp;T Arena, just off the interstate and we were able to travel to all locations we needed to without getting on toll roads.  The staff was very friendly.  The room was large enough with a small kitchenette which included a full size frig, a small dishwasher, a sink, a microwave and a two burner stove top.  There were dishes, cookware, utensils, the basics really.  We either ate out or just used the microwave.  There was a sleeper sofa, a coffee table, end table, a desk and office chair, the TV would turn either toward the sofa or pivot and turn to the bed.  The bathtub and toilet were separate from the lavatory area.  The closet was large and had about 10 hangars, there was a dresser with drawers and several drawers in the bathroom area.  The bed was very comfortable.  They had room darkening curtains.  On Monday, Tues and Wed. evenings the hotel usually offered a free treat, whether it was chips or waffles, grilled sausages or burgers, it was nice to be able to eat...My husband was in town for a school for his work.  He was here for 26 days, I stayed with him at the beginning and end of his trip.  This is located very close to six flags, not on Six Flags road, but the next road over.  It is very convenient for Six Flags, Hurricane Water park, to the Baseball Stadium and to the AT&amp;T Arena, just off the interstate and we were able to travel to all locations we needed to without getting on toll roads.  The staff was very friendly.  The room was large enough with a small kitchenette which included a full size frig, a small dishwasher, a sink, a microwave and a two burner stove top.  There were dishes, cookware, utensils, the basics really.  We either ate out or just used the microwave.  There was a sleeper sofa, a coffee table, end table, a desk and office chair, the TV would turn either toward the sofa or pivot and turn to the bed.  The bathtub and toilet were separate from the lavatory area.  The closet was large and had about 10 hangars, there was a dresser with drawers and several drawers in the bathroom area.  The bed was very comfortable.  They had room darkening curtains.  On Monday, Tues and Wed. evenings the hotel usually offered a free treat, whether it was chips or waffles, grilled sausages or burgers, it was nice to be able to eat in since there's not a lot of restaurants within the immediate area if you didn't want to fight the traffic.  One day we came back and found homemade cookies and a nice thank you note for being an extended stay customer.  Our room received attention from housekeeping every day.  On the weekend it was more crowded with families in town for Six Flags and ballgames, but during the week you mainly see professional's who are traveling for work and a few families mixed in the crowd.  Breakfast was very good every day, the same every day, but plenty of options to change your routine as often as you like.  The breakfast area was large and you usually didn't have a problem finding a place to sit while you ate.  There's usually coffee in the lobby every day, all day long.  There is a pool with poolside towels and lounge chairs.  There's a court available for basketball, and a few other sports, the hotel had equipment available, we were surprised at how much it got used.  the hotel and sport court is in the center courtyard and multiple buildings wrap around the courtyard, so it's private and all hotel facilities.  Parking can sometimes be more difficult, especially on the weekends.  Seems to be a safe area, however someone's tailgate was stolen during the night one night from a brand new truck, of course this could happen ANYWHERE.  There are multiple hotels in this immediate area.  There are trolley stops at most of them, one right in front of this hotel which will take you to Six Flags, so you don't have to worry about driving and parking if this is where you're going.  There's usually a taxi driving by, we saw them often.  It's $40 one way to go to the DFW airport  maybe $50 to DALLAS LOVE, no free airport shuttle service :(More</t>
   </si>
   <si>
+    <t>Felicia S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r388507313-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -672,6 +735,9 @@
     <t>It was pleasant and a great home for being away from home. The grounds were clean and its in the heart of everything. So much to do and easy access from hotel. There are lots of restaurants, parks and shopping. The grounds still look new. I would definitely use again. More</t>
   </si>
   <si>
+    <t>Netza G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r373437663-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -699,6 +765,9 @@
     <t>We stayed the weekend in Arlington to watch the Texas Rangers play the Toronto Blue Jays (the one where Bautista was punched) and had a great time staying at this hotel. There is a trolley that will depart the hotel 1.5 hrs and 45 minutes prior to the games starting and the rides are complimentary with your stay. The hotel had was a typical Residence Inn with fridge, burner, etc. The breakfast was good and hot, and there is a nice sized pool on the property. Additionally, there are a couple of restaurants within walking distance from the hotel. I would stay here again.More</t>
   </si>
   <si>
+    <t>Kim H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r373412470-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -714,6 +783,9 @@
     <t>This hotel is in a great location for many different venues. Close to the MLB stadium, Dallas Football stadium and six flags. There is a trolley system set up that will get you to your venue in plenty of time before the games start. There is a convenient spot to meet after the games so you can take it back to your hotel.The hotel itself is very clean. The staff are very friendly. The free breakfast is pretty good. All the amenities they offer makes for a stress free stay. They even have a Barbeque you can use to cook your dinner (if you are inclined to do that).The only negative is the outside noise. We had a quiet room but we could hear people slamming doors and talking loudly while walking down the hallway. Did not hear road noise so that was good.I would stay at this Marriot location again. More</t>
   </si>
   <si>
+    <t>Lou C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r368100721-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -741,6 +813,9 @@
     <t>Pleasant stay. Nice clean rooms very plain but nice.  I was a very busy hotel so that was nice.  I would have given the hotel 4 stars but got locked out of my room for 30 minutes.  Technology can be bought he good and bad the bad is when you waste time trying to get in your own room before your flight.  Joshua the staff person upon arriving was very nice and pleasant to Check in with.  More</t>
   </si>
   <si>
+    <t>lowieEngland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r362194457-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -765,6 +840,9 @@
     <t>I managed to visit this hotel for 5 nights recently during a visit to Wrestlemania 32 at the At&amp;T stadium.   Upon check in which was was late during the evening staff were very helpful and gave us advice on visiting areas around Dallas. Room was a 2 bedroom and great sized room with plenty of amenities to use, good quality beds and worth upgrading for a 2 bedroom for us.Breakfast good choice of varieties and options available. Throughout our staff on front reception and throughout the hotel were very good.Great place to stay.More</t>
   </si>
   <si>
+    <t>Barbie19600124</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r358733913-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -792,6 +870,9 @@
     <t>Nice hotel, clean.  Front desk staff friendly with speedy check-in process .  Marquette was wonderful to work with and very friendly and full of great information about places to eat and things to do in Arlington. Woman responsible to nightly mix snack add drinks was great too.  Very attentive and friendly.More</t>
   </si>
   <si>
+    <t>vagabond2004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r358298047-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -810,6 +891,9 @@
     <t>Had to attend business meeting and chosen on proximity, but also good for those who want to visit six flags since it's right across the highway and within 15 min to DFW.  Hallways were a bit stuffy with a smell hard to define- not really bad, but not really good.  BUT, the individual rooms were very clean, and odorless.  Staff were overall very friendly and made the visit even more pleasant- from front desk to those serving food to one who brought me a missing hairdryer with sincere apologies.  The facility had some issues where first night couldn't be spent in the building. They provided lodging in adjacent facility without charge.  Service- priceless. Would stay again.More</t>
   </si>
   <si>
+    <t>Jamie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r340059503-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -837,6 +921,9 @@
     <t>My children and I came down for a quick business trip with my husband. We usually stay at Marriott for these trips. And this one was fine. We had a queen room. It was large, and would have been great if we were having to stay longer. It just didn't seem like they took the time to make sure things were clean...when you find smashed food on the floor, and your coffee cups aren't the cleanest. However, I'm sure things would have been taken care of if we would have said something. Since it was just a night, oh well.Other than that, breakfast was great. We utilized the courtyard for the boys to run. And the basketball court seemed to be in great shape. It was in a great area (close to the amusement parks and sports). More</t>
   </si>
   <si>
+    <t>EDB8403</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r332166861-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -864,6 +951,9 @@
     <t>I checked in at the Residence Inn today (December 11th) at 6 PM and requested a crib for my one year old daughter. I was told that although there were cribs available on-site at the hotel, I would not be provided one because the employee at the front desk did not have a key to access the room where the cribs were stored.I intentionally checked in early to ensure I could secure a crib for my daughter, and I even offered to carry the crib to my room myself if she would simply just open the door for me. She was very rude in the exchange and made no effort whatsoever to rectify the situation. I will not be staying at a Residence Inn again and I will be sharing this negative experience with my professional and personal network.More</t>
   </si>
   <si>
+    <t>Craig D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r332109401-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -882,6 +972,9 @@
     <t>This hotel represents the brand well, clean rooms and decent service.The breakfast was pretty good, too. Comfortable bed, not a bad place to stay. Too bad there isn't a "good" choice, as they fall between average and very good.More</t>
   </si>
   <si>
+    <t>tmlleafer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r318428574-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1005,9 @@
     <t>Great hotel, great rates, and clean. Great location to see the Cowboys, Rangers or six flags. Stayed from October 9th to October 12th. Rooms come with a kitchen, stove and fridge. My only complaint about this property was on our final morning there was a maintenance guy in the laundry room banging away on a laundry machine at 6.30am until 7.30. Really???? Do you have to do this at 6.30 am. The banging was so loud. I went out and seen him and gave him a look like what the hell are you doing. He stopped about 5 minutes after. This lasted four an hour. Seriously this is the type of thing that makes bad reviews. I could have strangled the guy. To the management, please make sure that your staff isn't doing anything that will disrupt people's sleeping at inappropriate hours. Other than that this was a great property. More</t>
   </si>
   <si>
+    <t>got2bebiking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r306145754-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1032,9 @@
     <t>Overall good experience.  Friendly staff, clean and nice.   There is a basketball court there.  I commend the hotel to making guests adhere to the policy of no playing before 9AM.  One morning it was about 8:15 when some players began shooting.  Great location for the ballparks ( Rangers and Cowboys). Skip the free shuttle.  This is the last stop, but as such, the shuttle is FULL.  We waited 15 minutes for the next one.  Better to call UBER and get a ride.  Under $5 and worth itMore</t>
   </si>
   <si>
+    <t>Frankster316</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r304160919-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1062,9 @@
     <t>Great Location, Friendly staff, great hot breakfast, very relaxed atmosphere. 2-Bedroom suite was perfect for the weekend. Very quiet neighborhood, rooms were very clean. I recommend this Hotel to anyone going to the game.More</t>
   </si>
   <si>
+    <t>Maria H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r290036611-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -988,6 +1090,9 @@
   </si>
   <si>
     <t>Stayed here during our six flags trip.  Hotel is very nice and clean.  Customer service is wonderful as well as breakfast.  It wasClose to many restaurants and stores to go shopping. The pool was open and clean. Will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>Nnwight</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r288459211-Residence_Inn_Arlington-Arlington_Texas.html</t>
@@ -1033,6 +1138,9 @@
 My only recommendation would be to make sure someone answers the phone for housekeeping and/or keep them around for a few hours after check-in time.  At approximately 5pm, I needed extra towels.  I called Housekeeping a couple of times and the line just rang.  Finally I called the front desk and the staff informed me that Housekeeping was closed, that he could deliver the towels but could not do so until someone else was available to work the desk.  I had no idea how long that would take, so I went down myself and retrieved the towels.  I could understand if it was 9pm, but surely...I arrived earlier than check-in time and was graciously given a room since one was ready.  I reserved a two bedroom/two bathroom suite.  There was a queen-sized bed in each suite.  The room was clean, but I had to turn the ac down to 67 in order to keep both bedrooms cool at night.  As a few other reviews have mentioned, you can hear when someone is walking in the hall and the adjacent neighbors.  However, even though I am a light sleeper, I slept just fine.  The free breakfast was decent – bacon, eggs, toast, potatoes, waffles, cereal, milk, fruit and pastries.  There is also a Saltgrass just a few blocks away.  The free wi-fi was decent as well; just make sure not to click on the $4.95/day option when choosing the option.  My only recommendation would be to make sure someone answers the phone for housekeeping and/or keep them around for a few hours after check-in time.  At approximately 5pm, I needed extra towels.  I called Housekeeping a couple of times and the line just rang.  Finally I called the front desk and the staff informed me that Housekeeping was closed, that he could deliver the towels but could not do so until someone else was available to work the desk.  I had no idea how long that would take, so I went down myself and retrieved the towels.  I could understand if it was 9pm, but surely someone should be able to deliver at 5pm.  All-in-all, it was an enjoyable stay.  I would stay again.More</t>
   </si>
   <si>
+    <t>wteaver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r270836471-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1060,6 +1168,9 @@
     <t>I can't say enough good things about this property. I have to admit I had some concerns after reading earlier reviews, but our stay was perfect in every way. The staff was friendly and accommodating, the room was clean and adequately appointed and the location was great. My children loved the pool. Don't expect a luxury hotel and you won't be disappointed. We would definitely stay here again!More</t>
   </si>
   <si>
+    <t>angelagloria</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r262108856-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1087,6 +1198,9 @@
     <t>This hotel was close to amusement parks and the stadium but because I didn't know the city I chose this hotel which was not close to the area I wanted. The staff at the front desk was friendly &amp; helpful.     We booked a one bedroom unit which included a small living area, a couch, chair, and well appointed kitchenette.  The bed was a little hard but ok, there was a large full length mirror in the bedroom and a flat screen tv in the bedroom and one in the living area.  The cleaning service was good, fast, efficient. The furniture was worn and could have been updated.     Breakfast was served in a large room close to the office and included regular breakfast items, not much fruit, but a variety of items.  A light dinner (like tacos) was served on some week nights.More</t>
   </si>
   <si>
+    <t>TOak8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r259381374-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1111,6 +1225,9 @@
     <t>I was a bit concerned after reading some posts. But we have stayed here before and love the location. My son and I decided at last minute to catch a college baseball game in the area and tour ATT stadium and Globe Life park. This hotel is minutes away from these sites and Six Flags. Staff at desk were sharp and helpful. The room we received was at the back of the property. I requested a high floor and received it along with an early check in. I have come to expect this as a rewards member but with a full parking lot it was still appreciated. The third floor where we stayed has some renovations going. There were a few noises when we first arrived but again this was during work hours. The room was clean and appeared recently updated. Our AC unit ran a bit loud but that was only knock on room. We used work out room and shot some hoops on sport court. All good. Staff always seemed to be stocking something, taking calls or picking something up. I manage a team and it was clear this group has bought into customer service and is delivering it at a high level. I will stay here again any time my family comes to enjoy Arlington attractions. As someone who travels,in my opinion this hotel is a good place to stay. More</t>
   </si>
   <si>
+    <t>Sabrina D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r244628346-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1138,6 +1255,9 @@
     <t>We stayed here for 4 days for the Thanksgiving Holiday. We were in town for a Cowboy game. Location was convenient to stadium. Hotel was clean. Front desk was efficient. I had concerns based on other reviews, but our stay was fine. Don't set your expectations higher than a standard Residence Inn &amp; and you won't be disappointed. We had issues at breakfast, as they did not have sufficient food on the bar 2 days. The kitchen staff told people the truck didn't come in. A truck not coming in should not be an excuse given to guest. Otherwise, our stay was acceptable. It's not as bad as some of the reviews make it seem.More</t>
   </si>
   <si>
+    <t>wrs437</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r235518939-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1162,6 +1282,9 @@
     <t>I recently stayed there for a week on a business trip, and one of my co-workers has been there for months. Virtually everything about this place is just a little below expectations for a Residence Inn. Many, many mechanical and equipment problems, not enough table for breakfast, running out of food early at the evening socials, room keys not working (3 trips to the desk), tacky varnish on the table, no desk in the rooms, TV not working multiple days, computers don't work, the fire pit runs out of gas, and the list goes on. On the positive side- the breakfast food is the same as all of them, but it was better tasting here, and the washer-drier (while more expensive than 90% of the other hotels) do actually work well. Summary - There are other Residence Inns in the area; I recommend you use one of those until the management here gets their act together.More</t>
   </si>
   <si>
+    <t>Jennifer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r229093255-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1186,6 +1309,9 @@
     <t>Amenities and comfortable, relaxing rooms, lots of things to do and see nearby with a  trolley that gets you to the ballgames!  Cindy the manager, DJ the maintenance man, and the entire hotel staff were not only trustworthy and but I felt very safe and secure here!  Relocation is hard when you are by yourself, and all of the guests here were just as friendly as the staff!  It is family friendly place that includes breakfast and dinner as well as a laundry, workout room, pool, tennis court and basketball court.  The prices are very reasonable and if I need to stay again, this is the hotel I will be looking for all over the map!More</t>
   </si>
   <si>
+    <t>Africa G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r220855328-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1339,9 @@
     <t>I had an awful experience with Residence Inn a few years ago and vowed never to stay in one again. In fact, when it was one of only options in area we wanted to be in we went by the night before to check out the rooms and they were updated, tastefully decorated and clean. The queen bed in studio wasn't the most comfortable but sufficient for a stay of a couple nights. The breakfast was typical sausage, bagged and boiled eggs, pancakes,pastries, fruit and yogurt. It was pretty good for what it was. No one is expecting Eggs Benedict when staying here anyway so I was fine with everything. We did not use any of the other facilities so I won't comment on those. The staff that helped us, Makisha, I think was really nice and a welcoming face after a very long day. I would stay here again. Does this stay instill trust in this particular brand of Marriott properties...not quite but it was a good start. More</t>
   </si>
   <si>
+    <t>Dustin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r214196037-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1240,6 +1369,9 @@
     <t>Maybe they only post the  good reviews. It is the second night of a 23 day stay here. I have listened to a dog bark for well over 4 hours now in the room across the hall. I asked the front desk 3 times if they could please look into it. I might as well of been talking to myself. I also asked why the internet was so slow and was given the number to the internet provider. They do offer Breakfast and a evening social time that on this night served fried chicken and mashed potatoes. To get a break from the dog barking I decided to try some of the chicken. To my surprise , and this is funny - i see several people with huge plates of chicken. It looked good but I wasn't fast enough. There was only one poor lady cooking and a couple people eating. I left and came back down to ask about the dog again and I overhear the staff telling there family or friends what they were serving the following night, and they would bring them home the left overs. Apparently these people arent staying here they just show up for the food and pool.So I wonder if the owners know there staffs family and friends are eating all the food before the guests? Ah they probably don't care. I will never stay here again and will most definitely tell them...Maybe they only post the  good reviews. It is the second night of a 23 day stay here. I have listened to a dog bark for well over 4 hours now in the room across the hall. I asked the front desk 3 times if they could please look into it. I might as well of been talking to myself. I also asked why the internet was so slow and was given the number to the internet provider. They do offer Breakfast and a evening social time that on this night served fried chicken and mashed potatoes. To get a break from the dog barking I decided to try some of the chicken. To my surprise , and this is funny - i see several people with huge plates of chicken. It looked good but I wasn't fast enough. There was only one poor lady cooking and a couple people eating. I left and came back down to ask about the dog again and I overhear the staff telling there family or friends what they were serving the following night, and they would bring them home the left overs. Apparently these people arent staying here they just show up for the food and pool.So I wonder if the owners know there staffs family and friends are eating all the food before the guests? Ah they probably don't care. I will never stay here again and will most definitely tell them back home not to include this Hotel on the list of available places to stay while we attend training In Arlington. I should of listened to a couple of the guys in my unit when they said not to stay here. Even the barracks would be better than this place.More</t>
   </si>
   <si>
+    <t>Andrew V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r206841691-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1267,6 +1399,9 @@
     <t>This hotel was convienently located, it was very quick acess to the main highways.  The room itself could have used some updating/cleaning.  The bed was also uncomfortable and needs to be replaced with a new mattress.  The free breakfast was nice.More</t>
   </si>
   <si>
+    <t>mizzou96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r199637970-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1294,6 +1429,9 @@
     <t>We went to Arlington for Spring Break with our 3rd and 5th graders.  We are partial to Marriott properties and chose the Residence Inn Arlington.We had a great stay, our room was clean and comfortable.  We love the complimentary breakfast - making the morning before our big Six Flags day very easy.  The breakfast choices were plenty and tasty! :)Our kids enjoyed the heated pool and loved the sport court.  My only constructive criticisms would be:  larger towels for the pool and buy a few new balls for the sport court.  Kids didn't mind, they had fun anyway!Glad we choose to stay there - and will stay there again next time we want to go to Six Flags!More</t>
   </si>
   <si>
+    <t>Brendan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r199028399-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1321,6 +1459,9 @@
     <t>Stayed Feb 7-9 2014  Staff, accomodations were all excellent. Highly reccomendThe rooms, pool, location were all perfect. Breakfast in the morning had good variety, was hot and fresh. Would definately stay there againMore</t>
   </si>
   <si>
+    <t>Allen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r197866029-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1345,6 +1486,9 @@
     <t>We stayed here for a couple of nights last weekend.  Very clean hotel and a very attentive staff.  The rooms were nice and the location for us was perfect. The breakfast was great but got very crowded which gave us no place to sit.  When we sat in the lobby the lady at the front desk had someone come and open the banquet room to make more seating.  The one issue we did have was the noise level in the rooms around us.  The people were not being noisy but if they took a shower or flushed the toilet it sounded almost as loud as if it was in our own room.  Unfortunately we had people around us showering at 2:30 am both nights.  Earplugs would have made this a great place.More</t>
   </si>
   <si>
+    <t>john s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r195951020-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1369,6 +1513,9 @@
     <t>Received by staff expert Ms. Kris who is friendly, courteous and professional in every way. Very accommodating for my specific requirements. The room was very clean, well stocked and professionally prepared. Looking forward to staying there whenever my journeys take me to DFW. I recommend this to all who travels to this area.More</t>
   </si>
   <si>
+    <t>Karen E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r193063597-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1396,6 +1543,9 @@
     <t>Very clean.  The staff was friendly and helpful. They even printed out directions to help us get to a few of our destinations.  Fabulous breakfast (for FREE!) and an evening social hour make it great on a budget!More</t>
   </si>
   <si>
+    <t>JBFash14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r192461860-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1420,6 +1570,9 @@
     <t>On entry I was met with a smiling face of Ms.Kris who attended to me and all the while engaging me in conversation; making me feel at home since it was my first time in Dallas. After assigning my room she called to make sure I like what she gave me. Overall, the unit was immaculate and the service of all the staff memebers was wonderful. Staff memeber were ready to help going the extra mile to make sure your stay was fulfilling. I will always recommed this Marriot to anyone I know going to Dallas area. Thank you all for job well done.More</t>
   </si>
   <si>
+    <t>Catherine M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r185376750-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1447,6 +1600,9 @@
     <t>Everything was very fulfilling of my needs for this business trip.  The room was very clean and infact smelled like clean soap when I came in.  the room was very nicely made up each day.  The breakfast was very good and had a large variety to satisfy everyone.  I would definitely stay here everytime ai come back to this area.More</t>
   </si>
   <si>
+    <t>Kensley B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r185025109-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1471,6 +1627,9 @@
     <t>I stayed two nights in this hotel on business and I would stay here again.  Check in and check out were quick and easy, and my room on the second floor was clean and quiet.  I was happy to find that unlike a lot of hotels, there was no mold or mildew in the bathroom or shower.  Being from a warmer climate, I was a little cold in my room, but I was able to turn up the thermostat a bit and the heater worked great.  I would have liked to have had a small refrigerator, as the bottled water available in the room was a bit pricy, but I suppose that's the cost of convenience.  I really liked the lobby and restaurant area, which had obviously been updated recently.  There was a gas fireplace that was awesome!  The small restaurant area offered breakfast and coffee in the morning, and food and drinks in the evening which was nice and convenient, but again rather expensive.  One bottle of Blue Moon beer cost me over $7!  The front desk clerk suggested two restaurants during my stay one of which was fantastic - Pappacitos Mexican food, and the other was absolutely the worst barbecue food (cafeteria/buffet style) I've ever had - Bodacious Barbecue.  That was disappointing.  Other than that I enjoyed my stay.More</t>
   </si>
   <si>
+    <t>Balido</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r184863856-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1495,6 +1654,9 @@
     <t>This is the end of my second stay each time I have enjoyed 2 weeks at the Residence Inn Arlington, TX.I was greeted warmy by Sasha at the desk and Michael, the General Manager is engaged and always concerned about the guests and the hotel.  I enjoy the friendliness of everyone, the dining staff, housekeeping, desk and maintenance.  One can quickly tell that there is pride in this hotel.My room was quiet, immaculate and well kept.  I truly felt at home having the room kitchen well appointed with utensils, plateware and cookware.If your are in the Dallas area either on business like me or pleasure (AT&amp;T Stadium, Ranger Stadium and Six Flags all less than a mile away) stay here.  You will not be disappointed.I look forward to returning on my next trip to DFW.More</t>
   </si>
   <si>
+    <t>Tim L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r180330014-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1519,6 +1681,9 @@
     <t>Great value , the breakfast area and food was outstanding , lots of variety. The room was awesome , a suite with a full kitchen with pots , pans , fridge, micro, also a desk and chair , small sofa , flat screen , set up very nice . The grounds were kept nice with a pool , BBQ , sport court . If your going to the football , baseball or six flags , this is a great place to stay . About 25 minutes to downtown Dallas . More</t>
   </si>
   <si>
+    <t>topher54CamdenAr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r179266775-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1546,6 +1711,9 @@
     <t>A very nice hotel. We bought a 2 bedroom suite. Very nice spacious beds .Suites were huge, breakfast was great. Felt very safe. In a nice area of Arlington ,very close to Six Flags. Shuttle is available if you need it. Will stay again !More</t>
   </si>
   <si>
+    <t>Aleceia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r176301156-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1570,6 +1738,9 @@
     <t>I stayed her in a two bedroom suite.  I love the Residence Inn's and I am glad I stayed here.  It was quite and close to the airport.  I did not go but it is close to Six Flags and other Dallas Attractions like the Arlington baseball stadium.  The pool was nice and clean and my room was completely renovated.  It had a fireplace and the air condition worked perfectly.  I would stay again!  I came early and the room was not ready but Sasha asked me for a number and she called when my room was ready.  I checked in early!  I had my little dog and there was  a place to walk her in the back of the hotel.  I will let you know if anything changes I am going to stay again next month!  I was there in the off season.  No baseball games going on and football has not kicked in yet. I will update next month if there are any changes.More</t>
   </si>
   <si>
+    <t>Debbie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r166831067-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1597,6 +1768,9 @@
     <t>We were in town for a baseball game. We arrive a little before 3 p.m. and found our room wasn't ready. They asked us to check back in 45 minutes. We waited a little longer than that, and the room still wasn't ready. Again they asked us to wait and check back. When we checked back again, the room still wasn't ready and there was no promise on when it would be ready. At that point, it was time to leave for the ballpark, so we had to cancel our reservation and then drive all the way home after the game. Horrible, horrible service. There was only one person manning the front desk on a busy holiday weekend (very nice people) and not enough room service. Poor planning. Bad experience. If this was my first time at a Residence Inn, I would avoid them in the future. Fortunately there are other properties that are well-managed. This one, however, is NOT!More</t>
   </si>
   <si>
+    <t>Marysm467</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r166064930-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1615,6 +1789,9 @@
     <t>I arrived at this hotel very late after a 7 hour drive. I was exhausted. The first room they gave me hadn't been cleaned. I had a lot of luggage with me and had to haul it back down to the welcome desk. They happily gave me another room. When I arrived at the second room the key did not unlock it, so I had to haul my stuff back down to the welcome desk again. I was very frustrated at this point. It turns out that they had just written down the wrong room number. So after three tries I finally made it to my room. After this horrible check in, I was looking for any thing else to be ticked about! The rest of my experience was great. The hotel grounds are really nice, the rooms are spacious. I also enjoyed the work out area and the breakfast was great--they had eggs, bacon, oatmeal with toppings, fresh fruit, waffles, and other pastries. It was great! I had a very nice stay without any other problems. If it weren't for the check in problems I would have given it a 5!More</t>
   </si>
   <si>
+    <t>Honestperspective</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r163445267-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1636,6 +1813,9 @@
     <t>I have stayed at the Residence Inn in various cities over the last 8 years. This hotel has recently undone an upgrade of soft goods and has made the stay very pleasant. The hotel is a little older by age but the updates have made the stay very comfortable. I like the fact that it is within minutes from DFW but you don't have airplane noisy. Small outdoor pool but comfortable. Restaurants within walking distance and I felt safe jogging. Outdoor grilling area available. Staff their was very friendly at check-in and always had a smile on their faces. Great job Residence!!!More</t>
   </si>
   <si>
+    <t>MRSTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r160580944-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1663,6 +1843,9 @@
     <t>We only stayed 1 night to go to a concert.  It was a pleasant stay.  Room was clean and spacious.  It was located very near local attractions... Cowboy stadium, Ranger Ballpark, Six Flags and Hurrican Harbour.  Also near several food establishments.More</t>
   </si>
   <si>
+    <t>cynvan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r160082728-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1681,6 +1864,9 @@
     <t>Having never stayed at a Residence Inn I wasn't sure what to expect. We were pleasantly surprised though. Went down for the Red Sox games and the location was great. It's enough off the main streets to not get all the traffic noise.Room clean and bed wasn't bad. Not the best but not the worst.If there was one drawback was a cleaner odor. It smelled almost like Lysol or Pine Sol and was so strong when we first entered our room we almost gagged. After a few minutes though we must have gotten used to it as we couldn't smell it anymore. Yet whenever we would leave and upon return we were hit with the same strong odor again. Otherwise not a great place but decent enough to stay there.More</t>
   </si>
   <si>
+    <t>launcher69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r159850609-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1699,6 +1885,9 @@
     <t>We stayed here just one night in order to go to the Rangers game. It's a Residence Inn, so I always like the rooms. It's not the best RI I've been too. I don't know how old this hotel is, but it just looked and smelled rather old. But the room was clean and neat, and the grounds were well kept. I also didn't realize they have no king beds here, or at least that is what we were told. So if you are accustomed to a king size bed, you'll need to sleep in a queen here. There was also roof construction going on, so the parking was limited. But that is not the hotel's fault, they have to fix things at some point. They do have a great staff though. Our limited interaction with them was that they were incredibly helpful and were never bothered by the many questions we were asking about the local area. The two young ladies at the front desk were just great. Also, if you are going to the Rangers, they have a 'red' trolley that takes you there, which is great to get to the game, but its very difficult to get coming back after the game. All in all it's just an ok Marriott property, but the great staff makes up for most things.More</t>
   </si>
   <si>
+    <t>SusanP216</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r157468458-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1726,6 +1915,9 @@
     <t>I have taken a group of students there for the past 3 years and have always had a very pleasant experience.  We came back this past weekend and through my own fault I forgot the school check but I had it fed ex'ed from Houston.  Although I had a tracking number, a fax of the check stub and the school administration called, they forced me to use my debit card to "hold" the rooms.  I authorized them to charge 640 dollars.  Since then I have had a total of 4000 dollars charged on my card even though they have the check and have cashed it.  Originally the manager was apologetic but the charges continue and he no longer answers nor returns my calls.  I will never stay here again and am taking legal action against them.More</t>
   </si>
   <si>
+    <t>bandman15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r157247912-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1750,6 +1942,9 @@
     <t>New style for Residence Inn properties....no separate "cottages".....more like an apartment building.  Helpful staff...nice managers reception and breakfast.  There are several nice restaurants within a walking distance.  Will stay here again when in the area.More</t>
   </si>
   <si>
+    <t>redt2play</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r157076819-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1771,6 +1966,9 @@
     <t>My son and I stayed here while attending the Sweet 16 games at Cowboy's Stadium.  So, we did not spend much time at the hotel/room or at the pool but what we saw was very nice.  The room was clean and quiet.  We slept in and did not eat breakfast in the morning.  But could smell the delicious cinnamon rolls when we checked out.More</t>
   </si>
   <si>
+    <t>Pierre B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r154656525-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1795,6 +1993,9 @@
     <t>this place gives you the basics: clean, large rooms with kitchenette. The pool also looked nice but it was too early in the season to enjoy it. The rooms are not well insulated, if your neighbor showers at 5am you know it. The breakfasts were poor, scrambled eggs, turkey bacon (!), sometimes something that looked like an eggMcMuffin, allways lukewarm at best. The coffee is good, so is the OJ.I worked the evening shift on this business trip so I would leave around 3pm, my room was not cleaned on the last two days of my stay. I will not return there on my next assignment to American Airlines, there are other choices.Staff was friendly and always a nice smile.this place is at the crossroads of two highways, little to see or do nearby; drive to Dallas or FW.More</t>
   </si>
   <si>
+    <t>ted b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r154528619-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1816,6 +2017,9 @@
     <t>I will not be going down the same old path with the pleasant people working or the clean rooms because that is why I stay at Residence Inns all over the country. What is the BOMB with this establishment is that they have a outstanding managers reception that has has a host of salads-breads-meats and the best BEER and WINE that is free. It is the best by far of all residence Inns that I have had the chance to stay in. The breakfast was equally as good as the reception, as there was a real variety of breakfast items for any type of personal preference. I can go into the facility but it was the same outstanding place you would get where ever you would go. The add on's make this place be be at if your travels take you and the family to Arlington TX and you are just a very short distance from the 6 Flags . Enough said , take it from a seasoned traveler "STAY HERE".More</t>
   </si>
   <si>
+    <t>Sherry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r154519661-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1831,6 +2035,9 @@
     <t>Great place to stay. The rooms are very very clean ,breakfast is very good.the location is perfect too! I would recommend this hotel to family and friends and may I also add this hotel is very quiet we always get a good nights rest here. We will be be returning. The price is fantastic also.More</t>
   </si>
   <si>
+    <t>Lnh01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r151174466-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1855,6 +2062,9 @@
     <t>Personally, I prefer the style of the Residence Inn. It has more of the qualities of a time share condo then a hotel. My room is not on the 19th floor and I don't have to walk a half-mile to get to my car. Like many of the business hotels nowadays Residence has comfortable rooms, free breakfast and a "Manager's reception" in the evening. What I don't like about many of the other "suite hotels" is that they have a college dorm feel to them. No thanks. Once was enough. The Residence Inn in Arlington has the  friendly and courteous staff which one expects at a property stamped with the Marriott name. Access to and from the property and the nearby freeways was very easy. I had some extra time to look into some of the other area hotels and found that none of them matched what I had at the Residence Inn.  A great value. More</t>
   </si>
   <si>
+    <t>Tammy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r150895298-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1882,6 +2092,9 @@
     <t>We stayed at this hotel for a long weekend and a football weekend. The rooms have a full kitchen and plenty of room for a longer stay. I loved the two Tvs... One in the living room and one in the bedroom. The breakfast was great and the service was fantastic! It was the perfect place to stay to be near everything as it is located between two malls with lots of shopping and eating opportunities. The outside seating area by the fire in the evening is so relaxing. The location was also great for Cowboys Stadium to avoid the traffic. We would definitely stay at this hotel again on another stay.More</t>
   </si>
   <si>
+    <t>flyguy591</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r150548672-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1909,6 +2122,9 @@
     <t>I stay here every January when I come out to Arlington on buisness. I always know what I will get. Rooms are clean and quiet. Bed is comfortable. I have never had any issues.Price is very competative. I'd reccommend this hotel  to anyone.More</t>
   </si>
   <si>
+    <t>Jeff K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r141356979-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1933,6 +2149,9 @@
     <t>After staying up too late the night before I was slow to get moving in the morning and got downstairs 30 minutes late for breakfast.  Mary at the front desk was quick to head back to the kitchen to see what was left and prepare me a plate!  Eggs, hashbrowns, a muffin...much better than the granola bar I was about to have to buy.  Thank you Mary, you made my day!More</t>
   </si>
   <si>
+    <t>Countrygirl75142</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r140778665-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1957,6 +2176,9 @@
     <t>Great hotel! The staff was pleasant, the housekeeping staff does a wonderful job, and the meals are good. I really enjoyed the drinks at social hour...nice touch. I would definitely recommend this hotel. More</t>
   </si>
   <si>
+    <t>spursone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r140768050-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1972,6 +2194,9 @@
     <t>Stayed at the Residence Inn in Arlington this past weekend for a trip to watch a college game in Cowboy's Stadium.  This hotel is a bit hard to find but other than that the staff was very friendly, helpful and accommodating. The hotel is located across I20 from Six Flags in an area with many hotels and restaurants.  I requested a late checkout for my sick son and his friend and the staff quickly agreed to give them till 2 p.m.  The breakfast was standard Marriott fare and quite tasty.More</t>
   </si>
   <si>
+    <t>Erick A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r139501046-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1996,6 +2221,9 @@
     <t>We were celebrating our daughter's 16th birthday and the choice couldn't be better!!!  The staff was always very friendly, professional, and polite.  The suite was so pleasant, clean, and homelike that we enjoyed it as much as the outdoors fun.  The variety and quality of the breakfast impressed us!  They had something for everybody, including the complimentary coffee flavors they offered during the whole day, every day.  Our family had a wonderful vacation and our daughter couldn't be happier... a birthday celebration to be remembered!!! We will definitely recommend this hotel if you want a really special experience.More</t>
   </si>
   <si>
+    <t>creineke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r138151332-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2023,6 +2251,9 @@
     <t>On the way to check in I  had bought a frozen pizza thinking if we wanted to stay in we put it in the oven. The room did not have ovens just microwaves. We were wanting to go out by then anyway but it was storming so hard we could not make it to the car. The lady at the front desk offered to cook the Pizza for us in their oven, which saved the day. Not only that but she was very friendly and welcoming. The rooms are wonderful, very clean and comfortable with plenty of room! Good location!More</t>
   </si>
   <si>
+    <t>MCtravler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r137023487-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2047,6 +2278,9 @@
     <t>Very helpful staff. From the desk clerk at check in, to the security guard on the night shift. You just cannot beat these folks for their courtesy. We were celebrating my wife’s birthday with the grandkids and back to back Ranger games. I had left the game a little early so the smaller children could swim just a bit longer. The guard came by and told us the pool was closing and she would be back by in 30 minutes. I told the kids anywhere else and they would have told us to go to the room. The night shift clerk made the little ones feel good when they spoke, so friendly to them. We had stayed prior, at another hotel in front of the inn and my granddaughter remembered that a car had been broken into that night, so she liked the guard watching over us. All the staff was friendly, the maids, and the ladies at the breakfast. As well as it tasted fresh not the usual powered eggs and old pastries.  My whole crew voted it the place to stay at on the next outing.More</t>
   </si>
   <si>
+    <t>Kleinpeter-Family</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r135386473-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2074,6 +2308,9 @@
     <t>We enjoyed our stay for the weekend, great service, free breakfast. Staff was very helpful, location not far from Six Flags. Hotel is close to the Boston restaurant &amp; other eating places. Also, a lot of shopping around the area.More</t>
   </si>
   <si>
+    <t>Tom L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r135281926-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2092,6 +2329,9 @@
     <t>I am a lifetime Platinum Marriott Rewards member and I am very pleased with my stay.  Of particular note was this past Sunday when I was 1 hour away to do a presentation and left it in my room.  The clerk found it and faxed it immediately, saving me much embarrassment.  An excellent place for business or family pleasureMore</t>
   </si>
   <si>
+    <t>Janiam33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r134929148-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2119,6 +2359,9 @@
     <t>I have been staying at this hotel frequently in the past few months.  I find the staff to be friendly and helpful - the facilities are clean (seems they are in the process of updating) - the surrounding area is safe.  The location is great for shoppers - it is located in the middle of Arlington Highlands the outdoor shopping area and the Arlington Mall (sorry the exact name of the shopping areas escape me.)  They offer breakfast in the am and drinks and light meal in the evening.  If you are staying in Arlington I think this hotel is a great choiceMore</t>
   </si>
   <si>
+    <t>beccaridge</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r133449837-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2143,6 +2386,9 @@
     <t>We stayed overnight at this Residence Inn when our A/C unit was being repaired.  We had a two bedroom "suite".  The kitchen and bedrooms appeared very clean.  Bathrooms were simple and clean.  The beds appeared very small, smaller than Queen size.  One bed per bedroom. We had to move our daughter's slumber party to the hotel, so three teens tried to share one bed.  Not so successful, but no fault of Residence Inn.  The girls  were kept awake by boys playing basketball and yelling into the wee hours.  We checked in around 9:15 pm, so the basketball continued long past a reasonable time.  The only other gripe I have is that the towels were very dingy--gray in color.Breakfast was in a bright, cheery room and was very good.  Staff was great.  I couldn't get the wireless internet (ibahn) to work, but I did not call down to the front desk to ask for help.  Too tired.  The pool looked good.  I would recommend this hotel.More</t>
   </si>
   <si>
+    <t>scott0005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r133296493-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2167,6 +2413,9 @@
     <t>Excellent Service from the staff, especially front counter. Very Friendly, Best I've had.More</t>
   </si>
   <si>
+    <t>snev61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r133202803-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2185,6 +2434,9 @@
     <t>We were in a end room, never heard any noise from parking lot, it was very nice. Hotel location is great too! Breakfast was delicious!! Lots of selections, clean and organized. Pool was sparkling clean and I saw the staff checking the hot tub for proper pH. When I was checking in, the man in front of me had some problems with his reservation and the desk clerk handled it with the utmost professionalism and promptness. I will stay there again for sure! Worth every dollar! They could however have softer towels.More</t>
   </si>
   <si>
+    <t>Larry A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r132055905-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2209,6 +2461,9 @@
     <t>Great location for the purpose of our trip - a Texas Rangers baseball game.  A trolley will take us from the hotel to within 100 yards of the third base gate and then take us back to the hotel after the game.  Great room too - plenty large - super clean - quiet room - HD TV willh a great picture of the U. S. Open golf tournament.  Front desk staff some of the more personable I've ever met.  Would highly recommend this to anyone.More</t>
   </si>
   <si>
+    <t>michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r131444470-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2233,6 +2488,9 @@
     <t>Great hotel!  The staff was friendly and the rooms were outstanding.More</t>
   </si>
   <si>
+    <t>Greg B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r129517801-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2260,6 +2518,9 @@
     <t>Stayed just for one night, on business, but surely wish it could have been more. Happy hour drinks and snacks were awesome (including the free margaritas for Cinco de Mayo!). Breakfast also very well organized, and fresh! Room was super clean, and far larger than I expected. Two full bedrooms plus living room plus kitchen -- three flat-screen TVs -- free WiFi -- all for $139. Bed extremely comfortable too! Just a few miles from Six Flags too! Used the fitness center -- nice and clean, and even printed boarding passes from the free computers in business center. GREAT place to stay in Arlington!More</t>
   </si>
   <si>
+    <t>Annamarie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r127808663-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2287,6 +2548,9 @@
     <t>The facilities were nice and staff were friendly, but the hotel did not respond properly to the tornado emergency a few weeks ago. I was working night shift and slept during the day, during which I received NO notice from the hotel staff that a tornado warning was in effect. A tornado touched down two blocks away.Don't expect a warning call or the staff to knock on your door.More</t>
   </si>
   <si>
+    <t>Aimee W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r127315485-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2311,6 +2575,9 @@
     <t>Stayed at this hotel recently.  I do not have any complaints.  The staff was friendly.  The breakfast was good.  The pool area is nice.  It is reasonably priced especially when you have a full kitchen and bedroom.More</t>
   </si>
   <si>
+    <t>Bella T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r126912685-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2338,6 +2605,9 @@
     <t>My family and I stayed here during my husband's company trip.  I thought that we got lots of bang for our buck!  We paid under $140 and got a one bedroom.  The appliances in here were great.  Stainless steel, refrigerator, dishwasher (just the fact that there was a dishwasher was impressive), and microwave.  There was also a two burner stove and free dishes, utensil, and pots and pans for the guests.  There was a pull sofa/couch and my two girls were able to sleep on that.  Two big windows that let lots of natual light in and good blackout curtains so that my girls didn't wake up at the break of dawn.  Lots of great amenites too!  Pool and jacuzzi, workout room, bbq in case guest would like to cook out, fire pit, multi-purpose sports court, and Coin operated Laundry facility.  There is also a computer and printer... not a full business center, but it works great.  What really sets this apart from other similar hotels, motels, Inns is that they don't only serve a free hot breakfast...they also do a free dinner, which is different every night.  Staff is very nice and we really had a great time here.  It is not the Hilton or Sheraton but for the awesome price, it was great!  I forgot to add that it was very clean and well maintained.More</t>
   </si>
   <si>
+    <t>Bert4176</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r121602515-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2354,6 +2624,9 @@
   </si>
   <si>
     <t>December 2011</t>
+  </si>
+  <si>
+    <t>GLMS-NC</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r120838106-Residence_Inn_Arlington-Arlington_Texas.html</t>
@@ -2385,6 +2658,9 @@
 Housekeeping did a good job and have no complaints. One day they cleaned by the time we returned from breakfast. Can't complaint about that. Good desk to work from as well...Arrived very early on a Fri AM (12:30am) and was immediately greeted by a clerk to check us in. The check in was prompt and we were off to our room.Our room was spacious, with a mini-kitchen and a separate sitting area. King size bed with a bit small of a bathroom. Single tub/shower unit. Upon arrival room temp was about 75 degrees and within minutes the AC system had the room temp down to a more comfortable level. That system worked well and was not noisy.Good sized flat screen TV pivoted to the bed or sitting area section. Free wireless in the hotel, but the signal in our room was pretty low, so internet speed was slow as well. The bed is one area where we had a major complaint. I'll bet there was a 2" drop from the end of the bed to the center. This made sleeping a bit interesting, as you were always rolling to the center. We thought about changing rooms, but since the trip was just three nights, we left it alone. Needless to say we didn't get that good a quality sleep. No other complaints on the room. Kitchen has coffee maker and coffee, along with a bag of popcorn.Housekeeping did a good job and have no complaints. One day they cleaned by the time we returned from breakfast. Can't complaint about that. Good desk to work from as well if you need to pop open the laptop.Breakfast...simply outstanding. It's free and it's awesome. Fruit, cereal, hot items and lots of juice and coffee. We left every morning having enjoyed a great meal. TV is on and there are newspapers for your enjoyment. Food was always stocked and taste was excellent.I paid $119 a night for this room and I was very pleased, with the exception of the bed. There is a pool, hot tub, tennis courts, fire pit, and other amenities for your enjoyment. Overall, with the exception of a sorry bed, the rest of the stay was outstanding. I probably should have asked for a different room, but when you stroll in at 12:15 in the AM, this is the last thing you want to deal with.More</t>
   </si>
   <si>
+    <t>AnneKaty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r116727391-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2406,6 +2682,9 @@
     <t>We stayed here for a couple of days of college visits.  It was conveniently located between TCU (20 min drive or so) and UT Arlington (10 min drive).  It was an easy drive to both schools.  The room was clean with great AC when it was 105 outside.  Because of the location of the room, it noisier than what I'm used to (near two entrances/exits and the pool).  In the future I'd request a different location for my room.  As far as sofa beds go, this one was pretty awful to sleep on.  We had to put the chair cushions under the sheet, which works out great if you're a teenager.The front office people were very nice and welcoming. The breakfast was very good.  The workout room was small, but they had good quality equipment that was well-maintained.I will stay here again in the future.More</t>
   </si>
   <si>
+    <t>alphad35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r96855434-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2427,6 +2706,9 @@
     <t>I stayed in this hotel for business yesterday. I travel almost every week and stay at Marriotts 90% of the time and am usually very pleased. The hotel corridor was filthy with worn carpet, broken ceiling tiles exposing wiring and extensive water damage. When I walked down the corridor it was obvious someone had thrown up in it but never cleaned it up. The smell was awful. Same for my room, if you want to call it that. Disgusting smell that reeked. I asked to change to another room and the front office worker (jesse) was very nice and did so. New room was better but still was dirty with worn carpeting and beat up frat house style furniture. Also the air conditioner DID NOT WORK. When I checked out this AM I spoke with the GM of the hotel (Angela). She cooly informed me that she was shocked by my experience and that they had a 92.3% customer satisfaction rating. No effort to make it right or address the issue whatsoever. Made sense as it was obvious the management could not care less about this property or its customers. STAY AWAY from this DUMP.More</t>
   </si>
   <si>
+    <t>AustinTraveler77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r85639415-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2445,6 +2727,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>mcguillicudy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r79806295-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2466,6 +2751,9 @@
     <t>During the actual visit, the stay was pleasant enough, but our trouble started on the way home.  My six year old daughter was complaining that she kept finding bugs on her head rest.  Not having ever had the miserable experience that lice are, I didn't think anything of it.  Two days later when my daughter went for a hair trim the stylist pulled my wife over and showed her the lice.  Now after spending over $150, huge amounts of laundry and the trauma to my daughter, I think we have it in control(keeping our fingers crossed).  I was willing to give the hotel the benefit of the doubt and assume she got the lice somewhere else unitl I did a google search.  see here for more complaints:  http://www.consumeraffairs.com/travel/marriott_residence_inns_p2.htmlMore</t>
   </si>
   <si>
+    <t>KINJAMYHAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r70087731-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2484,6 +2772,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>Gregory W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r68342659-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2502,6 +2793,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>sharlisa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r65165754-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2521,6 +2815,9 @@
   </si>
   <si>
     <t>My Perfect Spot because if you didn't want to drive you had resturants in waking distance and thats perfect for me. Also QT right down the street,, Quiet,except one night.. thats okay we just closed the window.My husband even liked. We took our youngest (3) and she thought the breakfast was good and the hotel was fun. I checked out the 2 bedroom huge roomate style. We had the one bedroom this trip .. We will get the 2 bedroom when we return with the kids. Anyhow.Nice Breakfast was nice as well. The staff oh yes the lady name I think was Victoria.. and I needed directions to the Golden Corral over by Cedar Hill...She gave directions perfectly..She knows her stuff I hope I remebered her name right.. We stayed there mothers day weekend...well we loved will be back there..More</t>
+  </si>
+  <si>
+    <t>AshPri</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r54664078-Residence_Inn_Arlington-Arlington_Texas.html</t>
@@ -2546,6 +2843,9 @@
 The problem with this property was its constant changing of front desk staff and their lack of basic things. I stayed there for over 7-10 days however every alternate day, something or the other would happen with their key lock system and I had to go down for a new key late in the night. The area earlier never used to look safe for a new traveler since its isolated however with a new resturant near by now you...Residence Inn has been one of my good choices for a long stay during my business trips to US as it provides Kitchen and other in room basic facilities. I had stayed in some of them in other states and thus choose this one while on a business visit as it was at a walking distance from my office. Overall this hotel property is okay however didn't give me the similar experience that I had in Florida or Chicago. The breakfast option and other manager's evening snacks was good however lacked personal staff attention that I would have seen in other such hotels. This property didn't even have an airport pick up or drop arrangements. The rooms while decorated in a similar manner like any other Residence Inns however the room sizes were smaller. The best part was that I managed to get a pool facing room otherwise the other rooms really do not have any visuals from the room's window. The problem with this property was its constant changing of front desk staff and their lack of basic things. I stayed there for over 7-10 days however every alternate day, something or the other would happen with their key lock system and I had to go down for a new key late in the night. The area earlier never used to look safe for a new traveler since its isolated however with a new resturant near by now you atleast have some crowd. The good part is that at a walking distance you have lot of good resturants and eating places however lacks connectivity. Other facility that I liked was their stacking up of the vending machine at the front desk with all the food which you could grab even late in the night incase you feel hungry and do not want to drive down. The resturant's staff was really impressive, she used to ensure to take personal care of the guests during break fast hours and that's something a lot of travellers liked. It had all the basic business facilities, like printing, a confernece room which we used for our multiple meetings, internet connectivity, a computer for guests to share and use. However if I compare my next trip and my stay at the Hilton's near by, that's a hotel which I would probably recommend more unless you need a cooking facility in the room. Overall a decent stay but probably I would like to try some other one next time.More</t>
   </si>
   <si>
+    <t>Freq_business_travlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r53015581-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2564,6 +2864,9 @@
     <t>Residence Inns are my favorite place to stay, and this one is no exception.....always comfortable and feel more like home than other hotels.  I arrived early around 2 PM before the official check-in time of 3 PM, but the hotel staff member on duty, Brad, was most helpful in checking me into a quiet upper floor room, even though the hotel had been sold out the night before with the fans attending the Cotton Bowl and many of the rooms were still being cleaned.I love having a full kitchen and take advantage of that for most of my evening meals.I've stayed at this hotel many times over the past several years, and this property was remodeled a few years ago, but they failed to upgrade the TV's to new LCD flat screens....still have the old CRT tube-types.  Okay, but not up to par with some of the newer Residence Inns.Always a great breakfast in the morning with varied items, but this hotel did not offer hot oatmeal like every other Residence Inn where I've stayed.This hotel is in a great location (convenient to DFW airport) and is getting a lot more traffic with the opening of the new Dallas Cowboys stadium a couple of miles away.Will definitely stay here again, but hope they will upgrade their TV's soon.More</t>
   </si>
   <si>
+    <t>cvsguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r39876029-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2582,6 +2885,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>melikestotravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r22189247-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2621,6 +2927,9 @@
     <t>June 2008</t>
   </si>
   <si>
+    <t>Coqui166</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r13787372-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2639,6 +2948,9 @@
     <t>September 2007</t>
   </si>
   <si>
+    <t>Tawana417</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r7988139-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2657,6 +2969,9 @@
     <t>June 2007</t>
   </si>
   <si>
+    <t>mary2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r7958655-Residence_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2673,6 +2988,9 @@
   </si>
   <si>
     <t>My family and I stayed here for two days.  This property is ok.  I think the Springhills suites up the road is almost as nice.  When we first arrived at our room we noticed an odor in the room.  The bathroom had a funny odor to it.  The only thing I could figure out is maybe someone had brought their dog and left it in the bathroom or something.  They do allow pets in their rooms. If anyone is allergic to the pets, this information might help.  The odor never left for the two days we were there.      They had a good breakfast every morning.  Every night they had a light meal they serve to everyone.  The first night we had lasagna, salad, and French bread, the next night we had salad and potato skins.  With the meal you get all you can drink sodas, beer, and wine.  This was nice because we didn't have to dine out.    They do have a trolley that goes to sixflags, hurrican harbor, and the ballpark, which is nice.More</t>
+  </si>
+  <si>
+    <t>Heard</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109499-r7291190-Residence_Inn_Arlington-Arlington_Texas.html</t>
@@ -3195,43 +3513,47 @@
       <c r="A2" t="n">
         <v>9468</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175541</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -3247,47 +3569,51 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>9468</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175542</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
@@ -3304,56 +3630,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>9468</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3365,56 +3695,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>9468</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -3432,56 +3766,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>9468</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175543</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -3499,56 +3837,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>9468</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175544</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3566,50 +3908,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>9468</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>18696</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3627,56 +3973,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>9468</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175545</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3688,56 +4038,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9468</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>33648</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3749,56 +4103,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>9468</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>9065</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3814,56 +4172,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>9468</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175546</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3875,56 +4237,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="X12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>9468</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>175547</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3942,56 +4308,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>9468</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>15808</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4007,56 +4377,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>9468</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>26418</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -4068,56 +4442,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>9468</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175548</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4129,56 +4507,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>9468</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>175549</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4190,56 +4572,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>9468</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>94485</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4253,56 +4639,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="X18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>9468</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>12306</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4322,50 +4712,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>9468</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>175550</v>
+      </c>
+      <c r="C20" t="s">
+        <v>211</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4383,56 +4777,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="X20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>9468</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>4595</v>
+      </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -4450,47 +4848,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="X21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>9468</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>51352</v>
+      </c>
+      <c r="C22" t="s">
+        <v>228</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -4507,56 +4909,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="X22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="Y22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>9468</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175551</v>
+      </c>
+      <c r="C23" t="s">
+        <v>237</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4574,56 +4980,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="X23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>9468</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>2349</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4635,56 +5045,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="X24" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="Y24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>9468</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>42116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4696,56 +5110,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="X25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>9468</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>175552</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4761,56 +5179,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="X26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="Y26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>9468</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>175553</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4822,56 +5244,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="X27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="Y27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>9468</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>175554</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4887,56 +5313,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="X28" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="Y28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>9468</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>8782</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4948,56 +5378,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="X29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>9468</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175555</v>
+      </c>
+      <c r="C30" t="s">
+        <v>299</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -5011,56 +5445,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="X30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>9468</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>17414</v>
+      </c>
+      <c r="C31" t="s">
+        <v>309</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="J31" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="K31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="O31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -5078,56 +5516,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="X31" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="Y31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>9468</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>175556</v>
+      </c>
+      <c r="C32" t="s">
+        <v>316</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="J32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="L32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="O32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5139,47 +5581,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="X32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="Y32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>9468</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>175557</v>
+      </c>
+      <c r="C33" t="s">
+        <v>327</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="J33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="K33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
@@ -5196,56 +5642,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="X33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="Y33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>9468</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175558</v>
+      </c>
+      <c r="C34" t="s">
+        <v>336</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="J34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="K34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="L34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="O34" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -5263,56 +5713,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="X34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="Y34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>9468</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>26589</v>
+      </c>
+      <c r="C35" t="s">
+        <v>346</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5324,56 +5778,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="X35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="Y35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>9468</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175559</v>
+      </c>
+      <c r="C36" t="s">
+        <v>356</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="J36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="K36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="L36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -5389,56 +5847,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="X36" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="Y36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>9468</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>175549</v>
+      </c>
+      <c r="C37" t="s">
+        <v>211</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="J37" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="K37" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="L37" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5456,56 +5918,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="X37" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>9468</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>175560</v>
+      </c>
+      <c r="C38" t="s">
+        <v>370</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="J38" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="K38" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="L38" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5521,56 +5987,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="X38" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="Y38" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>9468</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>175561</v>
+      </c>
+      <c r="C39" t="s">
+        <v>380</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="J39" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="K39" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="L39" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -5586,56 +6056,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="X39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="Y39" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>9468</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>175562</v>
+      </c>
+      <c r="C40" t="s">
+        <v>390</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="J40" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K40" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="L40" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5647,56 +6121,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="X40" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="Y40" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>9468</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>31819</v>
+      </c>
+      <c r="C41" t="s">
+        <v>399</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="K41" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="L41" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5708,56 +6186,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="X41" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="Y41" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>9468</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>175563</v>
+      </c>
+      <c r="C42" t="s">
+        <v>409</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="J42" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="K42" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -5775,56 +6257,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="X42" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="Y42" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>9468</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>450</v>
+      </c>
+      <c r="C43" t="s">
+        <v>418</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="J43" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="K43" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="L43" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="O43" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5840,56 +6326,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="X43" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="Y43" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>9468</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>175564</v>
+      </c>
+      <c r="C44" t="s">
+        <v>427</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="J44" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="K44" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="L44" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="O44" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5901,56 +6391,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="X44" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="Y44" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>9468</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>35953</v>
+      </c>
+      <c r="C45" t="s">
+        <v>437</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="J45" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="K45" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="L45" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="O45" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -5968,56 +6462,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="X45" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="Y45" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>9468</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>18302</v>
+      </c>
+      <c r="C46" t="s">
+        <v>447</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="J46" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="K46" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="L46" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="O46" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -6039,56 +6537,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="X46" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="Y46" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>9468</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>175565</v>
+      </c>
+      <c r="C47" t="s">
+        <v>457</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="J47" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="K47" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="L47" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -6110,56 +6612,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="X47" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="Y47" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>9468</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>175566</v>
+      </c>
+      <c r="C48" t="s">
+        <v>467</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="J48" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="K48" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="L48" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -6181,56 +6687,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="X48" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="Y48" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>9468</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>32780</v>
+      </c>
+      <c r="C49" t="s">
+        <v>477</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="J49" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="K49" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="L49" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="O49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -6252,56 +6762,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="X49" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="Y49" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>9468</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>2372</v>
+      </c>
+      <c r="C50" t="s">
+        <v>486</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="J50" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="K50" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="L50" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="O50" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6323,56 +6837,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="X50" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="Y50" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>9468</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>69632</v>
+      </c>
+      <c r="C51" t="s">
+        <v>495</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="J51" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="K51" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="L51" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6394,56 +6912,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="X51" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="Y51" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>9468</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>175567</v>
+      </c>
+      <c r="C52" t="s">
+        <v>505</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="J52" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="K52" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="L52" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="O52" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6465,56 +6987,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="X52" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="Y52" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>9468</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>85959</v>
+      </c>
+      <c r="C53" t="s">
+        <v>514</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="J53" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="K53" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="L53" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="O53" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6536,56 +7062,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="X53" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="Y53" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>9468</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>175568</v>
+      </c>
+      <c r="C54" t="s">
+        <v>524</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="J54" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="K54" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="L54" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="O54" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6607,56 +7137,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="X54" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="Y54" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>9468</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>175569</v>
+      </c>
+      <c r="C55" t="s">
+        <v>533</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="J55" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="K55" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="L55" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="O55" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6678,47 +7212,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="X55" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="Y55" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>9468</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>13602</v>
+      </c>
+      <c r="C56" t="s">
+        <v>542</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="J56" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="K56" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="L56" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
@@ -6745,56 +7283,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="X56" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="Y56" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>9468</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>175570</v>
+      </c>
+      <c r="C57" t="s">
+        <v>551</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="J57" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="K57" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="L57" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6816,56 +7358,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="X57" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="Y57" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>9468</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>175571</v>
+      </c>
+      <c r="C58" t="s">
+        <v>561</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="J58" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="K58" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="L58" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6887,56 +7433,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="X58" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="Y58" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>9468</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>38403</v>
+      </c>
+      <c r="C59" t="s">
+        <v>570</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="J59" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="K59" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="L59" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6950,56 +7500,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="X59" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="Y59" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>9468</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>80978</v>
+      </c>
+      <c r="C60" t="s">
+        <v>580</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="J60" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="K60" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="L60" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="O60" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -7021,56 +7575,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="X60" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="Y60" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>9468</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>175572</v>
+      </c>
+      <c r="C61" t="s">
+        <v>587</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="J61" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="K61" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="L61" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="O61" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -7092,56 +7650,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="X61" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="Y61" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>9468</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>98691</v>
+      </c>
+      <c r="C62" t="s">
+        <v>595</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="J62" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="K62" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="L62" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="O62" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -7163,56 +7725,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="X62" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="Y62" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>9468</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>175573</v>
+      </c>
+      <c r="C63" t="s">
+        <v>605</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="J63" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="K63" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="L63" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -7234,56 +7800,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="X63" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="Y63" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>9468</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>175574</v>
+      </c>
+      <c r="C64" t="s">
+        <v>612</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="J64" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="K64" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="L64" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="O64" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -7305,56 +7875,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="X64" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="Y64" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>9468</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>175575</v>
+      </c>
+      <c r="C65" t="s">
+        <v>619</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="J65" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="K65" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="L65" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="O65" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -7376,56 +7950,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="X65" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="Y65" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>9468</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>19481</v>
+      </c>
+      <c r="C66" t="s">
+        <v>629</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="J66" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="K66" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="L66" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="O66" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7447,56 +8025,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="X66" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="Y66" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>9468</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>175576</v>
+      </c>
+      <c r="C67" t="s">
+        <v>638</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="J67" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="K67" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
       <c r="L67" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7518,56 +8100,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="X67" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="Y67" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>9468</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>9608</v>
+      </c>
+      <c r="C68" t="s">
+        <v>646</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="J68" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="K68" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="L68" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="O68" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7589,56 +8175,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="X68" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="Y68" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>9468</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>175577</v>
+      </c>
+      <c r="C69" t="s">
+        <v>655</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="J69" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="K69" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="L69" t="s">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="O69" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7660,56 +8250,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="X69" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="Y69" t="s">
-        <v>595</v>
+        <v>662</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>9468</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>65510</v>
+      </c>
+      <c r="C70" t="s">
+        <v>663</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="J70" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="K70" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="L70" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="O70" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7731,47 +8325,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="X70" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="Y70" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>9468</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>175578</v>
+      </c>
+      <c r="C71" t="s">
+        <v>669</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>602</v>
+        <v>671</v>
       </c>
       <c r="J71" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
       <c r="K71" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="L71" t="s">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
@@ -7798,56 +8396,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>606</v>
+        <v>675</v>
       </c>
       <c r="X71" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="Y71" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>9468</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>7776</v>
+      </c>
+      <c r="C72" t="s">
+        <v>678</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="J72" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="K72" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
       <c r="L72" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="O72" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7869,56 +8471,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="X72" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="Y72" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>9468</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>175579</v>
+      </c>
+      <c r="C73" t="s">
+        <v>688</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="J73" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="K73" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="L73" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="O73" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7940,56 +8546,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="X73" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="Y73" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>9468</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>39254</v>
+      </c>
+      <c r="C74" t="s">
+        <v>698</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="J74" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="K74" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="L74" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="O74" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -8011,47 +8621,51 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="X74" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
       <c r="Y74" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>9468</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>175580</v>
+      </c>
+      <c r="C75" t="s">
+        <v>707</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="J75" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="K75" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="L75" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -8078,56 +8692,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="X75" t="s">
-        <v>641</v>
+        <v>714</v>
       </c>
       <c r="Y75" t="s">
-        <v>642</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>9468</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>97837</v>
+      </c>
+      <c r="C76" t="s">
+        <v>716</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="J76" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="K76" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="L76" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="O76" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -8149,56 +8767,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="X76" t="s">
-        <v>641</v>
+        <v>714</v>
       </c>
       <c r="Y76" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>9468</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>175581</v>
+      </c>
+      <c r="C77" t="s">
+        <v>722</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="J77" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="K77" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="L77" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -8220,56 +8842,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>653</v>
+        <v>728</v>
       </c>
       <c r="X77" t="s">
-        <v>654</v>
+        <v>729</v>
       </c>
       <c r="Y77" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>9468</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>175582</v>
+      </c>
+      <c r="C78" t="s">
+        <v>731</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="J78" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="K78" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="L78" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
       <c r="O78" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8291,56 +8917,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>662</v>
+        <v>738</v>
       </c>
       <c r="X78" t="s">
-        <v>663</v>
+        <v>739</v>
       </c>
       <c r="Y78" t="s">
-        <v>664</v>
+        <v>740</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>9468</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>120579</v>
+      </c>
+      <c r="C79" t="s">
+        <v>741</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="J79" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="K79" t="s">
-        <v>668</v>
+        <v>745</v>
       </c>
       <c r="L79" t="s">
-        <v>669</v>
+        <v>746</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8362,56 +8992,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
       <c r="X79" t="s">
-        <v>671</v>
+        <v>748</v>
       </c>
       <c r="Y79" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>9468</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>175583</v>
+      </c>
+      <c r="C80" t="s">
+        <v>750</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>673</v>
+        <v>751</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>674</v>
+        <v>752</v>
       </c>
       <c r="J80" t="s">
-        <v>675</v>
+        <v>753</v>
       </c>
       <c r="K80" t="s">
-        <v>676</v>
+        <v>754</v>
       </c>
       <c r="L80" t="s">
-        <v>677</v>
+        <v>755</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8433,56 +9067,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="X80" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="Y80" t="s">
-        <v>681</v>
+        <v>759</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>9468</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>9819</v>
+      </c>
+      <c r="C81" t="s">
+        <v>760</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>683</v>
+        <v>762</v>
       </c>
       <c r="J81" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
       <c r="K81" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="L81" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="O81" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8504,56 +9142,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="X81" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="Y81" t="s">
-        <v>687</v>
+        <v>766</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>9468</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>175584</v>
+      </c>
+      <c r="C82" t="s">
+        <v>767</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>688</v>
+        <v>768</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>689</v>
+        <v>769</v>
       </c>
       <c r="J82" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="K82" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="L82" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="O82" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8575,56 +9217,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>694</v>
+        <v>774</v>
       </c>
       <c r="X82" t="s">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="Y82" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>9468</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>175585</v>
+      </c>
+      <c r="C83" t="s">
+        <v>777</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>697</v>
+        <v>778</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>698</v>
+        <v>779</v>
       </c>
       <c r="J83" t="s">
-        <v>699</v>
+        <v>780</v>
       </c>
       <c r="K83" t="s">
-        <v>700</v>
+        <v>781</v>
       </c>
       <c r="L83" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8646,56 +9292,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>702</v>
+        <v>783</v>
       </c>
       <c r="X83" t="s">
-        <v>703</v>
+        <v>784</v>
       </c>
       <c r="Y83" t="s">
-        <v>704</v>
+        <v>785</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>9468</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>175586</v>
+      </c>
+      <c r="C84" t="s">
+        <v>786</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>706</v>
+        <v>788</v>
       </c>
       <c r="J84" t="s">
-        <v>707</v>
+        <v>789</v>
       </c>
       <c r="K84" t="s">
-        <v>708</v>
+        <v>790</v>
       </c>
       <c r="L84" t="s">
-        <v>709</v>
+        <v>791</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="O84" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8717,56 +9367,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>710</v>
+        <v>792</v>
       </c>
       <c r="X84" t="s">
-        <v>711</v>
+        <v>793</v>
       </c>
       <c r="Y84" t="s">
-        <v>712</v>
+        <v>794</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>9468</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>175587</v>
+      </c>
+      <c r="C85" t="s">
+        <v>795</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>713</v>
+        <v>796</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="J85" t="s">
-        <v>715</v>
+        <v>798</v>
       </c>
       <c r="K85" t="s">
-        <v>716</v>
+        <v>799</v>
       </c>
       <c r="L85" t="s">
-        <v>717</v>
+        <v>800</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="O85" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8788,56 +9442,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>710</v>
+        <v>792</v>
       </c>
       <c r="X85" t="s">
-        <v>711</v>
+        <v>793</v>
       </c>
       <c r="Y85" t="s">
-        <v>718</v>
+        <v>801</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>9468</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>46980</v>
+      </c>
+      <c r="C86" t="s">
+        <v>802</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>719</v>
+        <v>803</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>720</v>
+        <v>804</v>
       </c>
       <c r="J86" t="s">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="K86" t="s">
-        <v>722</v>
+        <v>806</v>
       </c>
       <c r="L86" t="s">
-        <v>723</v>
+        <v>807</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8859,56 +9517,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>724</v>
+        <v>808</v>
       </c>
       <c r="X86" t="s">
-        <v>725</v>
+        <v>809</v>
       </c>
       <c r="Y86" t="s">
-        <v>726</v>
+        <v>810</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>9468</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>175588</v>
+      </c>
+      <c r="C87" t="s">
+        <v>811</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>727</v>
+        <v>812</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
       <c r="J87" t="s">
-        <v>729</v>
+        <v>814</v>
       </c>
       <c r="K87" t="s">
-        <v>730</v>
+        <v>815</v>
       </c>
       <c r="L87" t="s">
-        <v>731</v>
+        <v>816</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="O87" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8930,56 +9592,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>732</v>
+        <v>817</v>
       </c>
       <c r="X87" t="s">
-        <v>733</v>
+        <v>818</v>
       </c>
       <c r="Y87" t="s">
-        <v>734</v>
+        <v>819</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>9468</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>8130</v>
+      </c>
+      <c r="C88" t="s">
+        <v>820</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>735</v>
+        <v>821</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="J88" t="s">
-        <v>737</v>
+        <v>823</v>
       </c>
       <c r="K88" t="s">
-        <v>738</v>
+        <v>824</v>
       </c>
       <c r="L88" t="s">
-        <v>739</v>
+        <v>825</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>740</v>
+        <v>826</v>
       </c>
       <c r="O88" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -9001,56 +9667,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>741</v>
+        <v>827</v>
       </c>
       <c r="X88" t="s">
-        <v>742</v>
+        <v>828</v>
       </c>
       <c r="Y88" t="s">
-        <v>743</v>
+        <v>829</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>9468</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>175589</v>
+      </c>
+      <c r="C89" t="s">
+        <v>830</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>744</v>
+        <v>831</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>745</v>
+        <v>832</v>
       </c>
       <c r="J89" t="s">
-        <v>746</v>
+        <v>833</v>
       </c>
       <c r="K89" t="s">
-        <v>747</v>
+        <v>834</v>
       </c>
       <c r="L89" t="s">
-        <v>748</v>
+        <v>835</v>
       </c>
       <c r="M89" t="n">
         <v>2</v>
       </c>
       <c r="N89" t="s">
-        <v>749</v>
+        <v>836</v>
       </c>
       <c r="O89" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -9072,56 +9742,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>750</v>
+        <v>837</v>
       </c>
       <c r="X89" t="s">
-        <v>751</v>
+        <v>838</v>
       </c>
       <c r="Y89" t="s">
-        <v>752</v>
+        <v>839</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>9468</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>175590</v>
+      </c>
+      <c r="C90" t="s">
+        <v>840</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>753</v>
+        <v>841</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>754</v>
+        <v>842</v>
       </c>
       <c r="J90" t="s">
-        <v>755</v>
+        <v>843</v>
       </c>
       <c r="K90" t="s">
-        <v>756</v>
+        <v>844</v>
       </c>
       <c r="L90" t="s">
-        <v>757</v>
+        <v>845</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>749</v>
+        <v>836</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -9143,56 +9817,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>758</v>
+        <v>846</v>
       </c>
       <c r="X90" t="s">
-        <v>759</v>
+        <v>847</v>
       </c>
       <c r="Y90" t="s">
-        <v>760</v>
+        <v>848</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>9468</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>175591</v>
+      </c>
+      <c r="C91" t="s">
+        <v>849</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>761</v>
+        <v>850</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>762</v>
+        <v>851</v>
       </c>
       <c r="J91" t="s">
-        <v>763</v>
+        <v>852</v>
       </c>
       <c r="K91" t="s">
-        <v>764</v>
+        <v>853</v>
       </c>
       <c r="L91" t="s">
-        <v>765</v>
+        <v>854</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>766</v>
+        <v>855</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9214,56 +9892,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>767</v>
+        <v>856</v>
       </c>
       <c r="X91" t="s">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="Y91" t="s">
-        <v>769</v>
+        <v>858</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>9468</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>175592</v>
+      </c>
+      <c r="C92" t="s">
+        <v>859</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>771</v>
+        <v>861</v>
       </c>
       <c r="J92" t="s">
-        <v>772</v>
+        <v>862</v>
       </c>
       <c r="K92" t="s">
-        <v>773</v>
+        <v>863</v>
       </c>
       <c r="L92" t="s">
-        <v>774</v>
+        <v>864</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>775</v>
+        <v>865</v>
       </c>
       <c r="O92" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -9285,50 +9967,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>774</v>
+        <v>864</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>9468</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>62157</v>
+      </c>
+      <c r="C93" t="s">
+        <v>866</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>776</v>
+        <v>867</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="J93" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="K93" t="s">
-        <v>779</v>
+        <v>870</v>
       </c>
       <c r="L93" t="s">
-        <v>780</v>
+        <v>871</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="O93" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9352,50 +10038,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>9468</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>92219</v>
+      </c>
+      <c r="C94" t="s">
+        <v>874</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>783</v>
+        <v>875</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>784</v>
+        <v>876</v>
       </c>
       <c r="J94" t="s">
-        <v>785</v>
+        <v>877</v>
       </c>
       <c r="K94" t="s">
-        <v>786</v>
+        <v>878</v>
       </c>
       <c r="L94" t="s">
-        <v>787</v>
+        <v>879</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>788</v>
+        <v>880</v>
       </c>
       <c r="O94" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9415,50 +10105,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>789</v>
+        <v>881</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>9468</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>175593</v>
+      </c>
+      <c r="C95" t="s">
+        <v>882</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>790</v>
+        <v>883</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>791</v>
+        <v>884</v>
       </c>
       <c r="J95" t="s">
-        <v>792</v>
+        <v>885</v>
       </c>
       <c r="K95" t="s">
-        <v>793</v>
+        <v>886</v>
       </c>
       <c r="L95" t="s">
-        <v>794</v>
+        <v>887</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>795</v>
+        <v>888</v>
       </c>
       <c r="O95" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P95" t="n">
         <v>1</v>
@@ -9482,50 +10176,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>796</v>
+        <v>889</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>9468</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>175594</v>
+      </c>
+      <c r="C96" t="s">
+        <v>890</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>797</v>
+        <v>891</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>798</v>
+        <v>892</v>
       </c>
       <c r="J96" t="s">
-        <v>799</v>
+        <v>893</v>
       </c>
       <c r="K96" t="s">
-        <v>800</v>
+        <v>894</v>
       </c>
       <c r="L96" t="s">
-        <v>801</v>
+        <v>895</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>802</v>
+        <v>896</v>
       </c>
       <c r="O96" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9549,50 +10247,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>801</v>
+        <v>895</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>9468</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>175595</v>
+      </c>
+      <c r="C97" t="s">
+        <v>897</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>803</v>
+        <v>898</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>804</v>
+        <v>899</v>
       </c>
       <c r="J97" t="s">
-        <v>805</v>
+        <v>900</v>
       </c>
       <c r="K97" t="s">
-        <v>806</v>
+        <v>901</v>
       </c>
       <c r="L97" t="s">
-        <v>807</v>
+        <v>902</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>808</v>
+        <v>903</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -9616,50 +10318,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>809</v>
+        <v>904</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>9468</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>175596</v>
+      </c>
+      <c r="C98" t="s">
+        <v>905</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>810</v>
+        <v>906</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>811</v>
+        <v>907</v>
       </c>
       <c r="J98" t="s">
-        <v>812</v>
+        <v>908</v>
       </c>
       <c r="K98" t="s">
-        <v>813</v>
+        <v>909</v>
       </c>
       <c r="L98" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9683,50 +10389,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>9468</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>4147</v>
+      </c>
+      <c r="C99" t="s">
+        <v>912</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>816</v>
+        <v>913</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>817</v>
+        <v>914</v>
       </c>
       <c r="J99" t="s">
-        <v>818</v>
+        <v>915</v>
       </c>
       <c r="K99" t="s">
-        <v>819</v>
+        <v>916</v>
       </c>
       <c r="L99" t="s">
-        <v>820</v>
+        <v>917</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>821</v>
+        <v>918</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9750,50 +10460,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>820</v>
+        <v>917</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>9468</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>175597</v>
+      </c>
+      <c r="C100" t="s">
+        <v>919</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>822</v>
+        <v>920</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>823</v>
+        <v>921</v>
       </c>
       <c r="J100" t="s">
-        <v>824</v>
+        <v>922</v>
       </c>
       <c r="K100" t="s">
-        <v>825</v>
+        <v>923</v>
       </c>
       <c r="L100" t="s">
-        <v>826</v>
+        <v>924</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>827</v>
+        <v>925</v>
       </c>
       <c r="O100" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9817,50 +10531,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>828</v>
+        <v>926</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>9468</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>175598</v>
+      </c>
+      <c r="C101" t="s">
+        <v>927</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>829</v>
+        <v>928</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>830</v>
+        <v>929</v>
       </c>
       <c r="J101" t="s">
-        <v>831</v>
+        <v>930</v>
       </c>
       <c r="K101" t="s">
-        <v>832</v>
+        <v>931</v>
       </c>
       <c r="L101" t="s">
-        <v>833</v>
+        <v>932</v>
       </c>
       <c r="M101" t="n">
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>834</v>
+        <v>933</v>
       </c>
       <c r="O101" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9884,50 +10602,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>835</v>
+        <v>934</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>9468</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>92118</v>
+      </c>
+      <c r="C102" t="s">
+        <v>935</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>836</v>
+        <v>936</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>837</v>
+        <v>937</v>
       </c>
       <c r="J102" t="s">
-        <v>838</v>
+        <v>938</v>
       </c>
       <c r="K102" t="s">
-        <v>839</v>
+        <v>939</v>
       </c>
       <c r="L102" t="s">
-        <v>840</v>
+        <v>940</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>821</v>
+        <v>918</v>
       </c>
       <c r="O102" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9951,50 +10673,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>841</v>
+        <v>941</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>9468</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>175599</v>
+      </c>
+      <c r="C103" t="s">
+        <v>942</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>842</v>
+        <v>943</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>843</v>
+        <v>944</v>
       </c>
       <c r="J103" t="s">
-        <v>844</v>
+        <v>945</v>
       </c>
       <c r="K103" t="s">
-        <v>845</v>
+        <v>946</v>
       </c>
       <c r="L103" t="s">
-        <v>846</v>
+        <v>947</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>847</v>
+        <v>948</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -10018,50 +10744,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>846</v>
+        <v>947</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>9468</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>175600</v>
+      </c>
+      <c r="C104" t="s">
+        <v>949</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>848</v>
+        <v>950</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>849</v>
+        <v>951</v>
       </c>
       <c r="J104" t="s">
-        <v>850</v>
+        <v>952</v>
       </c>
       <c r="K104" t="s">
-        <v>851</v>
+        <v>953</v>
       </c>
       <c r="L104" t="s">
-        <v>852</v>
+        <v>954</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>853</v>
+        <v>955</v>
       </c>
       <c r="O104" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -10085,50 +10815,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>854</v>
+        <v>956</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>9468</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>92219</v>
+      </c>
+      <c r="C105" t="s">
+        <v>874</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>855</v>
+        <v>957</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>856</v>
+        <v>958</v>
       </c>
       <c r="J105" t="s">
-        <v>857</v>
+        <v>959</v>
       </c>
       <c r="K105" t="s">
-        <v>858</v>
+        <v>960</v>
       </c>
       <c r="L105" t="s">
-        <v>859</v>
+        <v>961</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>860</v>
+        <v>962</v>
       </c>
       <c r="O105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P105" t="n">
         <v>3</v>
@@ -10152,50 +10886,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>859</v>
+        <v>961</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>9468</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>175601</v>
+      </c>
+      <c r="C106" t="s">
+        <v>963</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>861</v>
+        <v>964</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>862</v>
+        <v>965</v>
       </c>
       <c r="J106" t="s">
-        <v>863</v>
+        <v>966</v>
       </c>
       <c r="K106" t="s">
-        <v>864</v>
+        <v>967</v>
       </c>
       <c r="L106" t="s">
-        <v>865</v>
+        <v>968</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>866</v>
+        <v>969</v>
       </c>
       <c r="O106" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -10219,50 +10957,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>865</v>
+        <v>968</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>9468</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>175602</v>
+      </c>
+      <c r="C107" t="s">
+        <v>970</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>867</v>
+        <v>971</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>868</v>
+        <v>972</v>
       </c>
       <c r="J107" t="s">
-        <v>869</v>
+        <v>973</v>
       </c>
       <c r="K107" t="s">
-        <v>870</v>
+        <v>974</v>
       </c>
       <c r="L107" t="s">
-        <v>871</v>
+        <v>975</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>872</v>
+        <v>976</v>
       </c>
       <c r="O107" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10286,50 +11028,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>871</v>
+        <v>975</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>9468</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>175603</v>
+      </c>
+      <c r="C108" t="s">
+        <v>977</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>873</v>
+        <v>978</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>874</v>
+        <v>979</v>
       </c>
       <c r="J108" t="s">
-        <v>875</v>
+        <v>980</v>
       </c>
       <c r="K108" t="s">
-        <v>876</v>
+        <v>981</v>
       </c>
       <c r="L108" t="s">
-        <v>877</v>
+        <v>982</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>872</v>
+        <v>976</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="n">
         <v>3</v>
@@ -10353,50 +11099,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>878</v>
+        <v>983</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>9468</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>175604</v>
+      </c>
+      <c r="C109" t="s">
+        <v>984</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>879</v>
+        <v>985</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>880</v>
+        <v>986</v>
       </c>
       <c r="J109" t="s">
-        <v>881</v>
+        <v>987</v>
       </c>
       <c r="K109" t="s">
-        <v>882</v>
+        <v>988</v>
       </c>
       <c r="L109" t="s">
-        <v>883</v>
+        <v>989</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>884</v>
+        <v>990</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -10420,7 +11170,7 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>883</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
